--- a/gourmet/restaurant_list/sophia_test_data.xlsx
+++ b/gourmet/restaurant_list/sophia_test_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="608">
   <si>
     <t>Sat   8:00 AM- 3:00 PM</t>
   </si>
@@ -776,9 +776,6 @@
     <t>Not worth a return visit</t>
   </si>
   <si>
-    <t>817 Sutter</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2036,9 +2033,6 @@
     <t>SPQR (no longer serving brunch)</t>
   </si>
   <si>
-    <t>Canteen (no longer serving brunch)</t>
-  </si>
-  <si>
     <t>Use AQ website to reserve. Yet another winner, will return</t>
   </si>
   <si>
@@ -2205,6 +2199,9 @@
   </si>
   <si>
     <t>Rating</t>
+  </si>
+  <si>
+    <t>817 Sutter, San Francisco, CA</t>
   </si>
 </sst>
 </file>
@@ -2810,7 +2807,7 @@
   <dimension ref="A1:J251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2829,19 +2826,19 @@
   <sheetData>
     <row r="1" spans="1:10" ht="45" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>80</v>
@@ -2851,19 +2848,19 @@
       </c>
       <c r="H1" s="43"/>
       <c r="I1" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="33" t="s">
-        <v>552</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>201</v>
+        <v>607</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D2" s="6">
         <v>90</v>
@@ -2885,13 +2882,13 @@
     </row>
     <row r="3" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="33" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D3" s="11">
         <v>90</v>
@@ -2900,7 +2897,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>23</v>
@@ -2918,7 +2915,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D4" s="11">
         <v>95</v>
@@ -2927,10 +2924,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>28</v>
@@ -2946,7 +2943,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D5" s="11">
         <v>95</v>
@@ -2955,7 +2952,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>20</v>
@@ -2968,13 +2965,13 @@
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1">
       <c r="A6" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D6" s="11">
         <v>95</v>
@@ -2983,26 +2980,26 @@
         <v>6</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D7" s="11">
         <v>90</v>
@@ -3011,7 +3008,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>17</v>
@@ -3024,13 +3021,13 @@
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>440</v>
-      </c>
       <c r="C8" s="40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D8" s="39">
         <v>95</v>
@@ -3039,25 +3036,25 @@
         <v>4</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>315</v>
-      </c>
       <c r="C9" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D9" s="11">
         <v>85</v>
@@ -3066,26 +3063,26 @@
         <v>8</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D10" s="6">
         <v>90</v>
@@ -3094,7 +3091,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>12</v>
@@ -3103,7 +3100,7 @@
         <v>13</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J10"/>
     </row>
@@ -3115,7 +3112,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D11" s="11">
         <v>85</v>
@@ -3124,10 +3121,10 @@
         <v>10</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>1</v>
@@ -3142,7 +3139,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D12" s="11">
         <v>85</v>
@@ -3151,7 +3148,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>15</v>
@@ -3163,13 +3160,13 @@
     </row>
     <row r="13" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A13" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D13" s="11">
         <v>92</v>
@@ -3178,25 +3175,25 @@
         <v>12</v>
       </c>
       <c r="F13" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>243</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>244</v>
       </c>
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A14" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>352</v>
-      </c>
       <c r="C14" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D14" s="11">
         <v>85</v>
@@ -3205,27 +3202,27 @@
         <v>13</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G14" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>388</v>
-      </c>
       <c r="I14" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>322</v>
-      </c>
       <c r="C15" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D15" s="6">
         <v>85</v>
@@ -3234,10 +3231,10 @@
         <v>14</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>1</v>
@@ -3250,10 +3247,10 @@
         <v>106</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D16" s="6">
         <v>85</v>
@@ -3262,21 +3259,21 @@
         <v>166</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D17" s="6">
         <v>80</v>
@@ -3291,18 +3288,18 @@
         <v>8</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1">
       <c r="A18" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D18" s="6">
         <v>80</v>
@@ -3317,7 +3314,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
@@ -3328,14 +3325,14 @@
         <v>29</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D19" s="11">
         <v>80</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>30</v>
@@ -3353,17 +3350,17 @@
         <v>25</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D20" s="11">
         <v>80</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>26</v>
@@ -3372,13 +3369,13 @@
     </row>
     <row r="21" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A21" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D21" s="6">
         <v>75</v>
@@ -3394,19 +3391,19 @@
         <v>1</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A22" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D22" s="6">
         <v>70</v>
@@ -3422,73 +3419,73 @@
         <v>10</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="I23" s="10" t="s">
         <v>500</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>501</v>
       </c>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A24" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>385</v>
-      </c>
       <c r="C24" s="25" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1">
       <c r="A25" s="35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>32</v>
@@ -3497,12 +3494,12 @@
         <v>33</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -3524,7 +3521,7 @@
     </row>
     <row r="28" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A28" s="38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -3537,7 +3534,7 @@
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1">
       <c r="A29" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -3549,7 +3546,7 @@
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -3561,7 +3558,7 @@
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1">
       <c r="A31" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -3573,7 +3570,7 @@
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1">
       <c r="A32" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -3585,7 +3582,7 @@
     </row>
     <row r="33" spans="1:9" ht="12.75" customHeight="1">
       <c r="A33" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -3597,7 +3594,7 @@
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1">
       <c r="A34" s="15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -3609,7 +3606,7 @@
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1">
       <c r="A35" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3621,7 +3618,7 @@
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1">
       <c r="A36" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -3633,7 +3630,7 @@
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1">
       <c r="A37" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3645,7 +3642,7 @@
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1">
       <c r="A38" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3657,7 +3654,7 @@
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1">
       <c r="A39" s="15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -3669,7 +3666,7 @@
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1">
       <c r="A40" s="15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -3681,7 +3678,7 @@
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3693,7 +3690,7 @@
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -3727,7 +3724,7 @@
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1">
       <c r="A45" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>35</v>
@@ -3739,17 +3736,17 @@
         <v>1</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1">
       <c r="A46" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="11">
@@ -3759,17 +3756,17 @@
         <v>2</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1">
       <c r="A47" s="33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D47" s="6">
         <v>90</v>
@@ -3778,17 +3775,17 @@
         <v>3</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:9" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A48" s="33" t="s">
+        <v>506</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>507</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>508</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="11">
@@ -3798,7 +3795,7 @@
         <v>4</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -3823,13 +3820,13 @@
         <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D50" s="6">
         <v>80</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -3839,7 +3836,7 @@
         <v>156</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D51" s="6">
         <v>80</v>
@@ -3862,58 +3859,58 @@
     </row>
     <row r="53" spans="1:10" ht="12.75" customHeight="1">
       <c r="A53" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>567</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>569</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="6">
         <v>60</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:10" ht="12.75" customHeight="1">
       <c r="A54" s="40" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="6">
         <v>75</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:10" ht="12.75" customHeight="1">
       <c r="A55" s="40" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="6">
         <v>80</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:10" ht="12.75" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>36</v>
@@ -3924,17 +3921,17 @@
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:10" ht="12.75" customHeight="1">
       <c r="A57" s="40" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="11">
@@ -3942,17 +3939,17 @@
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:10" ht="12.75" customHeight="1">
       <c r="A58" s="35" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="10"/>
@@ -3963,10 +3960,10 @@
     </row>
     <row r="59" spans="1:10" ht="12.75" customHeight="1">
       <c r="A59" s="35" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="10"/>
@@ -3977,10 +3974,10 @@
     </row>
     <row r="60" spans="1:10" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A60" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="10"/>
@@ -4028,17 +4025,17 @@
         <v>1</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:10" ht="12.75" customHeight="1">
       <c r="A64" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="11">
@@ -4048,7 +4045,7 @@
         <v>4</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
@@ -4069,7 +4066,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -4079,7 +4076,7 @@
         <v>96</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="11">
@@ -4089,7 +4086,7 @@
         <v>2</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
@@ -4098,20 +4095,20 @@
     </row>
     <row r="67" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A67" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>317</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>318</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="11">
         <v>83</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -4119,10 +4116,10 @@
     </row>
     <row r="68" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A68" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>374</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>375</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="11">
@@ -4130,7 +4127,7 @@
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
@@ -4141,7 +4138,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="11">
@@ -4151,7 +4148,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
@@ -4173,7 +4170,7 @@
         <v>7</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -4182,10 +4179,10 @@
     </row>
     <row r="71" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A71" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B71" s="15" t="s">
         <v>370</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>371</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="11">
@@ -4195,7 +4192,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
@@ -4216,7 +4213,7 @@
         <v>8</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -4225,10 +4222,10 @@
     </row>
     <row r="73" spans="1:10" ht="12.75" customHeight="1">
       <c r="A73" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>232</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>233</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="11">
@@ -4236,7 +4233,7 @@
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
@@ -4257,7 +4254,7 @@
         <v>9</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -4310,7 +4307,7 @@
     </row>
     <row r="78" spans="1:10" ht="12.75" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>44</v>
@@ -4329,23 +4326,23 @@
     </row>
     <row r="80" spans="1:10" ht="12.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="9" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H80" s="6"/>
     </row>
@@ -4366,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="11"/>
@@ -4375,13 +4372,13 @@
     </row>
     <row r="82" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A82" s="33" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D82" s="11">
         <v>90</v>
@@ -4390,7 +4387,7 @@
         <v>2</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="11"/>
@@ -4402,10 +4399,10 @@
         <v>105</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D83" s="6">
         <v>85</v>
@@ -4414,7 +4411,7 @@
         <v>3</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="6"/>
@@ -4426,10 +4423,10 @@
         <v>98</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D84" s="6">
         <v>90</v>
@@ -4441,42 +4438,42 @@
         <v>159</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A85" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="B85" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="B85" s="15" t="s">
-        <v>260</v>
-      </c>
       <c r="C85" s="40" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D85" s="11">
         <v>90</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="15" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="29"/>
     </row>
     <row r="86" spans="1:10" ht="12.75" customHeight="1">
       <c r="A86" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D86" s="11">
         <v>92</v>
@@ -4485,10 +4482,10 @@
         <v>5</v>
       </c>
       <c r="F86" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="G86" s="15" t="s">
         <v>288</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>289</v>
       </c>
       <c r="H86" s="15"/>
       <c r="I86" s="11"/>
@@ -4496,13 +4493,13 @@
     </row>
     <row r="87" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A87" s="33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D87" s="11">
         <v>85</v>
@@ -4511,23 +4508,23 @@
         <v>6</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
     </row>
     <row r="88" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A88" s="33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D88" s="11">
         <v>85</v>
@@ -4536,23 +4533,23 @@
         <v>8</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
     </row>
     <row r="89" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A89" s="33" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D89" s="6">
         <v>90</v>
@@ -4561,7 +4558,7 @@
         <v>9</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="6"/>
@@ -4570,13 +4567,13 @@
     </row>
     <row r="90" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A90" s="33" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D90" s="6">
         <v>95</v>
@@ -4585,10 +4582,10 @@
         <v>10</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
@@ -4596,13 +4593,13 @@
     </row>
     <row r="91" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A91" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>440</v>
-      </c>
       <c r="C91" s="33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D91" s="6">
         <v>90</v>
@@ -4611,46 +4608,46 @@
         <v>7</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="29"/>
     </row>
     <row r="92" spans="1:10" s="32" customFormat="1" ht="12.75" customHeight="1">
       <c r="A92" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="B92" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="B92" s="15" t="s">
-        <v>446</v>
-      </c>
       <c r="C92" s="33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D92" s="11">
         <v>87</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="15" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H92" s="31"/>
       <c r="I92" s="31"/>
     </row>
     <row r="93" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A93" s="33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D93" s="11">
         <v>85</v>
@@ -4659,23 +4656,23 @@
         <v>11</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
     </row>
     <row r="94" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A94" s="33" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B94" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D94" s="11">
         <v>85</v>
@@ -4684,23 +4681,23 @@
         <v>12</v>
       </c>
       <c r="F94" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G94" s="15" t="s">
         <v>329</v>
-      </c>
-      <c r="G94" s="15" t="s">
-        <v>330</v>
       </c>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
     </row>
     <row r="95" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A95" s="33" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B95" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D95" s="6">
         <v>85</v>
@@ -4709,10 +4706,10 @@
         <v>13</v>
       </c>
       <c r="F95" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="G95" s="15" t="s">
         <v>273</v>
-      </c>
-      <c r="G95" s="15" t="s">
-        <v>274</v>
       </c>
       <c r="H95" s="15"/>
       <c r="I95" s="11"/>
@@ -4726,7 +4723,7 @@
         <v>70</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D96" s="11">
         <v>85</v>
@@ -4735,46 +4732,46 @@
         <v>14</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
     </row>
     <row r="97" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A97" s="33" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D97" s="11">
         <v>85</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="15" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
     </row>
     <row r="98" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A98" s="33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D98" s="11">
         <v>85</v>
@@ -4783,7 +4780,7 @@
         <v>15</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
@@ -4791,13 +4788,13 @@
     </row>
     <row r="99" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A99" s="33" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D99" s="6">
         <v>85</v>
@@ -4806,10 +4803,10 @@
         <v>16</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="6"/>
@@ -4817,13 +4814,13 @@
     </row>
     <row r="100" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A100" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B100" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="B100" s="15" t="s">
-        <v>315</v>
-      </c>
       <c r="C100" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D100" s="6">
         <v>85</v>
@@ -4832,22 +4829,22 @@
         <v>17</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I100" s="11"/>
     </row>
     <row r="101" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A101" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D101" s="11">
         <v>85</v>
@@ -4856,10 +4853,10 @@
         <v>18</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
@@ -4867,13 +4864,13 @@
     </row>
     <row r="102" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A102" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D102" s="11">
         <v>83</v>
@@ -4882,10 +4879,10 @@
         <v>19</v>
       </c>
       <c r="F102" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G102" s="15" t="s">
         <v>319</v>
-      </c>
-      <c r="G102" s="15" t="s">
-        <v>320</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
@@ -4893,13 +4890,13 @@
     </row>
     <row r="103" spans="1:10" ht="12.75" customHeight="1">
       <c r="A103" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>62</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D103" s="11">
         <v>80</v>
@@ -4908,7 +4905,7 @@
         <v>20</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G103" s="15"/>
       <c r="H103" s="11"/>
@@ -4923,7 +4920,7 @@
         <v>51</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D104" s="11">
         <v>82</v>
@@ -4932,10 +4929,10 @@
         <v>21</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
@@ -4943,13 +4940,13 @@
     </row>
     <row r="105" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A105" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>322</v>
-      </c>
       <c r="C105" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D105" s="6">
         <v>85</v>
@@ -4958,10 +4955,10 @@
         <v>22</v>
       </c>
       <c r="F105" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G105" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>369</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="6"/>
@@ -4972,7 +4969,7 @@
         <v>102</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C106" s="37" t="s">
         <v>102</v>
@@ -4984,7 +4981,7 @@
         <v>23</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="6"/>
@@ -4997,7 +4994,7 @@
         <v>14</v>
       </c>
       <c r="C107" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D107" s="6">
         <v>80</v>
@@ -5013,13 +5010,13 @@
     </row>
     <row r="108" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A108" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C108" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D108" s="11">
         <v>85</v>
@@ -5028,23 +5025,23 @@
         <v>25</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
     </row>
     <row r="109" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A109" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="C109" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D109" s="6">
         <v>78</v>
@@ -5053,10 +5050,10 @@
         <v>26</v>
       </c>
       <c r="F109" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G109" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
@@ -5067,10 +5064,10 @@
         <v>101</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C110" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D110" s="6">
         <v>80</v>
@@ -5086,13 +5083,13 @@
     </row>
     <row r="111" spans="1:10" ht="12.75" customHeight="1">
       <c r="A111" s="33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C111" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D111" s="11">
         <v>80</v>
@@ -5101,10 +5098,10 @@
         <v>28</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
@@ -5118,7 +5115,7 @@
         <v>67</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D112" s="11">
         <v>77</v>
@@ -5127,10 +5124,10 @@
         <v>29</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H112" s="11"/>
       <c r="I112" s="11"/>
@@ -5143,7 +5140,7 @@
         <v>71</v>
       </c>
       <c r="C113" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D113" s="11">
         <v>75</v>
@@ -5152,53 +5149,53 @@
         <v>30</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H113" s="11"/>
       <c r="I113" s="11"/>
     </row>
     <row r="114" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A114" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C114" s="33" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D114" s="11">
         <v>85</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H114" s="11"/>
       <c r="I114" s="11"/>
     </row>
     <row r="115" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A115" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C115" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D115" s="11">
         <v>85</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G115" s="15"/>
       <c r="H115" s="11"/>
@@ -5212,14 +5209,14 @@
         <v>60</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D116" s="6">
         <v>85</v>
       </c>
       <c r="E116" s="15"/>
       <c r="F116" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
@@ -5228,23 +5225,23 @@
     </row>
     <row r="117" spans="1:10" ht="12.75" customHeight="1">
       <c r="A117" s="33" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C117" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D117" s="6">
         <v>85</v>
       </c>
       <c r="E117" s="15"/>
       <c r="F117" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H117" s="15"/>
       <c r="I117" s="11"/>
@@ -5255,10 +5252,10 @@
         <v>99</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C118" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D118" s="6">
         <v>75</v>
@@ -5271,34 +5268,34 @@
     </row>
     <row r="119" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A119" s="33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C119" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D119" s="6">
         <v>75</v>
       </c>
       <c r="F119" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G119" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="I119" s="6"/>
     </row>
     <row r="120" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A120" s="37" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C120" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D120" s="6">
         <v>75</v>
@@ -5308,7 +5305,7 @@
         <v>170</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
@@ -5322,13 +5319,13 @@
         <v>11</v>
       </c>
       <c r="C121" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D121" s="6">
         <v>75</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="6"/>
@@ -5338,10 +5335,10 @@
         <v>107</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C122" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D122" s="6">
         <v>75</v>
@@ -5354,63 +5351,63 @@
     </row>
     <row r="123" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A123" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C123" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D123" s="11">
         <v>75</v>
       </c>
       <c r="E123" s="11"/>
       <c r="F123" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="G123" s="15" t="s">
         <v>341</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>342</v>
       </c>
       <c r="H123" s="11"/>
       <c r="I123" s="11"/>
     </row>
     <row r="124" spans="1:10" ht="12.75" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C124" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D124" s="6">
         <v>75</v>
       </c>
       <c r="F124" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G124" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="H124" s="6"/>
     </row>
     <row r="125" spans="1:10" ht="12.75" customHeight="1">
       <c r="A125" s="33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C125" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D125" s="6">
         <v>75</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="6"/>
@@ -5420,36 +5417,36 @@
         <v>103</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C126" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D126" s="6">
         <v>70</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:10" ht="12.75" customHeight="1">
       <c r="A127" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B127" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D127" s="11">
         <v>70</v>
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G127" s="15"/>
       <c r="H127" s="11"/>
@@ -5458,13 +5455,13 @@
     </row>
     <row r="128" spans="1:10" ht="12.75" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C128" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D128" s="6">
         <v>70</v>
@@ -5477,13 +5474,13 @@
     </row>
     <row r="129" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A129" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C129" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D129" s="6">
         <v>70</v>
@@ -5499,13 +5496,13 @@
     </row>
     <row r="130" spans="1:10" ht="12.75" customHeight="1">
       <c r="A130" s="33" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C130" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D130" s="6">
         <v>70</v>
@@ -5521,10 +5518,10 @@
         <v>108</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C131" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D131" s="6">
         <v>70</v>
@@ -5540,23 +5537,23 @@
     </row>
     <row r="132" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A132" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="C132" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D132" s="6">
         <v>70</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G132" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>424</v>
       </c>
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
@@ -5564,13 +5561,13 @@
     </row>
     <row r="133" spans="1:10" ht="12.75" customHeight="1">
       <c r="A133" s="33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C133" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D133" s="6">
         <v>65</v>
@@ -5586,10 +5583,10 @@
         <v>104</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C134" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D134" s="6">
         <v>60</v>
@@ -5602,36 +5599,36 @@
     </row>
     <row r="135" spans="1:10" ht="12.75" customHeight="1">
       <c r="A135" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C135" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D135" s="10"/>
       <c r="E135" s="10"/>
       <c r="F135" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:10" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A136" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B136" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C136" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D136" s="10"/>
       <c r="E136" s="10"/>
       <c r="F136" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G136" s="22"/>
       <c r="H136" s="22"/>
@@ -5639,36 +5636,36 @@
     </row>
     <row r="137" spans="1:10" ht="12.75" customHeight="1">
       <c r="A137" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="B137" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="B137" s="12" t="s">
-        <v>308</v>
-      </c>
       <c r="C137" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D137" s="10"/>
       <c r="E137" s="10"/>
       <c r="F137" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:10" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A138" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B138" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C138" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D138" s="10"/>
       <c r="E138" s="10"/>
       <c r="F138" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G138" s="24"/>
       <c r="H138" s="24"/>
@@ -5676,36 +5673,36 @@
     </row>
     <row r="139" spans="1:10" ht="12.75" customHeight="1">
       <c r="A139" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C139" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
     </row>
     <row r="140" spans="1:10" ht="12.75" customHeight="1">
       <c r="A140" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
@@ -5715,15 +5712,15 @@
         <v>115</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G141" s="22"/>
       <c r="H141" s="22"/>
@@ -5731,13 +5728,13 @@
     </row>
     <row r="142" spans="1:10" ht="12.75" customHeight="1">
       <c r="A142" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
@@ -5747,13 +5744,13 @@
     </row>
     <row r="143" spans="1:10" ht="12.75" customHeight="1">
       <c r="A143" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D143" s="10"/>
       <c r="E143" s="10"/>
@@ -5763,10 +5760,10 @@
     </row>
     <row r="144" spans="1:10" ht="12.75" customHeight="1">
       <c r="A144" s="35" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C144" s="35"/>
       <c r="D144" s="10"/>
@@ -5777,13 +5774,13 @@
     </row>
     <row r="145" spans="1:8" ht="12.75" customHeight="1">
       <c r="A145" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="B145" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="B145" s="12" t="s">
-        <v>393</v>
-      </c>
       <c r="C145" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D145" s="10"/>
       <c r="E145" s="10"/>
@@ -5793,13 +5790,13 @@
     </row>
     <row r="146" spans="1:8" ht="12.75" customHeight="1">
       <c r="A146" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="B146" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="B146" s="12" t="s">
-        <v>363</v>
-      </c>
       <c r="C146" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D146" s="10"/>
       <c r="E146" s="10"/>
@@ -5809,13 +5806,13 @@
     </row>
     <row r="147" spans="1:8" ht="12.75" customHeight="1">
       <c r="A147" s="35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C147" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
@@ -5831,7 +5828,7 @@
         <v>53</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D148" s="10"/>
       <c r="E148" s="10"/>
@@ -5841,13 +5838,13 @@
     </row>
     <row r="149" spans="1:8" ht="12.75" customHeight="1">
       <c r="A149" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="B149" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="B149" s="12" t="s">
-        <v>395</v>
-      </c>
       <c r="C149" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D149" s="10"/>
       <c r="E149" s="10"/>
@@ -5857,13 +5854,13 @@
     </row>
     <row r="150" spans="1:8" ht="12.75" customHeight="1">
       <c r="A150" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="B150" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="B150" s="12" t="s">
-        <v>397</v>
-      </c>
       <c r="C150" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D150" s="10"/>
       <c r="E150" s="10"/>
@@ -5873,13 +5870,13 @@
     </row>
     <row r="151" spans="1:8" ht="12.75" customHeight="1">
       <c r="A151" s="35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B151" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D151" s="10"/>
       <c r="E151" s="10"/>
@@ -5889,10 +5886,10 @@
     </row>
     <row r="152" spans="1:8" ht="12.75" customHeight="1">
       <c r="A152" s="35" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C152" s="35"/>
       <c r="D152" s="10"/>
@@ -5903,10 +5900,10 @@
     </row>
     <row r="153" spans="1:8" ht="12.75" customHeight="1">
       <c r="A153" s="35" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C153" s="35"/>
       <c r="D153" s="10"/>
@@ -5917,10 +5914,10 @@
     </row>
     <row r="154" spans="1:8" ht="12.75" customHeight="1">
       <c r="A154" s="35" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C154" s="35"/>
       <c r="D154" s="10"/>
@@ -5931,13 +5928,13 @@
     </row>
     <row r="155" spans="1:8" ht="12.75" customHeight="1">
       <c r="A155" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="B155" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="B155" s="12" t="s">
-        <v>400</v>
-      </c>
       <c r="C155" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D155" s="10"/>
       <c r="E155" s="10"/>
@@ -5947,10 +5944,10 @@
     </row>
     <row r="156" spans="1:8" ht="12.75" customHeight="1">
       <c r="A156" s="35" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C156" s="35"/>
       <c r="D156" s="10"/>
@@ -5961,13 +5958,13 @@
     </row>
     <row r="157" spans="1:8" ht="12.75" customHeight="1">
       <c r="A157" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="B157" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="B157" s="12" t="s">
-        <v>402</v>
-      </c>
       <c r="C157" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D157" s="10"/>
       <c r="E157" s="10"/>
@@ -5977,10 +5974,10 @@
     </row>
     <row r="158" spans="1:8" ht="12.75" customHeight="1">
       <c r="A158" s="35" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C158" s="35"/>
       <c r="D158" s="10"/>
@@ -5991,13 +5988,13 @@
     </row>
     <row r="159" spans="1:8" ht="12.75" customHeight="1">
       <c r="A159" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="B159" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="B159" s="12" t="s">
-        <v>404</v>
-      </c>
       <c r="C159" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D159" s="10"/>
       <c r="E159" s="10"/>
@@ -6007,13 +6004,13 @@
     </row>
     <row r="160" spans="1:8" ht="12.75" customHeight="1">
       <c r="A160" s="35" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B160" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C160" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D160" s="10"/>
       <c r="E160" s="10"/>
@@ -6023,13 +6020,13 @@
     </row>
     <row r="161" spans="1:9" ht="12.75" customHeight="1">
       <c r="A161" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="B161" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="B161" s="12" t="s">
-        <v>406</v>
-      </c>
       <c r="C161" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
@@ -6039,13 +6036,13 @@
     </row>
     <row r="162" spans="1:9" ht="12.75" customHeight="1">
       <c r="A162" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="B162" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="B162" s="12" t="s">
-        <v>512</v>
-      </c>
       <c r="C162" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D162" s="10"/>
       <c r="E162" s="10"/>
@@ -6055,13 +6052,13 @@
     </row>
     <row r="163" spans="1:9" ht="12.75" customHeight="1">
       <c r="A163" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="B163" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="B163" s="12" t="s">
-        <v>373</v>
-      </c>
       <c r="C163" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
@@ -6077,7 +6074,7 @@
         <v>66</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D164" s="10"/>
       <c r="E164" s="10"/>
@@ -6088,13 +6085,13 @@
     </row>
     <row r="165" spans="1:9" s="32" customFormat="1" ht="12.75" customHeight="1">
       <c r="A165" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C165" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D165" s="30"/>
       <c r="E165" s="30"/>
@@ -6105,13 +6102,13 @@
     </row>
     <row r="166" spans="1:9" ht="12.75" customHeight="1">
       <c r="A166" s="35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B166" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D166" s="10"/>
       <c r="E166" s="10"/>
@@ -6121,13 +6118,13 @@
     </row>
     <row r="167" spans="1:9" ht="12.75" customHeight="1">
       <c r="A167" s="35" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C167" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
@@ -6137,13 +6134,13 @@
     </row>
     <row r="168" spans="1:9" ht="12.75" customHeight="1">
       <c r="A168" s="35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C168" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D168" s="10"/>
       <c r="E168" s="10"/>
@@ -6153,13 +6150,13 @@
     </row>
     <row r="169" spans="1:9" ht="12.75" customHeight="1">
       <c r="A169" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B169" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="B169" s="12" t="s">
-        <v>443</v>
-      </c>
       <c r="C169" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D169" s="10"/>
       <c r="E169" s="10"/>
@@ -6169,10 +6166,10 @@
     </row>
     <row r="170" spans="1:9" ht="12.75" customHeight="1">
       <c r="A170" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C170" s="35"/>
       <c r="D170" s="10"/>
@@ -6183,13 +6180,13 @@
     </row>
     <row r="171" spans="1:9" ht="12.75" customHeight="1">
       <c r="A171" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="B171" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="B171" s="12" t="s">
-        <v>520</v>
-      </c>
       <c r="C171" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D171" s="10"/>
       <c r="E171" s="10"/>
@@ -6199,13 +6196,13 @@
     </row>
     <row r="172" spans="1:9" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A172" s="35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C172" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D172" s="10"/>
       <c r="E172" s="10"/>
@@ -6216,10 +6213,10 @@
     </row>
     <row r="173" spans="1:9" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A173" s="35" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C173" s="35"/>
       <c r="D173" s="10"/>
@@ -6247,7 +6244,7 @@
     </row>
     <row r="176" spans="1:9" s="19" customFormat="1" ht="12.75" customHeight="1">
       <c r="A176" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -6258,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G176" s="20"/>
       <c r="H176" s="20"/>
@@ -6266,7 +6263,7 @@
     </row>
     <row r="177" spans="1:9" s="19" customFormat="1" ht="12.75" customHeight="1">
       <c r="A177" s="19" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -6313,26 +6310,26 @@
     </row>
     <row r="180" spans="1:9" ht="12.75" customHeight="1">
       <c r="A180" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D180" s="6">
         <v>85</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
     </row>
     <row r="181" spans="1:9" ht="12.75" customHeight="1">
       <c r="A181" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D181" s="6">
         <v>85</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
@@ -6345,7 +6342,7 @@
         <v>85</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
@@ -6368,7 +6365,7 @@
     </row>
     <row r="184" spans="1:9" ht="12.75" customHeight="1">
       <c r="A184" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D184" s="6">
         <v>80</v>
@@ -6379,7 +6376,7 @@
     </row>
     <row r="185" spans="1:9" ht="12.75" customHeight="1">
       <c r="A185" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D185" s="6">
         <v>80</v>
@@ -6390,39 +6387,39 @@
     </row>
     <row r="186" spans="1:9" ht="12.75" customHeight="1">
       <c r="A186" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D186" s="6">
         <v>80</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
     </row>
     <row r="187" spans="1:9" ht="12.75" customHeight="1">
       <c r="A187" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D187" s="6">
         <v>80</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
     </row>
     <row r="188" spans="1:9" ht="12.75" customHeight="1">
       <c r="A188" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D188" s="6">
         <v>80</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
@@ -6462,7 +6459,7 @@
         <v>75</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
@@ -6480,13 +6477,13 @@
     </row>
     <row r="193" spans="1:8" ht="12.75" customHeight="1">
       <c r="A193" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D193" s="6">
         <v>75</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G193" s="6"/>
       <c r="H193" s="6"/>
@@ -6548,13 +6545,13 @@
     </row>
     <row r="198" spans="1:8" ht="12.75" customHeight="1">
       <c r="A198" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D198" s="6">
         <v>70</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
@@ -6596,7 +6593,7 @@
     </row>
     <row r="202" spans="1:8" ht="12.75" customHeight="1">
       <c r="A202" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D202" s="6">
         <v>70</v>
@@ -6624,20 +6621,20 @@
         <v>70</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
     </row>
     <row r="205" spans="1:8" ht="12.75" customHeight="1">
       <c r="A205" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D205" s="6">
         <v>70</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G205" s="6"/>
       <c r="H205" s="6"/>
@@ -6672,7 +6669,7 @@
         <v>70</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G208" s="6"/>
       <c r="H208" s="6"/>
@@ -6773,10 +6770,10 @@
     </row>
     <row r="217" spans="1:8" ht="12.75" customHeight="1">
       <c r="A217" s="35" t="s">
+        <v>513</v>
+      </c>
+      <c r="B217" s="12" t="s">
         <v>514</v>
-      </c>
-      <c r="B217" s="12" t="s">
-        <v>515</v>
       </c>
       <c r="C217" s="12"/>
       <c r="F217" s="4"/>
@@ -6799,10 +6796,10 @@
     </row>
     <row r="219" spans="1:8" ht="12.75" customHeight="1">
       <c r="A219" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C219" s="12"/>
       <c r="D219" s="10"/>
@@ -6813,10 +6810,10 @@
     </row>
     <row r="220" spans="1:8" ht="12.75" customHeight="1">
       <c r="A220" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B220" s="12" t="s">
         <v>294</v>
-      </c>
-      <c r="B220" s="12" t="s">
-        <v>295</v>
       </c>
       <c r="C220" s="12"/>
       <c r="D220" s="10"/>
@@ -6946,7 +6943,7 @@
     </row>
     <row r="231" spans="1:9" ht="12.75" customHeight="1">
       <c r="A231" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D231" s="6">
         <v>25</v>
@@ -6959,7 +6956,7 @@
     </row>
     <row r="232" spans="1:9" ht="12.75" customHeight="1">
       <c r="A232" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B232" s="26"/>
       <c r="C232" s="26"/>
@@ -6968,14 +6965,14 @@
       </c>
       <c r="E232" s="27"/>
       <c r="F232" s="26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G232" s="6"/>
       <c r="H232" s="6"/>
     </row>
     <row r="233" spans="1:9" s="28" customFormat="1" ht="12.75" customHeight="1">
       <c r="A233" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B233" s="26"/>
       <c r="C233" s="26"/>
@@ -6992,7 +6989,7 @@
     </row>
     <row r="234" spans="1:9" ht="12.75" customHeight="1">
       <c r="A234" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B234" s="26"/>
       <c r="C234" s="26"/>
@@ -7001,14 +6998,14 @@
       </c>
       <c r="E234" s="27"/>
       <c r="F234" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G234" s="6"/>
       <c r="H234" s="6"/>
     </row>
     <row r="235" spans="1:9" ht="12.75" customHeight="1">
       <c r="A235" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B235" s="26"/>
       <c r="C235" s="26"/>
@@ -7019,14 +7016,14 @@
         <v>8</v>
       </c>
       <c r="F235" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G235" s="6"/>
       <c r="H235" s="6"/>
     </row>
     <row r="236" spans="1:9" ht="12.75" customHeight="1">
       <c r="A236" s="26" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B236" s="26"/>
       <c r="C236" s="26"/>
@@ -7035,7 +7032,7 @@
       </c>
       <c r="E236" s="27"/>
       <c r="F236" s="26" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G236" s="6"/>
       <c r="H236" s="6"/>
@@ -7068,7 +7065,7 @@
     </row>
     <row r="240" spans="1:9" ht="12.75" customHeight="1">
       <c r="A240" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D240" s="6">
         <v>45</v>
@@ -7094,7 +7091,7 @@
     </row>
     <row r="242" spans="1:10" ht="12.75" customHeight="1">
       <c r="A242" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D242" s="6">
         <v>30</v>
@@ -7120,13 +7117,13 @@
     </row>
     <row r="244" spans="1:10" ht="12.75" customHeight="1">
       <c r="A244" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D244" s="6">
         <v>15</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G244" s="4"/>
       <c r="H244" s="6"/>
@@ -7155,7 +7152,7 @@
     </row>
     <row r="247" spans="1:10" ht="12.75" customHeight="1">
       <c r="A247" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D247" s="6">
         <v>25</v>
@@ -7168,10 +7165,10 @@
     </row>
     <row r="248" spans="1:10" s="28" customFormat="1" ht="12.75" customHeight="1">
       <c r="A248" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B248" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C248" s="26"/>
       <c r="D248" s="27">
@@ -7179,7 +7176,7 @@
       </c>
       <c r="E248" s="27"/>
       <c r="F248" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G248" s="26"/>
       <c r="H248" s="27"/>
@@ -7187,10 +7184,10 @@
     </row>
     <row r="249" spans="1:10" s="36" customFormat="1" ht="12.75" customHeight="1">
       <c r="A249" s="26" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B249" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C249" s="26"/>
       <c r="D249" s="27">
@@ -7200,10 +7197,10 @@
         <v>16</v>
       </c>
       <c r="F249" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G249" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H249" s="27"/>
       <c r="I249" s="27"/>
@@ -7307,7 +7304,7 @@
     <hyperlink ref="A121" r:id="rId71"/>
     <hyperlink ref="A4" r:id="rId72"/>
     <hyperlink ref="A6" r:id="rId73"/>
-    <hyperlink ref="A2" r:id="rId74" display="Canteen"/>
+    <hyperlink ref="A2" r:id="rId74"/>
     <hyperlink ref="A3" r:id="rId75" display="SPQR"/>
     <hyperlink ref="A9" r:id="rId76"/>
     <hyperlink ref="A7" r:id="rId77"/>

--- a/gourmet/restaurant_list/sophia_test_data.xlsx
+++ b/gourmet/restaurant_list/sophia_test_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23206"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23416"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="610">
   <si>
     <t>Sat   8:00 AM- 3:00 PM</t>
   </si>
@@ -2202,6 +2202,12 @@
   </si>
   <si>
     <t>817 Sutter, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
   </si>
 </sst>
 </file>
@@ -2383,12 +2389,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
@@ -2509,8 +2518,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2804,27 +2816,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J251"/>
+  <dimension ref="A1:K251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="39.1640625" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8" style="6" customWidth="1"/>
-    <col min="6" max="6" width="87.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5" customWidth="1"/>
-    <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="0.5" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8" style="6" customWidth="1"/>
+    <col min="7" max="7" width="87.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5" customWidth="1"/>
+    <col min="10" max="10" width="21" style="6" customWidth="1"/>
+    <col min="11" max="11" width="0.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" customHeight="1">
+    <row r="1" spans="1:11" ht="45" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>605</v>
       </c>
@@ -2832,417 +2845,462 @@
         <v>81</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="43" t="s">
         <v>335</v>
       </c>
-      <c r="J1" s="43"/>
-    </row>
-    <row r="2" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="K1" s="43"/>
+    </row>
+    <row r="2" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="E2" s="6">
+        <v>90</v>
+      </c>
+      <c r="F2" s="6">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="K2"/>
+    </row>
+    <row r="3" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C3" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E3" s="6">
         <v>90</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3"/>
+    </row>
+    <row r="4" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="33" t="s">
         <v>550</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C4" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D3" s="11">
+      <c r="E4" s="11">
         <v>90</v>
       </c>
-      <c r="E3" s="11">
+      <c r="F4" s="11">
         <v>2</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A5" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C5" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E5" s="11">
         <v>95</v>
       </c>
-      <c r="E4" s="11">
+      <c r="F5" s="11">
         <v>3</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="J5" s="11"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A6" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C6" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E6" s="11">
         <v>95</v>
       </c>
-      <c r="E5" s="11">
+      <c r="F6" s="11">
         <v>5</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G6" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="J6" s="11"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A7" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C7" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E7" s="11">
         <v>95</v>
       </c>
-      <c r="E6" s="11">
+      <c r="F7" s="11">
         <v>6</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G7" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A8" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C8" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D7" s="11">
+      <c r="E8" s="11">
         <v>90</v>
       </c>
-      <c r="E7" s="11">
+      <c r="F8" s="11">
         <v>7</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G8" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="I8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="40" t="s">
+      <c r="J8" s="11"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A9" s="40" t="s">
         <v>438</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C9" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>438</v>
       </c>
-      <c r="D8" s="39">
+      <c r="E9" s="39">
         <v>95</v>
       </c>
-      <c r="E8" s="39">
+      <c r="F9" s="39">
         <v>4</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="G9" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A9" s="33" t="s">
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A10" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C10" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D9" s="11">
+      <c r="E10" s="11">
         <v>85</v>
       </c>
-      <c r="E9" s="11">
+      <c r="F10" s="11">
         <v>8</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="G10" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="33" t="s">
-        <v>505</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>502</v>
-      </c>
-      <c r="D10" s="6">
-        <v>90</v>
-      </c>
-      <c r="E10" s="6">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J10" s="11"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A11" s="33" t="s">
         <v>109</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D11" s="11">
+      <c r="E11" s="11">
         <v>85</v>
       </c>
-      <c r="E11" s="11">
+      <c r="F11" s="11">
         <v>10</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="G11" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="I11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="33" t="s">
         <v>100</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D12" s="11">
+      <c r="E12" s="11">
         <v>85</v>
       </c>
-      <c r="E12" s="11">
+      <c r="F12" s="11">
         <v>11</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="G12" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="H12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="I12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A13" s="33" t="s">
         <v>241</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="D13" s="11">
+      <c r="E13" s="11">
         <v>92</v>
       </c>
-      <c r="E13" s="11">
+      <c r="F13" s="11">
         <v>12</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="G13" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="I13" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A14" s="33" t="s">
         <v>350</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="D14" s="11">
+      <c r="E14" s="11">
         <v>85</v>
       </c>
-      <c r="E14" s="11">
+      <c r="F14" s="11">
         <v>13</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="H14" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="I14" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="33" t="s">
         <v>320</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="6">
         <v>85</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="6">
         <v>14</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J15" s="6"/>
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" customHeight="1">
       <c r="A16" s="33" t="s">
         <v>106</v>
       </c>
@@ -3250,22 +3308,25 @@
         <v>214</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="6">
         <v>85</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>332</v>
       </c>
@@ -3273,25 +3334,28 @@
         <v>218</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="D17" s="6">
+      <c r="E17" s="6">
         <v>80</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1">
       <c r="A18" s="33" t="s">
         <v>334</v>
       </c>
@@ -3299,75 +3363,84 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="D18" s="6">
+      <c r="E18" s="6">
         <v>80</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="J18" s="11" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="19" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A19" s="33" t="s">
         <v>153</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="D19" s="11">
+      <c r="E19" s="11">
         <v>80</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="11"/>
+      <c r="G19" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="H19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="I19" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A20" s="33" t="s">
         <v>151</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D20" s="11">
+      <c r="E20" s="11">
         <v>80</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="11"/>
+      <c r="G20" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="H20" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="I20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A21" s="33" t="s">
         <v>338</v>
       </c>
@@ -3375,3795 +3448,4476 @@
         <v>217</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="D21" s="6">
+      <c r="E21" s="6">
         <v>75</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="J21"/>
-    </row>
-    <row r="22" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A22" s="33" t="s">
         <v>336</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D22" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="D22" s="6">
+      <c r="E22" s="6">
         <v>70</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="J22" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>498</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D23" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="J23" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="J23"/>
-    </row>
-    <row r="24" spans="1:10" s="25" customFormat="1" ht="12.75" customHeight="1">
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="1:11" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A24" s="35" t="s">
         <v>383</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>539</v>
       </c>
-      <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" ht="12.75" customHeight="1">
       <c r="A25" s="35" t="s">
         <v>331</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="J25" s="10" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1">
+    <row r="26" spans="1:11" ht="12.75" customHeight="1">
       <c r="A26" s="15" t="s">
         <v>333</v>
       </c>
       <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="10"/>
+      <c r="C26" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D26" s="12"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="3"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="12.75" customHeight="1">
       <c r="A27" s="15"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="10"/>
+      <c r="C27" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D27" s="12"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A28" s="38" t="s">
         <v>536</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="11"/>
+      <c r="C28" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D28" s="15"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="15"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I28" s="16"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" ht="12.75" customHeight="1">
       <c r="A29" s="15" t="s">
         <v>527</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="10"/>
+      <c r="C29" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D29" s="12"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" ht="12.75" customHeight="1">
       <c r="A30" s="15" t="s">
         <v>528</v>
       </c>
       <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="10"/>
+      <c r="C30" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D30" s="12"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="3"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="12.75" customHeight="1">
       <c r="A31" s="15" t="s">
         <v>529</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="10"/>
+      <c r="C31" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D31" s="12"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="3"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" ht="12.75" customHeight="1">
       <c r="A32" s="15" t="s">
         <v>526</v>
       </c>
       <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="10"/>
+      <c r="C32" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D32" s="12"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="12"/>
       <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="12.75" customHeight="1">
       <c r="A33" s="15" t="s">
         <v>522</v>
       </c>
       <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="10"/>
+      <c r="C33" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D33" s="12"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="3"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="12"/>
       <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="12.75" customHeight="1">
       <c r="A34" s="15" t="s">
         <v>523</v>
       </c>
       <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="10"/>
+      <c r="C34" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D34" s="12"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="3"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="12.75" customHeight="1">
       <c r="A35" s="15" t="s">
         <v>524</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="10"/>
+      <c r="C35" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D35" s="12"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="3"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="12"/>
       <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="12.75" customHeight="1">
       <c r="A36" s="15" t="s">
         <v>525</v>
       </c>
       <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="10"/>
+      <c r="C36" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D36" s="12"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="3"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="12"/>
       <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="12.75" customHeight="1">
       <c r="A37" s="15" t="s">
         <v>530</v>
       </c>
       <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="10"/>
+      <c r="C37" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D37" s="12"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="3"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="12"/>
       <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="12.75" customHeight="1">
       <c r="A38" s="15" t="s">
         <v>531</v>
       </c>
       <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="10"/>
+      <c r="C38" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D38" s="12"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="3"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="12"/>
       <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="12.75" customHeight="1">
       <c r="A39" s="15" t="s">
         <v>532</v>
       </c>
       <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="10"/>
+      <c r="C39" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D39" s="12"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="3"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="12"/>
       <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" ht="12.75" customHeight="1">
       <c r="A40" s="15" t="s">
         <v>533</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="10"/>
+      <c r="C40" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D40" s="12"/>
       <c r="E40" s="10"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="3"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="12"/>
       <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" ht="12.75" customHeight="1">
       <c r="A41" s="12" t="s">
         <v>534</v>
       </c>
       <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="10"/>
+      <c r="C41" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D41" s="12"/>
       <c r="E41" s="10"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="3"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="12"/>
       <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" ht="12.75" customHeight="1">
       <c r="A42" s="12" t="s">
         <v>535</v>
       </c>
       <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="10"/>
+      <c r="C42" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D42" s="12"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="3"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="12.75" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="10"/>
+      <c r="C43" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D43" s="12"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="3"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="12"/>
       <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" ht="12.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="8"/>
+      <c r="C44" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="4"/>
       <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" ht="12.75" customHeight="1">
       <c r="A45" s="33" t="s">
         <v>486</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="11">
+      <c r="C45" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E45" s="11">
         <v>95</v>
       </c>
-      <c r="E45" s="11">
+      <c r="F45" s="11">
         <v>1</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" ht="12.75" customHeight="1">
       <c r="A46" s="33" t="s">
         <v>245</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="11">
+      <c r="C46" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="11">
         <v>95</v>
       </c>
-      <c r="E46" s="11">
+      <c r="F46" s="11">
         <v>2</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" ht="12.75" customHeight="1">
       <c r="A47" s="33" t="s">
         <v>487</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D47" s="6">
+      <c r="C47" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E47" s="6">
         <v>90</v>
       </c>
-      <c r="E47" s="6">
+      <c r="F47" s="6">
         <v>3</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:9" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A48" s="33" t="s">
         <v>506</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="11">
+      <c r="C48" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="11">
         <v>89</v>
       </c>
-      <c r="E48" s="11">
+      <c r="F48" s="11">
         <v>4</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="G48" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-    </row>
-    <row r="49" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="1:11" ht="12.75" customHeight="1">
       <c r="A49" s="33" t="s">
         <v>155</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="6">
+      <c r="C49" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E49" s="6">
         <v>85</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="6"/>
+      <c r="G49" s="4"/>
       <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:11" ht="12.75" customHeight="1">
       <c r="A50" s="33" t="s">
         <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D50" s="6">
+      <c r="C50" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E50" s="6">
         <v>80</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:11" ht="12.75" customHeight="1">
       <c r="A51" s="33" t="s">
         <v>156</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D51" s="6">
+      <c r="C51" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E51" s="6">
         <v>80</v>
       </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="6"/>
+      <c r="G51" s="4"/>
       <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:11" ht="12.75" customHeight="1">
       <c r="A52" s="33" t="s">
         <v>109</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="6"/>
+      <c r="C52" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="G52" s="4"/>
       <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:11" ht="12.75" customHeight="1">
       <c r="A53" s="33" t="s">
         <v>565</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="6">
+      <c r="C53" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="6">
         <v>60</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:11" ht="12.75" customHeight="1">
       <c r="A54" s="40" t="s">
         <v>509</v>
       </c>
       <c r="B54" s="41" t="s">
         <v>512</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="6">
+      <c r="C54" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="6">
         <v>75</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="G54" s="6"/>
       <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:11" ht="12.75" customHeight="1">
       <c r="A55" s="40" t="s">
         <v>508</v>
       </c>
       <c r="B55" s="42" t="s">
         <v>552</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="6">
+      <c r="C55" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="6">
         <v>80</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="G55" s="6"/>
       <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:11" ht="12.75" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>493</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="11">
+      <c r="C56" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D56" s="15"/>
+      <c r="E56" s="11">
         <v>85</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="10"/>
+      <c r="G56" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="G56" s="6"/>
       <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:11" ht="12.75" customHeight="1">
       <c r="A57" s="40" t="s">
         <v>597</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="11">
+      <c r="C57" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="11">
         <v>75</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="10"/>
+      <c r="G57" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="G57" s="6"/>
       <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:11" ht="12.75" customHeight="1">
       <c r="A58" s="35" t="s">
         <v>593</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="10"/>
+      <c r="C58" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D58" s="12"/>
       <c r="E58" s="10"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="6"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="4"/>
       <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:11" ht="12.75" customHeight="1">
       <c r="A59" s="35" t="s">
         <v>595</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="10"/>
+      <c r="C59" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D59" s="12"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="6"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="4"/>
       <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:10" s="25" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:11" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A60" s="35" t="s">
         <v>433</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="10"/>
+      <c r="C60" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D60" s="12"/>
       <c r="E60" s="10"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="12"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
-    </row>
-    <row r="61" spans="1:10" s="25" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" spans="1:11" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A61" s="35"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="10"/>
+      <c r="C61" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D61" s="12"/>
       <c r="E61" s="10"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="12"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
-    </row>
-    <row r="62" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" spans="1:11" s="19" customFormat="1" ht="12.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="10"/>
+      <c r="C62" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D62" s="3"/>
       <c r="E62" s="10"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="20"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="13"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
-    </row>
-    <row r="63" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="1:11" ht="12.75" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D63" s="11">
+      <c r="C63" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E63" s="11">
         <v>90</v>
       </c>
-      <c r="E63" s="11">
+      <c r="F63" s="11">
         <v>1</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G63" s="6"/>
       <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:11" ht="12.75" customHeight="1">
       <c r="A64" s="15" t="s">
         <v>256</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="11">
+      <c r="C64" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D64" s="15"/>
+      <c r="E64" s="11">
         <v>85</v>
       </c>
-      <c r="E64" s="11">
+      <c r="F64" s="11">
         <v>4</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="G64" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
-      <c r="J64" s="17"/>
-    </row>
-    <row r="65" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J64" s="11"/>
+      <c r="K64" s="17"/>
+    </row>
+    <row r="65" spans="1:11" ht="12.75" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="11">
+      <c r="C65" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E65" s="11">
         <v>85</v>
       </c>
-      <c r="E65" s="11">
+      <c r="F65" s="11">
         <v>3</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G65" s="6"/>
       <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:11" ht="12.75" customHeight="1">
       <c r="A66" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="11">
+      <c r="C66" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="11">
         <v>85</v>
       </c>
-      <c r="E66" s="11">
+      <c r="F66" s="11">
         <v>2</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="G66" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
-      <c r="J66" s="17"/>
-    </row>
-    <row r="67" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J66" s="11"/>
+      <c r="K66" s="17"/>
+    </row>
+    <row r="67" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A67" s="15" t="s">
         <v>316</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="11">
+      <c r="C67" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D67" s="15"/>
+      <c r="E67" s="11">
         <v>83</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="F67" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="G67" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
-    </row>
-    <row r="68" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J67" s="11"/>
+    </row>
+    <row r="68" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A68" s="15" t="s">
         <v>373</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="11">
+      <c r="C68" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D68" s="15"/>
+      <c r="E68" s="11">
         <v>83</v>
       </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="15" t="s">
+      <c r="F68" s="11"/>
+      <c r="G68" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
-    </row>
-    <row r="69" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J68" s="11"/>
+    </row>
+    <row r="69" spans="1:11" ht="12.75" customHeight="1">
       <c r="A69" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="11">
+      <c r="C69" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D69" s="15"/>
+      <c r="E69" s="11">
         <v>82</v>
       </c>
-      <c r="E69" s="11">
+      <c r="F69" s="11">
         <v>5</v>
       </c>
-      <c r="F69" s="15" t="s">
+      <c r="G69" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
-      <c r="J69" s="17"/>
-    </row>
-    <row r="70" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J69" s="11"/>
+      <c r="K69" s="17"/>
+    </row>
+    <row r="70" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="11">
+      <c r="C70" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="11">
         <v>80</v>
       </c>
-      <c r="E70" s="11">
+      <c r="F70" s="11">
         <v>7</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="G70" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
-      <c r="J70"/>
-    </row>
-    <row r="71" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J70" s="6"/>
+      <c r="K70"/>
+    </row>
+    <row r="71" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A71" s="15" t="s">
         <v>369</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="11">
+      <c r="C71" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D71" s="15"/>
+      <c r="E71" s="11">
         <v>80</v>
       </c>
-      <c r="E71" s="11">
+      <c r="F71" s="11">
         <v>6</v>
       </c>
-      <c r="F71" s="15" t="s">
+      <c r="G71" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
-    </row>
-    <row r="72" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J71" s="11"/>
+    </row>
+    <row r="72" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>158</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="11">
+      <c r="C72" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="11">
         <v>70</v>
       </c>
-      <c r="E72" s="11">
+      <c r="F72" s="11">
         <v>8</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="G72" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
-      <c r="J72"/>
-    </row>
-    <row r="73" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J72" s="6"/>
+      <c r="K72"/>
+    </row>
+    <row r="73" spans="1:11" ht="12.75" customHeight="1">
       <c r="A73" s="15" t="s">
         <v>231</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="11">
+      <c r="C73" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D73" s="15"/>
+      <c r="E73" s="11">
         <v>70</v>
       </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="15" t="s">
+      <c r="F73" s="11"/>
+      <c r="G73" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
-      <c r="J73" s="17"/>
-    </row>
-    <row r="74" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J73" s="11"/>
+      <c r="K73" s="17"/>
+    </row>
+    <row r="74" spans="1:11" ht="12.75" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D74" s="11">
+      <c r="C74" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E74" s="11">
         <v>65</v>
       </c>
-      <c r="E74" s="11">
+      <c r="F74" s="11">
         <v>9</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="G74" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G74" s="6"/>
       <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A75" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="10"/>
+      <c r="C75" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D75" s="12"/>
       <c r="E75" s="10"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="6"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="4"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
-      <c r="J75"/>
-    </row>
-    <row r="76" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J75" s="6"/>
+      <c r="K75"/>
+    </row>
+    <row r="76" spans="1:11" ht="12.75" customHeight="1">
       <c r="A76" s="12" t="s">
         <v>94</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="10"/>
+      <c r="C76" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D76" s="12"/>
       <c r="E76" s="10"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="6"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="4"/>
       <c r="H76" s="6"/>
-    </row>
-    <row r="77" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A77" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="10"/>
+      <c r="C77" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D77" s="12"/>
       <c r="E77" s="10"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="6"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="4"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
-      <c r="J77"/>
-    </row>
-    <row r="78" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J77" s="6"/>
+      <c r="K77"/>
+    </row>
+    <row r="78" spans="1:11" ht="12.75" customHeight="1">
       <c r="A78" s="12" t="s">
         <v>233</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="10"/>
+      <c r="C78" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D78" s="12"/>
       <c r="E78" s="10"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="6"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="4"/>
       <c r="H78" s="6"/>
-    </row>
-    <row r="79" spans="1:10" ht="12.75" customHeight="1">
-      <c r="F79" s="4"/>
-      <c r="G79" s="6"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:11" ht="12.75" customHeight="1">
+      <c r="C79" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="G79" s="4"/>
       <c r="H79" s="6"/>
-    </row>
-    <row r="80" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:11" ht="12.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>521</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="9" t="s">
+      <c r="C80" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="F80" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="G80" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G80" s="21" t="s">
+      <c r="H80" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="H80" s="6"/>
-    </row>
-    <row r="81" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:11" ht="12.75" customHeight="1">
       <c r="A81" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B81" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C81" s="40" t="s">
+      <c r="C81" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D81" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="D81" s="11">
+      <c r="E81" s="11">
         <v>95</v>
       </c>
-      <c r="E81" s="11">
+      <c r="F81" s="11">
         <v>1</v>
       </c>
-      <c r="F81" s="15" t="s">
+      <c r="G81" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="G81" s="15"/>
-      <c r="H81" s="11"/>
+      <c r="H81" s="15"/>
       <c r="I81" s="11"/>
-      <c r="J81" s="17"/>
-    </row>
-    <row r="82" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J81" s="11"/>
+      <c r="K81" s="17"/>
+    </row>
+    <row r="82" spans="1:11" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A82" s="33" t="s">
         <v>467</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="C82" s="33" t="s">
+      <c r="C82" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D82" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D82" s="11">
+      <c r="E82" s="11">
         <v>90</v>
       </c>
-      <c r="E82" s="11">
+      <c r="F82" s="11">
         <v>2</v>
       </c>
-      <c r="F82" s="15" t="s">
+      <c r="G82" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="G82" s="15"/>
-      <c r="H82" s="11"/>
+      <c r="H82" s="15"/>
       <c r="I82" s="11"/>
-      <c r="J82" s="17"/>
-    </row>
-    <row r="83" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J82" s="11"/>
+      <c r="K82" s="17"/>
+    </row>
+    <row r="83" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A83" s="33" t="s">
         <v>105</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D83" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D83" s="6">
+      <c r="E83" s="6">
         <v>85</v>
       </c>
-      <c r="E83" s="6">
+      <c r="F83" s="6">
         <v>3</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="G83" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="G83" s="4"/>
-      <c r="H83" s="6"/>
+      <c r="H83" s="4"/>
       <c r="I83" s="6"/>
-      <c r="J83"/>
-    </row>
-    <row r="84" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J83" s="6"/>
+      <c r="K83"/>
+    </row>
+    <row r="84" spans="1:11" ht="12.75" customHeight="1">
       <c r="A84" s="40" t="s">
         <v>98</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D84" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D84" s="6">
+      <c r="E84" s="6">
         <v>90</v>
       </c>
-      <c r="E84" s="6">
+      <c r="F84" s="6">
         <v>4</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="G84" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="H84" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A85" s="40" t="s">
         <v>258</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C85" s="40" t="s">
+      <c r="C85" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D85" s="40" t="s">
         <v>502</v>
       </c>
-      <c r="D85" s="11">
+      <c r="E85" s="11">
         <v>90</v>
       </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="15" t="s">
+      <c r="F85" s="10"/>
+      <c r="G85" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="G85" s="13" t="s">
+      <c r="H85" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="H85" s="5"/>
-      <c r="I85" s="29"/>
-    </row>
-    <row r="86" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I85" s="5"/>
+      <c r="J85" s="29"/>
+    </row>
+    <row r="86" spans="1:11" ht="12.75" customHeight="1">
       <c r="A86" s="33" t="s">
         <v>474</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="C86" s="33" t="s">
+      <c r="C86" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D86" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D86" s="11">
+      <c r="E86" s="11">
         <v>92</v>
       </c>
-      <c r="E86" s="11">
+      <c r="F86" s="11">
         <v>5</v>
       </c>
-      <c r="F86" s="15" t="s">
+      <c r="G86" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="G86" s="15" t="s">
+      <c r="H86" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="15"/>
-    </row>
-    <row r="87" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I86" s="15"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="15"/>
+    </row>
+    <row r="87" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A87" s="33" t="s">
         <v>473</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C87" s="33" t="s">
+      <c r="C87" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D87" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="D87" s="11">
+      <c r="E87" s="11">
         <v>85</v>
       </c>
-      <c r="E87" s="11">
+      <c r="F87" s="11">
         <v>6</v>
       </c>
-      <c r="F87" s="15" t="s">
+      <c r="G87" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="G87" s="15" t="s">
+      <c r="H87" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="H87" s="11"/>
       <c r="I87" s="11"/>
-    </row>
-    <row r="88" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J87" s="11"/>
+    </row>
+    <row r="88" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A88" s="33" t="s">
         <v>484</v>
       </c>
       <c r="B88" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D88" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D88" s="11">
+      <c r="E88" s="11">
         <v>85</v>
       </c>
-      <c r="E88" s="11">
+      <c r="F88" s="11">
         <v>8</v>
       </c>
-      <c r="F88" s="15" t="s">
+      <c r="G88" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="G88" s="15" t="s">
+      <c r="H88" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="H88" s="11"/>
       <c r="I88" s="11"/>
-    </row>
-    <row r="89" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J88" s="11"/>
+    </row>
+    <row r="89" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A89" s="33" t="s">
         <v>472</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D89" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D89" s="6">
+      <c r="E89" s="6">
         <v>90</v>
       </c>
-      <c r="E89" s="6">
+      <c r="F89" s="6">
         <v>9</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="G89" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="G89" s="4"/>
-      <c r="H89" s="6"/>
+      <c r="H89" s="4"/>
       <c r="I89" s="6"/>
-      <c r="J89"/>
-    </row>
-    <row r="90" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J89" s="6"/>
+      <c r="K89"/>
+    </row>
+    <row r="90" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A90" s="33" t="s">
         <v>589</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C90" s="33" t="s">
+      <c r="C90" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D90" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D90" s="6">
+      <c r="E90" s="6">
         <v>95</v>
       </c>
-      <c r="E90" s="6">
+      <c r="F90" s="6">
         <v>10</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="G90" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="H90" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="H90" s="6"/>
       <c r="I90" s="6"/>
-      <c r="J90"/>
-    </row>
-    <row r="91" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J90" s="6"/>
+      <c r="K90"/>
+    </row>
+    <row r="91" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A91" s="33" t="s">
         <v>438</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D91" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="D91" s="6">
+      <c r="E91" s="6">
         <v>90</v>
       </c>
-      <c r="E91" s="6">
+      <c r="F91" s="6">
         <v>7</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="G91" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="H91" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="H91" s="4"/>
-      <c r="I91" s="29"/>
-    </row>
-    <row r="92" spans="1:10" s="32" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I91" s="4"/>
+      <c r="J91" s="29"/>
+    </row>
+    <row r="92" spans="1:11" s="32" customFormat="1" ht="12.75" customHeight="1">
       <c r="A92" s="40" t="s">
         <v>444</v>
       </c>
       <c r="B92" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="C92" s="33" t="s">
+      <c r="C92" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D92" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="D92" s="11">
+      <c r="E92" s="11">
         <v>87</v>
       </c>
-      <c r="E92" s="10"/>
-      <c r="F92" s="15" t="s">
+      <c r="F92" s="10"/>
+      <c r="G92" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="G92" s="15" t="s">
+      <c r="H92" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="H92" s="31"/>
       <c r="I92" s="31"/>
-    </row>
-    <row r="93" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J92" s="31"/>
+    </row>
+    <row r="93" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A93" s="33" t="s">
         <v>326</v>
       </c>
       <c r="B93" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="C93" s="33" t="s">
+      <c r="C93" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D93" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="D93" s="11">
+      <c r="E93" s="11">
         <v>85</v>
       </c>
-      <c r="E93" s="11">
+      <c r="F93" s="11">
         <v>11</v>
       </c>
-      <c r="F93" s="15" t="s">
+      <c r="G93" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="G93" s="15" t="s">
+      <c r="H93" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="H93" s="11"/>
       <c r="I93" s="11"/>
-    </row>
-    <row r="94" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J93" s="11"/>
+    </row>
+    <row r="94" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A94" s="33" t="s">
         <v>471</v>
       </c>
       <c r="B94" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="33" t="s">
+      <c r="C94" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D94" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D94" s="11">
+      <c r="E94" s="11">
         <v>85</v>
       </c>
-      <c r="E94" s="11">
+      <c r="F94" s="11">
         <v>12</v>
       </c>
-      <c r="F94" s="15" t="s">
+      <c r="G94" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="G94" s="15" t="s">
+      <c r="H94" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="H94" s="11"/>
       <c r="I94" s="11"/>
-    </row>
-    <row r="95" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J94" s="11"/>
+    </row>
+    <row r="95" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A95" s="33" t="s">
         <v>470</v>
       </c>
       <c r="B95" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C95" s="33" t="s">
+      <c r="C95" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D95" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D95" s="6">
+      <c r="E95" s="6">
         <v>85</v>
       </c>
-      <c r="E95" s="11">
+      <c r="F95" s="11">
         <v>13</v>
       </c>
-      <c r="F95" s="15" t="s">
+      <c r="G95" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="G95" s="15" t="s">
+      <c r="H95" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="15"/>
-    </row>
-    <row r="96" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I95" s="15"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="15"/>
+    </row>
+    <row r="96" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A96" s="33" t="s">
         <v>152</v>
       </c>
       <c r="B96" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C96" s="33" t="s">
+      <c r="C96" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D96" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D96" s="11">
+      <c r="E96" s="11">
         <v>85</v>
       </c>
-      <c r="E96" s="11">
+      <c r="F96" s="11">
         <v>14</v>
       </c>
-      <c r="F96" s="15" t="s">
+      <c r="G96" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="G96" s="15" t="s">
+      <c r="H96" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="H96" s="11"/>
       <c r="I96" s="11"/>
-    </row>
-    <row r="97" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J96" s="11"/>
+    </row>
+    <row r="97" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A97" s="33" t="s">
         <v>555</v>
       </c>
       <c r="B97" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="C97" s="33" t="s">
+      <c r="C97" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D97" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D97" s="11">
+      <c r="E97" s="11">
         <v>85</v>
       </c>
-      <c r="E97" s="11"/>
-      <c r="F97" s="15" t="s">
+      <c r="F97" s="11"/>
+      <c r="G97" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="G97" s="15" t="s">
+      <c r="H97" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="H97" s="11"/>
       <c r="I97" s="11"/>
-    </row>
-    <row r="98" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J97" s="11"/>
+    </row>
+    <row r="98" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A98" s="33" t="s">
         <v>488</v>
       </c>
       <c r="B98" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="C98" s="33" t="s">
+      <c r="C98" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D98" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D98" s="11">
+      <c r="E98" s="11">
         <v>85</v>
       </c>
-      <c r="E98" s="11">
+      <c r="F98" s="11">
         <v>15</v>
       </c>
-      <c r="F98" s="15" t="s">
+      <c r="G98" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="G98" s="11"/>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
-    </row>
-    <row r="99" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J98" s="11"/>
+    </row>
+    <row r="99" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A99" s="33" t="s">
         <v>476</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C99" s="33" t="s">
+      <c r="C99" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D99" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D99" s="6">
+      <c r="E99" s="6">
         <v>85</v>
       </c>
-      <c r="E99" s="6">
+      <c r="F99" s="6">
         <v>16</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="G99" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="H99" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H99" s="4"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="4"/>
-    </row>
-    <row r="100" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I99" s="4"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A100" s="33" t="s">
         <v>313</v>
       </c>
       <c r="B100" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="C100" s="33" t="s">
+      <c r="C100" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D100" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D100" s="6">
+      <c r="E100" s="6">
         <v>85</v>
       </c>
-      <c r="E100" s="11">
+      <c r="F100" s="11">
         <v>17</v>
       </c>
-      <c r="F100" s="15" t="s">
+      <c r="G100" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="G100" s="15" t="s">
+      <c r="H100" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="I100" s="11"/>
-    </row>
-    <row r="101" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J100" s="11"/>
+    </row>
+    <row r="101" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A101" s="33" t="s">
         <v>283</v>
       </c>
       <c r="B101" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="C101" s="33" t="s">
+      <c r="C101" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D101" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D101" s="11">
+      <c r="E101" s="11">
         <v>85</v>
       </c>
-      <c r="E101" s="11">
+      <c r="F101" s="11">
         <v>18</v>
       </c>
-      <c r="F101" s="15" t="s">
+      <c r="G101" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="G101" s="15" t="s">
+      <c r="H101" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="H101" s="11"/>
       <c r="I101" s="11"/>
-      <c r="J101" s="17"/>
-    </row>
-    <row r="102" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J101" s="11"/>
+      <c r="K101" s="17"/>
+    </row>
+    <row r="102" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A102" s="33" t="s">
         <v>453</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="C102" s="33" t="s">
+      <c r="C102" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D102" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D102" s="11">
+      <c r="E102" s="11">
         <v>83</v>
       </c>
-      <c r="E102" s="11">
+      <c r="F102" s="11">
         <v>19</v>
       </c>
-      <c r="F102" s="15" t="s">
+      <c r="G102" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="G102" s="15" t="s">
+      <c r="H102" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="H102" s="11"/>
       <c r="I102" s="11"/>
-      <c r="J102" s="17"/>
-    </row>
-    <row r="103" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J102" s="11"/>
+      <c r="K102" s="17"/>
+    </row>
+    <row r="103" spans="1:11" ht="12.75" customHeight="1">
       <c r="A103" s="40" t="s">
         <v>475</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C103" s="33" t="s">
+      <c r="C103" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D103" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D103" s="11">
+      <c r="E103" s="11">
         <v>80</v>
       </c>
-      <c r="E103" s="11">
+      <c r="F103" s="11">
         <v>20</v>
       </c>
-      <c r="F103" s="15" t="s">
+      <c r="G103" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="G103" s="15"/>
-      <c r="H103" s="11"/>
+      <c r="H103" s="15"/>
       <c r="I103" s="11"/>
-      <c r="J103" s="17"/>
-    </row>
-    <row r="104" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J103" s="11"/>
+      <c r="K103" s="17"/>
+    </row>
+    <row r="104" spans="1:11" ht="12.75" customHeight="1">
       <c r="A104" s="33" t="s">
         <v>109</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C104" s="33" t="s">
+      <c r="C104" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D104" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D104" s="11">
+      <c r="E104" s="11">
         <v>82</v>
       </c>
-      <c r="E104" s="11">
+      <c r="F104" s="11">
         <v>21</v>
       </c>
-      <c r="F104" s="15" t="s">
+      <c r="G104" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G104" s="15" t="s">
+      <c r="H104" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="H104" s="11"/>
       <c r="I104" s="11"/>
-      <c r="J104" s="17"/>
-    </row>
-    <row r="105" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J104" s="11"/>
+      <c r="K104" s="17"/>
+    </row>
+    <row r="105" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A105" s="33" t="s">
         <v>320</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C105" s="33" t="s">
+      <c r="C105" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D105" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D105" s="6">
+      <c r="E105" s="6">
         <v>85</v>
       </c>
-      <c r="E105" s="6">
+      <c r="F105" s="6">
         <v>22</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="G105" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="G105" s="11" t="s">
+      <c r="H105" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="H105" s="2"/>
-      <c r="I105" s="6"/>
-      <c r="J105"/>
-    </row>
-    <row r="106" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I105" s="2"/>
+      <c r="J105" s="6"/>
+      <c r="K105"/>
+    </row>
+    <row r="106" spans="1:11" ht="12.75" customHeight="1">
       <c r="A106" s="40" t="s">
         <v>102</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C106" s="37" t="s">
+      <c r="C106" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D106" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="6">
+      <c r="E106" s="6">
         <v>90</v>
       </c>
-      <c r="E106" s="6">
+      <c r="F106" s="6">
         <v>23</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="G106" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="G106" s="4"/>
-      <c r="H106" s="6"/>
-    </row>
-    <row r="107" spans="1:10" ht="12.75" customHeight="1">
+      <c r="H106" s="4"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="1:11" ht="12.75" customHeight="1">
       <c r="A107" s="33" t="s">
         <v>100</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C107" s="33" t="s">
+      <c r="C107" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D107" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D107" s="6">
+      <c r="E107" s="6">
         <v>80</v>
       </c>
-      <c r="E107" s="6">
+      <c r="F107" s="6">
         <v>24</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="G107" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G107" s="4"/>
-      <c r="H107" s="6"/>
-    </row>
-    <row r="108" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="H107" s="4"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A108" s="33" t="s">
         <v>481</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C108" s="33" t="s">
+      <c r="C108" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D108" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D108" s="11">
+      <c r="E108" s="11">
         <v>85</v>
       </c>
-      <c r="E108" s="11">
+      <c r="F108" s="11">
         <v>25</v>
       </c>
-      <c r="F108" s="15" t="s">
+      <c r="G108" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="G108" s="15" t="s">
+      <c r="H108" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="H108" s="11"/>
       <c r="I108" s="11"/>
-    </row>
-    <row r="109" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J108" s="11"/>
+    </row>
+    <row r="109" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A109" s="33" t="s">
         <v>375</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C109" s="33" t="s">
+      <c r="C109" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D109" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D109" s="6">
+      <c r="E109" s="6">
         <v>78</v>
       </c>
-      <c r="E109" s="6">
+      <c r="F109" s="6">
         <v>26</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="G109" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="G109" s="4" t="s">
+      <c r="H109" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="H109" s="6"/>
       <c r="I109" s="6"/>
-      <c r="J109"/>
-    </row>
-    <row r="110" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J109" s="6"/>
+      <c r="K109"/>
+    </row>
+    <row r="110" spans="1:11" ht="12.75" customHeight="1">
       <c r="A110" s="33" t="s">
         <v>101</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C110" s="33" t="s">
+      <c r="C110" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D110" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D110" s="6">
+      <c r="E110" s="6">
         <v>80</v>
       </c>
-      <c r="E110" s="6">
+      <c r="F110" s="6">
         <v>27</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="G110" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G110" s="4"/>
-      <c r="H110" s="6"/>
-    </row>
-    <row r="111" spans="1:10" ht="12.75" customHeight="1">
+      <c r="H110" s="4"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="1:11" ht="12.75" customHeight="1">
       <c r="A111" s="33" t="s">
         <v>460</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="33" t="s">
+      <c r="C111" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D111" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D111" s="11">
+      <c r="E111" s="11">
         <v>80</v>
       </c>
-      <c r="E111" s="11">
+      <c r="F111" s="11">
         <v>28</v>
       </c>
-      <c r="F111" s="15" t="s">
+      <c r="G111" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="G111" s="15" t="s">
+      <c r="H111" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="H111" s="11"/>
       <c r="I111" s="11"/>
-      <c r="J111" s="17"/>
-    </row>
-    <row r="112" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J111" s="11"/>
+      <c r="K111" s="17"/>
+    </row>
+    <row r="112" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A112" s="33" t="s">
         <v>114</v>
       </c>
       <c r="B112" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C112" s="33" t="s">
+      <c r="C112" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D112" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D112" s="11">
+      <c r="E112" s="11">
         <v>77</v>
       </c>
-      <c r="E112" s="11">
+      <c r="F112" s="11">
         <v>29</v>
       </c>
-      <c r="F112" s="15" t="s">
+      <c r="G112" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="G112" s="15" t="s">
+      <c r="H112" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="H112" s="11"/>
       <c r="I112" s="11"/>
-    </row>
-    <row r="113" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J112" s="11"/>
+    </row>
+    <row r="113" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A113" s="33" t="s">
         <v>116</v>
       </c>
       <c r="B113" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C113" s="33" t="s">
+      <c r="C113" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D113" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D113" s="11">
+      <c r="E113" s="11">
         <v>75</v>
       </c>
-      <c r="E113" s="11">
+      <c r="F113" s="11">
         <v>30</v>
       </c>
-      <c r="F113" s="15" t="s">
+      <c r="G113" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G113" s="15" t="s">
+      <c r="H113" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="H113" s="11"/>
       <c r="I113" s="11"/>
-    </row>
-    <row r="114" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J113" s="11"/>
+    </row>
+    <row r="114" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A114" s="15" t="s">
         <v>477</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C114" s="33" t="s">
+      <c r="C114" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D114" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="D114" s="11">
+      <c r="E114" s="11">
         <v>85</v>
       </c>
-      <c r="E114" s="11"/>
-      <c r="F114" s="15" t="s">
+      <c r="F114" s="11"/>
+      <c r="G114" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="G114" s="15" t="s">
+      <c r="H114" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="H114" s="11"/>
       <c r="I114" s="11"/>
-    </row>
-    <row r="115" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J114" s="11"/>
+    </row>
+    <row r="115" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A115" s="33" t="s">
         <v>494</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C115" s="33" t="s">
+      <c r="C115" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D115" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D115" s="11">
+      <c r="E115" s="11">
         <v>85</v>
       </c>
-      <c r="E115" s="11"/>
-      <c r="F115" s="15" t="s">
+      <c r="F115" s="11"/>
+      <c r="G115" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="G115" s="15"/>
-      <c r="H115" s="11"/>
+      <c r="H115" s="15"/>
       <c r="I115" s="11"/>
-    </row>
-    <row r="116" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J115" s="11"/>
+    </row>
+    <row r="116" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A116" s="33" t="s">
         <v>112</v>
       </c>
       <c r="B116" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C116" s="33" t="s">
+      <c r="C116" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D116" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D116" s="6">
+      <c r="E116" s="6">
         <v>85</v>
       </c>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15" t="s">
+      <c r="F116" s="15"/>
+      <c r="G116" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="G116" s="15"/>
       <c r="H116" s="15"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="15"/>
-    </row>
-    <row r="117" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I116" s="15"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="15"/>
+    </row>
+    <row r="117" spans="1:11" ht="12.75" customHeight="1">
       <c r="A117" s="33" t="s">
         <v>478</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C117" s="33" t="s">
+      <c r="C117" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D117" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D117" s="6">
+      <c r="E117" s="6">
         <v>85</v>
       </c>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15" t="s">
+      <c r="F117" s="15"/>
+      <c r="G117" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="G117" s="15" t="s">
+      <c r="H117" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="11"/>
-      <c r="J117" s="15"/>
-    </row>
-    <row r="118" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I117" s="15"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="15"/>
+    </row>
+    <row r="118" spans="1:11" ht="12.75" customHeight="1">
       <c r="A118" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C118" s="33" t="s">
+      <c r="C118" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D118" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D118" s="6">
+      <c r="E118" s="6">
         <v>75</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="G118" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G118" s="4"/>
-      <c r="H118" s="6"/>
-    </row>
-    <row r="119" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1">
+      <c r="H118" s="4"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="1:11" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A119" s="33" t="s">
         <v>480</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C119" s="33" t="s">
+      <c r="C119" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D119" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D119" s="6">
+      <c r="E119" s="6">
         <v>75</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="G119" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G119" s="4" t="s">
+      <c r="H119" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="I119" s="6"/>
-    </row>
-    <row r="120" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J119" s="6"/>
+    </row>
+    <row r="120" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A120" s="37" t="s">
         <v>495</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C120" s="33" t="s">
+      <c r="C120" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D120" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D120" s="6">
+      <c r="E120" s="6">
         <v>75</v>
       </c>
-      <c r="E120" s="6"/>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="6"/>
+      <c r="G120" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G120" s="4" t="s">
+      <c r="H120" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="H120" s="6"/>
       <c r="I120" s="6"/>
-      <c r="J120"/>
-    </row>
-    <row r="121" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J120" s="6"/>
+      <c r="K120"/>
+    </row>
+    <row r="121" spans="1:11" ht="12.75" customHeight="1">
       <c r="A121" s="33" t="s">
         <v>88</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="33" t="s">
+      <c r="C121" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D121" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D121" s="6">
+      <c r="E121" s="6">
         <v>75</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="G121" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="G121" s="4"/>
-      <c r="H121" s="6"/>
-    </row>
-    <row r="122" spans="1:10" ht="12.75" customHeight="1">
+      <c r="H121" s="4"/>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="1:11" ht="12.75" customHeight="1">
       <c r="A122" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C122" s="33" t="s">
+      <c r="C122" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D122" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D122" s="6">
+      <c r="E122" s="6">
         <v>75</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="G122" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G122" s="4"/>
-      <c r="H122" s="6"/>
-    </row>
-    <row r="123" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="H122" s="4"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A123" s="33" t="s">
         <v>496</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C123" s="33" t="s">
+      <c r="C123" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D123" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D123" s="11">
+      <c r="E123" s="11">
         <v>75</v>
       </c>
-      <c r="E123" s="11"/>
-      <c r="F123" s="15" t="s">
+      <c r="F123" s="11"/>
+      <c r="G123" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="G123" s="15" t="s">
+      <c r="H123" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="H123" s="11"/>
       <c r="I123" s="11"/>
-    </row>
-    <row r="124" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J123" s="11"/>
+    </row>
+    <row r="124" spans="1:11" ht="12.75" customHeight="1">
       <c r="A124" s="4" t="s">
         <v>310</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C124" s="33" t="s">
+      <c r="C124" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D124" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D124" s="6">
+      <c r="E124" s="6">
         <v>75</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="G124" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G124" s="4" t="s">
+      <c r="H124" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="H124" s="6"/>
-    </row>
-    <row r="125" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="1:11" ht="12.75" customHeight="1">
       <c r="A125" s="33" t="s">
         <v>479</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C125" s="33" t="s">
+      <c r="C125" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D125" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D125" s="6">
+      <c r="E125" s="6">
         <v>75</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="G125" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="G125" s="4"/>
-      <c r="H125" s="6"/>
-    </row>
-    <row r="126" spans="1:10" ht="12.75" customHeight="1">
+      <c r="H125" s="4"/>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="1:11" ht="12.75" customHeight="1">
       <c r="A126" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C126" s="33" t="s">
+      <c r="C126" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D126" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D126" s="6">
+      <c r="E126" s="6">
         <v>70</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="G126" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="G126" s="4"/>
-      <c r="H126" s="6"/>
-    </row>
-    <row r="127" spans="1:10" ht="12.75" customHeight="1">
+      <c r="H126" s="4"/>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="1:11" ht="12.75" customHeight="1">
       <c r="A127" s="33" t="s">
         <v>497</v>
       </c>
       <c r="B127" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C127" s="33" t="s">
+      <c r="C127" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D127" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D127" s="11">
+      <c r="E127" s="11">
         <v>70</v>
       </c>
-      <c r="E127" s="11"/>
-      <c r="F127" s="15" t="s">
+      <c r="F127" s="11"/>
+      <c r="G127" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="G127" s="15"/>
-      <c r="H127" s="11"/>
+      <c r="H127" s="15"/>
       <c r="I127" s="11"/>
-      <c r="J127" s="17"/>
-    </row>
-    <row r="128" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J127" s="11"/>
+      <c r="K127" s="17"/>
+    </row>
+    <row r="128" spans="1:11" ht="12.75" customHeight="1">
       <c r="A128" s="4" t="s">
         <v>253</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C128" s="33" t="s">
+      <c r="C128" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D128" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D128" s="6">
+      <c r="E128" s="6">
         <v>70</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="G128" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G128" s="4"/>
-      <c r="H128" s="6"/>
-    </row>
-    <row r="129" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="H128" s="4"/>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A129" s="33" t="s">
         <v>468</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C129" s="33" t="s">
+      <c r="C129" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D129" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D129" s="6">
+      <c r="E129" s="6">
         <v>70</v>
       </c>
-      <c r="E129" s="6"/>
-      <c r="F129" s="4" t="s">
+      <c r="F129" s="6"/>
+      <c r="G129" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G129" s="4"/>
-      <c r="H129" s="6"/>
+      <c r="H129" s="4"/>
       <c r="I129" s="6"/>
-      <c r="J129"/>
-    </row>
-    <row r="130" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J129" s="6"/>
+      <c r="K129"/>
+    </row>
+    <row r="130" spans="1:11" ht="12.75" customHeight="1">
       <c r="A130" s="33" t="s">
         <v>469</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C130" s="33" t="s">
+      <c r="C130" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D130" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D130" s="6">
+      <c r="E130" s="6">
         <v>70</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="G130" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G130" s="4"/>
-      <c r="H130" s="6"/>
-    </row>
-    <row r="131" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="H130" s="4"/>
+      <c r="I130" s="6"/>
+    </row>
+    <row r="131" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A131" s="33" t="s">
         <v>108</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C131" s="33" t="s">
+      <c r="C131" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D131" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D131" s="6">
+      <c r="E131" s="6">
         <v>70</v>
       </c>
-      <c r="E131" s="6"/>
-      <c r="F131" s="4" t="s">
+      <c r="F131" s="6"/>
+      <c r="G131" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G131" s="4"/>
-      <c r="H131" s="6"/>
+      <c r="H131" s="4"/>
       <c r="I131" s="6"/>
-      <c r="J131"/>
-    </row>
-    <row r="132" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J131" s="6"/>
+      <c r="K131"/>
+    </row>
+    <row r="132" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A132" s="33" t="s">
         <v>420</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C132" s="33" t="s">
+      <c r="C132" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D132" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D132" s="6">
+      <c r="E132" s="6">
         <v>70</v>
       </c>
-      <c r="E132" s="6"/>
-      <c r="F132" s="4" t="s">
+      <c r="F132" s="6"/>
+      <c r="G132" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="G132" s="4" t="s">
+      <c r="H132" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="H132" s="6"/>
       <c r="I132" s="6"/>
-      <c r="J132"/>
-    </row>
-    <row r="133" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J132" s="6"/>
+      <c r="K132"/>
+    </row>
+    <row r="133" spans="1:11" ht="12.75" customHeight="1">
       <c r="A133" s="33" t="s">
         <v>482</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C133" s="33" t="s">
+      <c r="C133" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D133" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D133" s="6">
+      <c r="E133" s="6">
         <v>65</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="G133" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G133" s="4"/>
-      <c r="H133" s="6"/>
-    </row>
-    <row r="134" spans="1:10" ht="12.75" customHeight="1">
+      <c r="H133" s="4"/>
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="1:11" ht="12.75" customHeight="1">
       <c r="A134" s="33" t="s">
         <v>104</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C134" s="33" t="s">
+      <c r="C134" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D134" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D134" s="6">
+      <c r="E134" s="6">
         <v>60</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="G134" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G134" s="4"/>
-      <c r="H134" s="6"/>
-    </row>
-    <row r="135" spans="1:10" ht="12.75" customHeight="1">
+      <c r="H134" s="4"/>
+      <c r="I134" s="6"/>
+    </row>
+    <row r="135" spans="1:11" ht="12.75" customHeight="1">
       <c r="A135" s="35" t="s">
         <v>454</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C135" s="35" t="s">
+      <c r="C135" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D135" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D135" s="10"/>
       <c r="E135" s="10"/>
-      <c r="F135" s="12" t="s">
+      <c r="F135" s="10"/>
+      <c r="G135" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="G135" s="6"/>
       <c r="H135" s="6"/>
-    </row>
-    <row r="136" spans="1:10" s="23" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I135" s="6"/>
+    </row>
+    <row r="136" spans="1:11" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A136" s="35" t="s">
         <v>455</v>
       </c>
       <c r="B136" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C136" s="35" t="s">
+      <c r="C136" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D136" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D136" s="10"/>
       <c r="E136" s="10"/>
-      <c r="F136" s="12" t="s">
+      <c r="F136" s="10"/>
+      <c r="G136" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="G136" s="22"/>
       <c r="H136" s="22"/>
       <c r="I136" s="22"/>
-    </row>
-    <row r="137" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J136" s="22"/>
+    </row>
+    <row r="137" spans="1:11" ht="12.75" customHeight="1">
       <c r="A137" s="35" t="s">
         <v>306</v>
       </c>
       <c r="B137" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="C137" s="35" t="s">
+      <c r="C137" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D137" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D137" s="10"/>
       <c r="E137" s="10"/>
-      <c r="F137" s="12" t="s">
+      <c r="F137" s="10"/>
+      <c r="G137" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="G137" s="6"/>
       <c r="H137" s="6"/>
-    </row>
-    <row r="138" spans="1:10" s="23" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I137" s="6"/>
+    </row>
+    <row r="138" spans="1:11" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A138" s="35" t="s">
         <v>456</v>
       </c>
       <c r="B138" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C138" s="35" t="s">
+      <c r="C138" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D138" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D138" s="10"/>
       <c r="E138" s="10"/>
-      <c r="F138" s="12" t="s">
+      <c r="F138" s="10"/>
+      <c r="G138" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="G138" s="24"/>
       <c r="H138" s="24"/>
-      <c r="I138" s="22"/>
-    </row>
-    <row r="139" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I138" s="24"/>
+      <c r="J138" s="22"/>
+    </row>
+    <row r="139" spans="1:11" ht="12.75" customHeight="1">
       <c r="A139" s="35" t="s">
         <v>457</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C139" s="35" t="s">
+      <c r="C139" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D139" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D139" s="10"/>
       <c r="E139" s="10"/>
-      <c r="F139" s="12" t="s">
+      <c r="F139" s="10"/>
+      <c r="G139" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="G139" s="6"/>
       <c r="H139" s="6"/>
-    </row>
-    <row r="140" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I139" s="6"/>
+    </row>
+    <row r="140" spans="1:11" ht="12.75" customHeight="1">
       <c r="A140" s="35" t="s">
         <v>458</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C140" s="35" t="s">
+      <c r="C140" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D140" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D140" s="10"/>
       <c r="E140" s="10"/>
-      <c r="F140" s="12" t="s">
+      <c r="F140" s="10"/>
+      <c r="G140" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="G140" s="6"/>
       <c r="H140" s="6"/>
-    </row>
-    <row r="141" spans="1:10" s="23" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="1:11" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A141" s="35" t="s">
         <v>115</v>
       </c>
       <c r="B141" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="C141" s="35" t="s">
+      <c r="C141" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D141" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D141" s="10"/>
       <c r="E141" s="10"/>
-      <c r="F141" s="25" t="s">
+      <c r="F141" s="10"/>
+      <c r="G141" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="G141" s="22"/>
       <c r="H141" s="22"/>
       <c r="I141" s="22"/>
-    </row>
-    <row r="142" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J141" s="22"/>
+    </row>
+    <row r="142" spans="1:11" ht="12.75" customHeight="1">
       <c r="A142" s="35" t="s">
         <v>459</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C142" s="35" t="s">
+      <c r="C142" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D142" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D142" s="10"/>
       <c r="E142" s="10"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="6"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="12"/>
       <c r="H142" s="6"/>
-    </row>
-    <row r="143" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="1:11" ht="12.75" customHeight="1">
       <c r="A143" s="35" t="s">
         <v>461</v>
       </c>
       <c r="B143" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="C143" s="35" t="s">
+      <c r="C143" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D143" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="D143" s="10"/>
       <c r="E143" s="10"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="6"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="12"/>
       <c r="H143" s="6"/>
-    </row>
-    <row r="144" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="1:11" ht="12.75" customHeight="1">
       <c r="A144" s="35" t="s">
         <v>570</v>
       </c>
       <c r="B144" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="C144" s="35"/>
-      <c r="D144" s="10"/>
+      <c r="C144" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D144" s="35"/>
       <c r="E144" s="10"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="6"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="12"/>
       <c r="H144" s="6"/>
-    </row>
-    <row r="145" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I144" s="6"/>
+    </row>
+    <row r="145" spans="1:9" ht="12.75" customHeight="1">
       <c r="A145" s="35" t="s">
         <v>391</v>
       </c>
       <c r="B145" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C145" s="35" t="s">
+      <c r="C145" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D145" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D145" s="10"/>
       <c r="E145" s="10"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="6"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="12"/>
       <c r="H145" s="6"/>
-    </row>
-    <row r="146" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I145" s="6"/>
+    </row>
+    <row r="146" spans="1:9" ht="12.75" customHeight="1">
       <c r="A146" s="35" t="s">
         <v>361</v>
       </c>
       <c r="B146" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="C146" s="35" t="s">
+      <c r="C146" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D146" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D146" s="10"/>
       <c r="E146" s="10"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="6"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="12"/>
       <c r="H146" s="6"/>
-    </row>
-    <row r="147" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I146" s="6"/>
+    </row>
+    <row r="147" spans="1:9" ht="12.75" customHeight="1">
       <c r="A147" s="35" t="s">
         <v>463</v>
       </c>
       <c r="B147" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C147" s="35" t="s">
+      <c r="C147" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D147" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D147" s="10"/>
       <c r="E147" s="10"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="6"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="12"/>
       <c r="H147" s="6"/>
-    </row>
-    <row r="148" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I147" s="6"/>
+    </row>
+    <row r="148" spans="1:9" ht="12.75" customHeight="1">
       <c r="A148" s="35" t="s">
         <v>110</v>
       </c>
       <c r="B148" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C148" s="35" t="s">
+      <c r="C148" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D148" s="35" t="s">
         <v>539</v>
       </c>
-      <c r="D148" s="10"/>
       <c r="E148" s="10"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="6"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="12"/>
       <c r="H148" s="6"/>
-    </row>
-    <row r="149" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I148" s="6"/>
+    </row>
+    <row r="149" spans="1:9" ht="12.75" customHeight="1">
       <c r="A149" s="35" t="s">
         <v>393</v>
       </c>
       <c r="B149" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="C149" s="35" t="s">
+      <c r="C149" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D149" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D149" s="10"/>
       <c r="E149" s="10"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="6"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="12"/>
       <c r="H149" s="6"/>
-    </row>
-    <row r="150" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I149" s="6"/>
+    </row>
+    <row r="150" spans="1:9" ht="12.75" customHeight="1">
       <c r="A150" s="35" t="s">
         <v>395</v>
       </c>
       <c r="B150" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="C150" s="35" t="s">
+      <c r="C150" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D150" s="35" t="s">
         <v>395</v>
       </c>
-      <c r="D150" s="10"/>
       <c r="E150" s="10"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="6"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="12"/>
       <c r="H150" s="6"/>
-    </row>
-    <row r="151" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I150" s="6"/>
+    </row>
+    <row r="151" spans="1:9" ht="12.75" customHeight="1">
       <c r="A151" s="35" t="s">
         <v>464</v>
       </c>
       <c r="B151" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C151" s="35" t="s">
+      <c r="C151" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D151" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D151" s="10"/>
       <c r="E151" s="10"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="6"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="12"/>
       <c r="H151" s="6"/>
-    </row>
-    <row r="152" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I151" s="6"/>
+    </row>
+    <row r="152" spans="1:9" ht="12.75" customHeight="1">
       <c r="A152" s="35" t="s">
         <v>572</v>
       </c>
       <c r="B152" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="C152" s="35"/>
-      <c r="D152" s="10"/>
+      <c r="C152" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D152" s="35"/>
       <c r="E152" s="10"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="6"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="12"/>
       <c r="H152" s="6"/>
-    </row>
-    <row r="153" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I152" s="6"/>
+    </row>
+    <row r="153" spans="1:9" ht="12.75" customHeight="1">
       <c r="A153" s="35" t="s">
         <v>574</v>
       </c>
       <c r="B153" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="C153" s="35"/>
-      <c r="D153" s="10"/>
+      <c r="C153" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D153" s="35"/>
       <c r="E153" s="10"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="6"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="12"/>
       <c r="H153" s="6"/>
-    </row>
-    <row r="154" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I153" s="6"/>
+    </row>
+    <row r="154" spans="1:9" ht="12.75" customHeight="1">
       <c r="A154" s="35" t="s">
         <v>576</v>
       </c>
       <c r="B154" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="C154" s="35"/>
-      <c r="D154" s="10"/>
+      <c r="C154" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D154" s="35"/>
       <c r="E154" s="10"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="6"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="12"/>
       <c r="H154" s="6"/>
-    </row>
-    <row r="155" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I154" s="6"/>
+    </row>
+    <row r="155" spans="1:9" ht="12.75" customHeight="1">
       <c r="A155" s="35" t="s">
         <v>398</v>
       </c>
       <c r="B155" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="C155" s="35" t="s">
+      <c r="C155" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D155" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D155" s="10"/>
       <c r="E155" s="10"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="6"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="12"/>
       <c r="H155" s="6"/>
-    </row>
-    <row r="156" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I155" s="6"/>
+    </row>
+    <row r="156" spans="1:9" ht="12.75" customHeight="1">
       <c r="A156" s="35" t="s">
         <v>578</v>
       </c>
       <c r="B156" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="C156" s="35"/>
-      <c r="D156" s="10"/>
+      <c r="C156" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D156" s="35"/>
       <c r="E156" s="10"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="6"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="12"/>
       <c r="H156" s="6"/>
-    </row>
-    <row r="157" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I156" s="6"/>
+    </row>
+    <row r="157" spans="1:9" ht="12.75" customHeight="1">
       <c r="A157" s="35" t="s">
         <v>400</v>
       </c>
       <c r="B157" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="C157" s="35" t="s">
+      <c r="C157" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D157" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="D157" s="10"/>
       <c r="E157" s="10"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="6"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="12"/>
       <c r="H157" s="6"/>
-    </row>
-    <row r="158" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I157" s="6"/>
+    </row>
+    <row r="158" spans="1:9" ht="12.75" customHeight="1">
       <c r="A158" s="35" t="s">
         <v>580</v>
       </c>
       <c r="B158" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="C158" s="35"/>
-      <c r="D158" s="10"/>
+      <c r="C158" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D158" s="35"/>
       <c r="E158" s="10"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="6"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="12"/>
       <c r="H158" s="6"/>
-    </row>
-    <row r="159" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I158" s="6"/>
+    </row>
+    <row r="159" spans="1:9" ht="12.75" customHeight="1">
       <c r="A159" s="35" t="s">
         <v>402</v>
       </c>
       <c r="B159" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="C159" s="35" t="s">
+      <c r="C159" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D159" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D159" s="10"/>
       <c r="E159" s="10"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="6"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="12"/>
       <c r="H159" s="6"/>
-    </row>
-    <row r="160" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I159" s="6"/>
+    </row>
+    <row r="160" spans="1:9" ht="12.75" customHeight="1">
       <c r="A160" s="35" t="s">
         <v>483</v>
       </c>
       <c r="B160" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C160" s="35" t="s">
+      <c r="C160" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D160" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D160" s="10"/>
       <c r="E160" s="10"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="6"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="12"/>
       <c r="H160" s="6"/>
-    </row>
-    <row r="161" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I160" s="6"/>
+    </row>
+    <row r="161" spans="1:10" ht="12.75" customHeight="1">
       <c r="A161" s="35" t="s">
         <v>404</v>
       </c>
       <c r="B161" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="C161" s="35" t="s">
+      <c r="C161" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D161" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D161" s="10"/>
       <c r="E161" s="10"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="6"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="12"/>
       <c r="H161" s="6"/>
-    </row>
-    <row r="162" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I161" s="6"/>
+    </row>
+    <row r="162" spans="1:10" ht="12.75" customHeight="1">
       <c r="A162" s="35" t="s">
         <v>510</v>
       </c>
       <c r="B162" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="C162" s="35" t="s">
+      <c r="C162" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D162" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D162" s="10"/>
       <c r="E162" s="10"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="6"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="12"/>
       <c r="H162" s="6"/>
-    </row>
-    <row r="163" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I162" s="6"/>
+    </row>
+    <row r="163" spans="1:10" ht="12.75" customHeight="1">
       <c r="A163" s="35" t="s">
         <v>371</v>
       </c>
       <c r="B163" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="C163" s="35" t="s">
+      <c r="C163" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D163" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="D163" s="10"/>
       <c r="E163" s="10"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="6"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="12"/>
       <c r="H163" s="6"/>
-    </row>
-    <row r="164" spans="1:9" s="23" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I163" s="6"/>
+    </row>
+    <row r="164" spans="1:10" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A164" s="35" t="s">
         <v>113</v>
       </c>
       <c r="B164" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C164" s="35" t="s">
+      <c r="C164" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D164" s="35" t="s">
         <v>539</v>
       </c>
-      <c r="D164" s="10"/>
       <c r="E164" s="10"/>
-      <c r="F164" s="12"/>
-      <c r="G164" s="22"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="12"/>
       <c r="H164" s="22"/>
       <c r="I164" s="22"/>
-    </row>
-    <row r="165" spans="1:9" s="32" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J164" s="22"/>
+    </row>
+    <row r="165" spans="1:10" s="32" customFormat="1" ht="12.75" customHeight="1">
       <c r="A165" s="35" t="s">
         <v>465</v>
       </c>
       <c r="B165" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C165" s="35" t="s">
+      <c r="C165" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D165" s="35" t="s">
         <v>539</v>
       </c>
-      <c r="D165" s="30"/>
       <c r="E165" s="30"/>
-      <c r="F165" s="12"/>
-      <c r="G165" s="31"/>
+      <c r="F165" s="30"/>
+      <c r="G165" s="12"/>
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
-    </row>
-    <row r="166" spans="1:9" ht="12.75" customHeight="1">
+      <c r="J165" s="31"/>
+    </row>
+    <row r="166" spans="1:10" ht="12.75" customHeight="1">
       <c r="A166" s="35" t="s">
         <v>485</v>
       </c>
       <c r="B166" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C166" s="35" t="s">
+      <c r="C166" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D166" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D166" s="10"/>
       <c r="E166" s="10"/>
-      <c r="F166" s="12"/>
-      <c r="G166" s="6"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="12"/>
       <c r="H166" s="6"/>
-    </row>
-    <row r="167" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I166" s="6"/>
+    </row>
+    <row r="167" spans="1:10" ht="12.75" customHeight="1">
       <c r="A167" s="35" t="s">
         <v>568</v>
       </c>
       <c r="B167" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="C167" s="35" t="s">
+      <c r="C167" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D167" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D167" s="10"/>
       <c r="E167" s="10"/>
-      <c r="F167" s="12"/>
-      <c r="G167" s="6"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="12"/>
       <c r="H167" s="6"/>
-    </row>
-    <row r="168" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I167" s="6"/>
+    </row>
+    <row r="168" spans="1:10" ht="12.75" customHeight="1">
       <c r="A168" s="35" t="s">
         <v>466</v>
       </c>
       <c r="B168" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C168" s="35" t="s">
+      <c r="C168" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D168" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D168" s="10"/>
       <c r="E168" s="10"/>
-      <c r="F168" s="12"/>
-      <c r="G168" s="6"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="12"/>
       <c r="H168" s="6"/>
-    </row>
-    <row r="169" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I168" s="6"/>
+    </row>
+    <row r="169" spans="1:10" ht="12.75" customHeight="1">
       <c r="A169" s="12" t="s">
         <v>441</v>
       </c>
       <c r="B169" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="C169" s="35" t="s">
+      <c r="C169" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D169" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="D169" s="10"/>
       <c r="E169" s="10"/>
-      <c r="F169" s="12"/>
-      <c r="G169" s="6"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="12"/>
       <c r="H169" s="6"/>
-    </row>
-    <row r="170" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I169" s="6"/>
+    </row>
+    <row r="170" spans="1:10" ht="12.75" customHeight="1">
       <c r="A170" s="12" t="s">
         <v>582</v>
       </c>
       <c r="B170" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="C170" s="35"/>
-      <c r="D170" s="10"/>
+      <c r="C170" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D170" s="35"/>
       <c r="E170" s="10"/>
-      <c r="F170" s="12"/>
-      <c r="G170" s="6"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="12"/>
       <c r="H170" s="6"/>
-    </row>
-    <row r="171" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I170" s="6"/>
+    </row>
+    <row r="171" spans="1:10" ht="12.75" customHeight="1">
       <c r="A171" s="35" t="s">
         <v>518</v>
       </c>
       <c r="B171" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="C171" s="35" t="s">
+      <c r="C171" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D171" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D171" s="10"/>
       <c r="E171" s="10"/>
-      <c r="F171" s="12"/>
-      <c r="G171" s="6"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="12"/>
       <c r="H171" s="6"/>
-    </row>
-    <row r="172" spans="1:9" s="23" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I171" s="6"/>
+    </row>
+    <row r="172" spans="1:10" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A172" s="35" t="s">
         <v>462</v>
       </c>
       <c r="B172" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="C172" s="35" t="s">
+      <c r="C172" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D172" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D172" s="10"/>
       <c r="E172" s="10"/>
-      <c r="F172" s="12"/>
-      <c r="G172" s="22"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="12"/>
       <c r="H172" s="22"/>
       <c r="I172" s="22"/>
-    </row>
-    <row r="173" spans="1:9" s="23" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J172" s="22"/>
+    </row>
+    <row r="173" spans="1:10" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A173" s="35" t="s">
         <v>584</v>
       </c>
       <c r="B173" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="C173" s="35"/>
-      <c r="D173" s="10"/>
+      <c r="C173" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D173" s="35"/>
       <c r="E173" s="10"/>
-      <c r="F173" s="12"/>
-      <c r="G173" s="22"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="12"/>
       <c r="H173" s="22"/>
       <c r="I173" s="22"/>
-    </row>
-    <row r="174" spans="1:9" ht="12.75" customHeight="1">
+      <c r="J173" s="22"/>
+    </row>
+    <row r="174" spans="1:10" ht="12.75" customHeight="1">
       <c r="A174" s="1"/>
-      <c r="C174" s="12"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="6"/>
+      <c r="C174" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D174" s="12"/>
+      <c r="G174" s="4"/>
       <c r="H174" s="6"/>
-    </row>
-    <row r="175" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I174" s="6"/>
+    </row>
+    <row r="175" spans="1:10" ht="12.75" customHeight="1">
       <c r="A175" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C175" s="12"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="6"/>
+      <c r="C175" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D175" s="12"/>
+      <c r="G175" s="4"/>
       <c r="H175" s="6"/>
-    </row>
-    <row r="176" spans="1:9" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I175" s="6"/>
+    </row>
+    <row r="176" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1">
       <c r="A176" s="19" t="s">
         <v>241</v>
       </c>
       <c r="B176" s="13"/>
-      <c r="C176" s="13"/>
-      <c r="D176" s="20">
+      <c r="C176" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D176" s="13"/>
+      <c r="E176" s="20">
         <v>90</v>
       </c>
-      <c r="E176" s="20">
+      <c r="F176" s="20">
         <v>1</v>
       </c>
-      <c r="F176" s="4" t="s">
+      <c r="G176" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G176" s="20"/>
       <c r="H176" s="20"/>
       <c r="I176" s="20"/>
-    </row>
-    <row r="177" spans="1:9" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J176" s="20"/>
+    </row>
+    <row r="177" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1">
       <c r="A177" s="19" t="s">
         <v>590</v>
       </c>
       <c r="B177" s="13"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="20">
+      <c r="C177" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D177" s="13"/>
+      <c r="E177" s="20">
         <v>85</v>
       </c>
-      <c r="E177" s="20"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="20"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="4"/>
       <c r="H177" s="20"/>
       <c r="I177" s="20"/>
-    </row>
-    <row r="178" spans="1:9" ht="12.75" customHeight="1">
+      <c r="J177" s="20"/>
+    </row>
+    <row r="178" spans="1:10" ht="12.75" customHeight="1">
       <c r="A178" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D178" s="6">
+      <c r="C178" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E178" s="6">
         <v>85</v>
       </c>
-      <c r="E178" s="6">
+      <c r="F178" s="6">
         <v>2</v>
       </c>
-      <c r="F178" s="4" t="s">
+      <c r="G178" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G178" s="6"/>
       <c r="H178" s="6"/>
-    </row>
-    <row r="179" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I178" s="6"/>
+    </row>
+    <row r="179" spans="1:10" ht="12.75" customHeight="1">
       <c r="A179" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D179" s="6">
+      <c r="C179" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E179" s="6">
         <v>85</v>
       </c>
-      <c r="E179" s="6">
+      <c r="F179" s="6">
         <v>4</v>
       </c>
-      <c r="F179" s="4" t="s">
+      <c r="G179" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G179" s="6"/>
       <c r="H179" s="6"/>
-    </row>
-    <row r="180" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I179" s="6"/>
+    </row>
+    <row r="180" spans="1:10" ht="12.75" customHeight="1">
       <c r="A180" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="D180" s="6">
+      <c r="C180" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E180" s="6">
         <v>85</v>
       </c>
-      <c r="F180" s="4" t="s">
+      <c r="G180" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="G180" s="6"/>
       <c r="H180" s="6"/>
-    </row>
-    <row r="181" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I180" s="6"/>
+    </row>
+    <row r="181" spans="1:10" ht="12.75" customHeight="1">
       <c r="A181" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D181" s="6">
+      <c r="C181" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E181" s="6">
         <v>85</v>
       </c>
-      <c r="F181" s="4" t="s">
+      <c r="G181" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="G181" s="6"/>
       <c r="H181" s="6"/>
-    </row>
-    <row r="182" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I181" s="6"/>
+    </row>
+    <row r="182" spans="1:10" ht="12.75" customHeight="1">
       <c r="A182" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D182" s="6">
+      <c r="C182" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E182" s="6">
         <v>85</v>
       </c>
-      <c r="F182" s="4" t="s">
+      <c r="G182" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="G182" s="6"/>
       <c r="H182" s="6"/>
-    </row>
-    <row r="183" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I182" s="6"/>
+    </row>
+    <row r="183" spans="1:10" ht="12.75" customHeight="1">
       <c r="A183" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D183" s="6">
+      <c r="C183" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E183" s="6">
         <v>80</v>
       </c>
-      <c r="E183" s="6">
+      <c r="F183" s="6">
         <v>5</v>
       </c>
-      <c r="F183" s="4" t="s">
+      <c r="G183" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G183" s="6"/>
       <c r="H183" s="6"/>
-    </row>
-    <row r="184" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I183" s="6"/>
+    </row>
+    <row r="184" spans="1:10" ht="12.75" customHeight="1">
       <c r="A184" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D184" s="6">
+      <c r="C184" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E184" s="6">
         <v>80</v>
       </c>
-      <c r="F184" s="4"/>
-      <c r="G184" s="6"/>
+      <c r="G184" s="4"/>
       <c r="H184" s="6"/>
-    </row>
-    <row r="185" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I184" s="6"/>
+    </row>
+    <row r="185" spans="1:10" ht="12.75" customHeight="1">
       <c r="A185" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="D185" s="6">
+      <c r="C185" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E185" s="6">
         <v>80</v>
       </c>
-      <c r="F185" s="4"/>
-      <c r="G185" s="6"/>
+      <c r="G185" s="4"/>
       <c r="H185" s="6"/>
-    </row>
-    <row r="186" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I185" s="6"/>
+    </row>
+    <row r="186" spans="1:10" ht="12.75" customHeight="1">
       <c r="A186" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D186" s="6">
+      <c r="C186" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E186" s="6">
         <v>80</v>
       </c>
-      <c r="F186" s="4" t="s">
+      <c r="G186" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="G186" s="6"/>
       <c r="H186" s="6"/>
-    </row>
-    <row r="187" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I186" s="6"/>
+    </row>
+    <row r="187" spans="1:10" ht="12.75" customHeight="1">
       <c r="A187" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="D187" s="6">
+      <c r="C187" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E187" s="6">
         <v>80</v>
       </c>
-      <c r="F187" s="4" t="s">
+      <c r="G187" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="G187" s="6"/>
       <c r="H187" s="6"/>
-    </row>
-    <row r="188" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I187" s="6"/>
+    </row>
+    <row r="188" spans="1:10" ht="12.75" customHeight="1">
       <c r="A188" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D188" s="6">
+      <c r="C188" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E188" s="6">
         <v>80</v>
       </c>
-      <c r="F188" s="4" t="s">
+      <c r="G188" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G188" s="6"/>
       <c r="H188" s="6"/>
-    </row>
-    <row r="189" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I188" s="6"/>
+    </row>
+    <row r="189" spans="1:10" ht="12.75" customHeight="1">
       <c r="A189" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D189" s="6">
+      <c r="C189" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E189" s="6">
         <v>75</v>
       </c>
-      <c r="F189" s="4"/>
-      <c r="G189" s="6"/>
+      <c r="G189" s="4"/>
       <c r="H189" s="6"/>
-    </row>
-    <row r="190" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I189" s="6"/>
+    </row>
+    <row r="190" spans="1:10" ht="12.75" customHeight="1">
       <c r="A190" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D190" s="6">
+      <c r="C190" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E190" s="6">
         <v>75</v>
       </c>
-      <c r="E190" s="6">
+      <c r="F190" s="6">
         <v>7</v>
       </c>
-      <c r="F190" s="4" t="s">
+      <c r="G190" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G190" s="6"/>
       <c r="H190" s="6"/>
-    </row>
-    <row r="191" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I190" s="6"/>
+    </row>
+    <row r="191" spans="1:10" ht="12.75" customHeight="1">
       <c r="A191" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D191" s="6">
+      <c r="C191" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E191" s="6">
         <v>75</v>
       </c>
-      <c r="F191" s="4" t="s">
+      <c r="G191" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="G191" s="6"/>
       <c r="H191" s="6"/>
-    </row>
-    <row r="192" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I191" s="6"/>
+    </row>
+    <row r="192" spans="1:10" ht="12.75" customHeight="1">
       <c r="A192" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D192" s="6">
+      <c r="C192" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E192" s="6">
         <v>75</v>
       </c>
-      <c r="F192" s="4"/>
-      <c r="G192" s="6"/>
+      <c r="G192" s="4"/>
       <c r="H192" s="6"/>
-    </row>
-    <row r="193" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I192" s="6"/>
+    </row>
+    <row r="193" spans="1:9" ht="12.75" customHeight="1">
       <c r="A193" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D193" s="6">
+      <c r="C193" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E193" s="6">
         <v>75</v>
       </c>
-      <c r="F193" s="4" t="s">
+      <c r="G193" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G193" s="6"/>
       <c r="H193" s="6"/>
-    </row>
-    <row r="194" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I193" s="6"/>
+    </row>
+    <row r="194" spans="1:9" ht="12.75" customHeight="1">
       <c r="A194" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D194" s="6">
+      <c r="C194" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E194" s="6">
         <v>75</v>
       </c>
-      <c r="F194" s="4"/>
-      <c r="G194" s="6"/>
+      <c r="G194" s="4"/>
       <c r="H194" s="6"/>
-    </row>
-    <row r="195" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I194" s="6"/>
+    </row>
+    <row r="195" spans="1:9" ht="12.75" customHeight="1">
       <c r="A195" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D195" s="6">
+      <c r="C195" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E195" s="6">
         <v>75</v>
       </c>
-      <c r="E195" s="6">
+      <c r="F195" s="6">
         <v>10</v>
       </c>
-      <c r="F195" s="4"/>
-      <c r="G195" s="6"/>
+      <c r="G195" s="4"/>
       <c r="H195" s="6"/>
-    </row>
-    <row r="196" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I195" s="6"/>
+    </row>
+    <row r="196" spans="1:9" ht="12.75" customHeight="1">
       <c r="A196" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D196" s="6">
+      <c r="C196" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E196" s="6">
         <v>75</v>
       </c>
-      <c r="E196" s="6">
+      <c r="F196" s="6">
         <v>9</v>
       </c>
-      <c r="F196" s="4" t="s">
+      <c r="G196" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G196" s="6"/>
       <c r="H196" s="6"/>
-    </row>
-    <row r="197" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I196" s="6"/>
+    </row>
+    <row r="197" spans="1:9" ht="12.75" customHeight="1">
       <c r="A197" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D197" s="6">
+      <c r="C197" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E197" s="6">
         <v>75</v>
       </c>
-      <c r="E197" s="6">
+      <c r="F197" s="6">
         <v>3</v>
       </c>
-      <c r="F197" s="4"/>
-      <c r="G197" s="6"/>
+      <c r="G197" s="4"/>
       <c r="H197" s="6"/>
-    </row>
-    <row r="198" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I197" s="6"/>
+    </row>
+    <row r="198" spans="1:9" ht="12.75" customHeight="1">
       <c r="A198" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D198" s="6">
+      <c r="C198" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E198" s="6">
         <v>70</v>
       </c>
-      <c r="F198" s="4" t="s">
+      <c r="G198" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="G198" s="6"/>
       <c r="H198" s="6"/>
-    </row>
-    <row r="199" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I198" s="6"/>
+    </row>
+    <row r="199" spans="1:9" ht="12.75" customHeight="1">
       <c r="A199" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D199" s="6">
+      <c r="C199" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E199" s="6">
         <v>70</v>
       </c>
-      <c r="F199" s="4"/>
-      <c r="G199" s="6"/>
+      <c r="G199" s="4"/>
       <c r="H199" s="6"/>
-    </row>
-    <row r="200" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I199" s="6"/>
+    </row>
+    <row r="200" spans="1:9" ht="12.75" customHeight="1">
       <c r="A200" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D200" s="6">
+      <c r="C200" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E200" s="6">
         <v>70</v>
       </c>
-      <c r="F200" s="4"/>
-      <c r="G200" s="6"/>
+      <c r="G200" s="4"/>
       <c r="H200" s="6"/>
-    </row>
-    <row r="201" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I200" s="6"/>
+    </row>
+    <row r="201" spans="1:9" ht="12.75" customHeight="1">
       <c r="A201" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D201" s="6">
+      <c r="C201" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E201" s="6">
         <v>70</v>
       </c>
-      <c r="F201" s="4" t="s">
+      <c r="G201" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G201" s="6"/>
       <c r="H201" s="6"/>
-    </row>
-    <row r="202" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I201" s="6"/>
+    </row>
+    <row r="202" spans="1:9" ht="12.75" customHeight="1">
       <c r="A202" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D202" s="6">
+      <c r="C202" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E202" s="6">
         <v>70</v>
       </c>
-      <c r="F202" s="4"/>
-      <c r="G202" s="6"/>
+      <c r="G202" s="4"/>
       <c r="H202" s="6"/>
-    </row>
-    <row r="203" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I202" s="6"/>
+    </row>
+    <row r="203" spans="1:9" ht="12.75" customHeight="1">
       <c r="A203" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D203" s="6">
+      <c r="C203" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E203" s="6">
         <v>70</v>
       </c>
-      <c r="F203" s="4"/>
-      <c r="G203" s="6"/>
+      <c r="G203" s="4"/>
       <c r="H203" s="6"/>
-    </row>
-    <row r="204" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I203" s="6"/>
+    </row>
+    <row r="204" spans="1:9" ht="12.75" customHeight="1">
       <c r="A204" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D204" s="6">
+      <c r="C204" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E204" s="6">
         <v>70</v>
       </c>
-      <c r="F204" s="4" t="s">
+      <c r="G204" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="G204" s="6"/>
       <c r="H204" s="6"/>
-    </row>
-    <row r="205" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I204" s="6"/>
+    </row>
+    <row r="205" spans="1:9" ht="12.75" customHeight="1">
       <c r="A205" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D205" s="6">
+      <c r="C205" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E205" s="6">
         <v>70</v>
       </c>
-      <c r="F205" s="4" t="s">
+      <c r="G205" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="G205" s="6"/>
       <c r="H205" s="6"/>
-    </row>
-    <row r="206" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I205" s="6"/>
+    </row>
+    <row r="206" spans="1:9" ht="12.75" customHeight="1">
       <c r="A206" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D206" s="6">
+      <c r="C206" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E206" s="6">
         <v>70</v>
       </c>
-      <c r="F206" s="4"/>
-      <c r="G206" s="6"/>
+      <c r="G206" s="4"/>
       <c r="H206" s="6"/>
-    </row>
-    <row r="207" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I206" s="6"/>
+    </row>
+    <row r="207" spans="1:9" ht="12.75" customHeight="1">
       <c r="A207" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D207" s="6">
+      <c r="C207" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E207" s="6">
         <v>70</v>
       </c>
-      <c r="F207" s="4"/>
-      <c r="G207" s="6"/>
+      <c r="G207" s="4"/>
       <c r="H207" s="6"/>
-    </row>
-    <row r="208" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I207" s="6"/>
+    </row>
+    <row r="208" spans="1:9" ht="12.75" customHeight="1">
       <c r="A208" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D208" s="6">
+      <c r="C208" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E208" s="6">
         <v>70</v>
       </c>
-      <c r="F208" s="4" t="s">
+      <c r="G208" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G208" s="6"/>
       <c r="H208" s="6"/>
-    </row>
-    <row r="209" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I208" s="6"/>
+    </row>
+    <row r="209" spans="1:9" ht="12.75" customHeight="1">
       <c r="A209" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D209" s="6">
+      <c r="C209" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E209" s="6">
         <v>70</v>
       </c>
-      <c r="F209" s="4" t="s">
+      <c r="G209" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G209" s="6"/>
       <c r="H209" s="6"/>
-    </row>
-    <row r="210" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I209" s="6"/>
+    </row>
+    <row r="210" spans="1:9" ht="12.75" customHeight="1">
       <c r="A210" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D210" s="6">
+      <c r="C210" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E210" s="6">
         <v>65</v>
       </c>
-      <c r="F210" s="4" t="s">
+      <c r="G210" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G210" s="6"/>
       <c r="H210" s="6"/>
-    </row>
-    <row r="211" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I210" s="6"/>
+    </row>
+    <row r="211" spans="1:9" ht="12.75" customHeight="1">
       <c r="A211" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D211" s="6">
+      <c r="C211" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E211" s="6">
         <v>65</v>
       </c>
-      <c r="F211" s="4"/>
-      <c r="G211" s="6"/>
+      <c r="G211" s="4"/>
       <c r="H211" s="6"/>
-    </row>
-    <row r="212" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I211" s="6"/>
+    </row>
+    <row r="212" spans="1:9" ht="12.75" customHeight="1">
       <c r="A212" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D212" s="6">
+      <c r="C212" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E212" s="6">
         <v>65</v>
       </c>
-      <c r="F212" s="4"/>
-      <c r="G212" s="6"/>
+      <c r="G212" s="4"/>
       <c r="H212" s="6"/>
-    </row>
-    <row r="213" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I212" s="6"/>
+    </row>
+    <row r="213" spans="1:9" ht="12.75" customHeight="1">
       <c r="A213" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D213" s="6">
+      <c r="C213" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E213" s="6">
         <v>60</v>
       </c>
-      <c r="F213" s="4"/>
-      <c r="G213" s="6"/>
+      <c r="G213" s="4"/>
       <c r="H213" s="6"/>
-    </row>
-    <row r="214" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I213" s="6"/>
+    </row>
+    <row r="214" spans="1:9" ht="12.75" customHeight="1">
       <c r="A214" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D214" s="6">
+      <c r="C214" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E214" s="6">
         <v>60</v>
       </c>
-      <c r="F214" s="4"/>
-      <c r="G214" s="6"/>
+      <c r="G214" s="4"/>
       <c r="H214" s="6"/>
-    </row>
-    <row r="215" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I214" s="6"/>
+    </row>
+    <row r="215" spans="1:9" ht="12.75" customHeight="1">
       <c r="A215" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D215" s="6">
+      <c r="C215" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E215" s="6">
         <v>60</v>
       </c>
-      <c r="F215" s="4"/>
-      <c r="G215" s="6"/>
+      <c r="G215" s="4"/>
       <c r="H215" s="6"/>
-    </row>
-    <row r="216" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I215" s="6"/>
+    </row>
+    <row r="216" spans="1:9" ht="12.75" customHeight="1">
       <c r="A216" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D216" s="6">
+      <c r="C216" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E216" s="6">
         <v>50</v>
       </c>
-      <c r="F216" s="4" t="s">
+      <c r="G216" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G216" s="6"/>
       <c r="H216" s="6"/>
-    </row>
-    <row r="217" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I216" s="6"/>
+    </row>
+    <row r="217" spans="1:9" ht="12.75" customHeight="1">
       <c r="A217" s="35" t="s">
         <v>513</v>
       </c>
       <c r="B217" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="C217" s="12"/>
-      <c r="F217" s="4"/>
-      <c r="G217" s="6"/>
+      <c r="C217" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D217" s="12"/>
+      <c r="G217" s="4"/>
       <c r="H217" s="6"/>
-    </row>
-    <row r="218" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I217" s="6"/>
+    </row>
+    <row r="218" spans="1:9" ht="12.75" customHeight="1">
       <c r="A218" s="35" t="s">
         <v>157</v>
       </c>
       <c r="B218" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C218" s="12"/>
-      <c r="D218" s="10"/>
+      <c r="C218" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D218" s="12"/>
       <c r="E218" s="10"/>
-      <c r="F218" s="4"/>
-      <c r="G218" s="6"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="4"/>
       <c r="H218" s="6"/>
-    </row>
-    <row r="219" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I218" s="6"/>
+    </row>
+    <row r="219" spans="1:9" ht="12.75" customHeight="1">
       <c r="A219" s="12" t="s">
         <v>244</v>
       </c>
       <c r="B219" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="C219" s="12"/>
-      <c r="D219" s="10"/>
+      <c r="C219" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D219" s="12"/>
       <c r="E219" s="10"/>
-      <c r="F219" s="4"/>
-      <c r="G219" s="6"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="4"/>
       <c r="H219" s="6"/>
-    </row>
-    <row r="220" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I219" s="6"/>
+    </row>
+    <row r="220" spans="1:9" ht="12.75" customHeight="1">
       <c r="A220" s="12" t="s">
         <v>293</v>
       </c>
       <c r="B220" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="C220" s="12"/>
-      <c r="D220" s="10"/>
-      <c r="E220" s="10">
+      <c r="C220" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D220" s="12"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="10">
         <v>6</v>
       </c>
-      <c r="F220" s="4"/>
-      <c r="G220" s="6"/>
+      <c r="G220" s="4"/>
       <c r="H220" s="6"/>
-    </row>
-    <row r="221" spans="1:8" ht="12.75" customHeight="1">
-      <c r="F221" s="4"/>
-      <c r="G221" s="6"/>
+      <c r="I220" s="6"/>
+    </row>
+    <row r="221" spans="1:9" ht="12.75" customHeight="1">
+      <c r="C221" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="G221" s="4"/>
       <c r="H221" s="6"/>
-    </row>
-    <row r="222" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I221" s="6"/>
+    </row>
+    <row r="222" spans="1:9" ht="12.75" customHeight="1">
       <c r="A222" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F222" s="4"/>
-      <c r="G222" s="6"/>
+      <c r="C222" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="G222" s="4"/>
       <c r="H222" s="6"/>
-    </row>
-    <row r="223" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I222" s="6"/>
+    </row>
+    <row r="223" spans="1:9" ht="12.75" customHeight="1">
       <c r="A223" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D223" s="6">
+      <c r="C223" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E223" s="6">
         <v>25</v>
       </c>
-      <c r="F223" s="4" t="s">
+      <c r="G223" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G223" s="6"/>
       <c r="H223" s="6"/>
-    </row>
-    <row r="224" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I223" s="6"/>
+    </row>
+    <row r="224" spans="1:9" ht="12.75" customHeight="1">
       <c r="A224" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D224" s="6">
+      <c r="C224" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E224" s="6">
         <v>20</v>
       </c>
-      <c r="F224" s="4" t="s">
+      <c r="G224" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G224" s="6"/>
       <c r="H224" s="6"/>
-    </row>
-    <row r="225" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I224" s="6"/>
+    </row>
+    <row r="225" spans="1:10" ht="12.75" customHeight="1">
       <c r="A225" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D225" s="6">
+      <c r="C225" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E225" s="6">
         <v>50</v>
       </c>
-      <c r="F225" s="4" t="s">
+      <c r="G225" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G225" s="6"/>
       <c r="H225" s="6"/>
-    </row>
-    <row r="226" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I225" s="6"/>
+    </row>
+    <row r="226" spans="1:10" ht="12.75" customHeight="1">
       <c r="A226" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D226" s="6">
+      <c r="C226" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E226" s="6">
         <v>50</v>
       </c>
-      <c r="F226" s="4" t="s">
+      <c r="G226" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G226" s="6"/>
       <c r="H226" s="6"/>
-    </row>
-    <row r="227" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I226" s="6"/>
+    </row>
+    <row r="227" spans="1:10" ht="12.75" customHeight="1">
       <c r="A227" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D227" s="6">
+      <c r="C227" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E227" s="6">
         <v>55</v>
       </c>
-      <c r="F227" s="4" t="s">
+      <c r="G227" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G227" s="6"/>
       <c r="H227" s="6"/>
-    </row>
-    <row r="228" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I227" s="6"/>
+    </row>
+    <row r="228" spans="1:10" ht="12.75" customHeight="1">
       <c r="A228" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D228" s="6">
+      <c r="C228" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E228" s="6">
         <v>35</v>
       </c>
-      <c r="F228" s="4" t="s">
+      <c r="G228" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G228" s="6"/>
       <c r="H228" s="6"/>
-    </row>
-    <row r="229" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I228" s="6"/>
+    </row>
+    <row r="229" spans="1:10" ht="12.75" customHeight="1">
       <c r="A229" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D229" s="6">
+      <c r="C229" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E229" s="6">
         <v>40</v>
       </c>
-      <c r="F229" s="4" t="s">
+      <c r="G229" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G229" s="6"/>
       <c r="H229" s="6"/>
-    </row>
-    <row r="230" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I229" s="6"/>
+    </row>
+    <row r="230" spans="1:10" ht="12.75" customHeight="1">
       <c r="A230" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D230" s="6">
+      <c r="C230" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E230" s="6">
         <v>25</v>
       </c>
-      <c r="F230" s="4" t="s">
+      <c r="G230" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G230" s="6"/>
       <c r="H230" s="6"/>
-    </row>
-    <row r="231" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I230" s="6"/>
+    </row>
+    <row r="231" spans="1:10" ht="12.75" customHeight="1">
       <c r="A231" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D231" s="6">
+      <c r="C231" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E231" s="6">
         <v>25</v>
       </c>
-      <c r="F231" s="4" t="s">
+      <c r="G231" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="G231" s="6"/>
       <c r="H231" s="6"/>
-    </row>
-    <row r="232" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I231" s="6"/>
+    </row>
+    <row r="232" spans="1:10" ht="12.75" customHeight="1">
       <c r="A232" s="26" t="s">
         <v>412</v>
       </c>
       <c r="B232" s="26"/>
-      <c r="C232" s="26"/>
-      <c r="D232" s="27">
+      <c r="C232" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D232" s="26"/>
+      <c r="E232" s="27">
         <v>85</v>
       </c>
-      <c r="E232" s="27"/>
-      <c r="F232" s="26" t="s">
+      <c r="F232" s="27"/>
+      <c r="G232" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="G232" s="6"/>
       <c r="H232" s="6"/>
-    </row>
-    <row r="233" spans="1:9" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I232" s="6"/>
+    </row>
+    <row r="233" spans="1:10" s="28" customFormat="1" ht="12.75" customHeight="1">
       <c r="A233" s="26" t="s">
         <v>410</v>
       </c>
       <c r="B233" s="26"/>
-      <c r="C233" s="26"/>
-      <c r="D233" s="27">
+      <c r="C233" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D233" s="26"/>
+      <c r="E233" s="27">
         <v>65</v>
       </c>
-      <c r="E233" s="27"/>
-      <c r="F233" s="26" t="s">
+      <c r="F233" s="27"/>
+      <c r="G233" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="G233" s="27"/>
       <c r="H233" s="27"/>
       <c r="I233" s="27"/>
-    </row>
-    <row r="234" spans="1:9" ht="12.75" customHeight="1">
+      <c r="J233" s="27"/>
+    </row>
+    <row r="234" spans="1:10" ht="12.75" customHeight="1">
       <c r="A234" s="26" t="s">
         <v>417</v>
       </c>
       <c r="B234" s="26"/>
-      <c r="C234" s="26"/>
-      <c r="D234" s="27">
+      <c r="C234" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D234" s="26"/>
+      <c r="E234" s="27">
         <v>80</v>
       </c>
-      <c r="E234" s="27"/>
-      <c r="F234" s="26" t="s">
+      <c r="F234" s="27"/>
+      <c r="G234" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="G234" s="6"/>
       <c r="H234" s="6"/>
-    </row>
-    <row r="235" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I234" s="6"/>
+    </row>
+    <row r="235" spans="1:10" ht="12.75" customHeight="1">
       <c r="A235" s="26" t="s">
         <v>411</v>
       </c>
       <c r="B235" s="26"/>
-      <c r="C235" s="26"/>
-      <c r="D235" s="27">
+      <c r="C235" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D235" s="26"/>
+      <c r="E235" s="27">
         <v>80</v>
       </c>
-      <c r="E235" s="27">
+      <c r="F235" s="27">
         <v>8</v>
       </c>
-      <c r="F235" s="26" t="s">
+      <c r="G235" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="G235" s="6"/>
       <c r="H235" s="6"/>
-    </row>
-    <row r="236" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I235" s="6"/>
+    </row>
+    <row r="236" spans="1:10" ht="12.75" customHeight="1">
       <c r="A236" s="26" t="s">
         <v>559</v>
       </c>
       <c r="B236" s="26"/>
-      <c r="C236" s="26"/>
-      <c r="D236" s="27">
+      <c r="C236" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D236" s="26"/>
+      <c r="E236" s="27">
         <v>75</v>
       </c>
-      <c r="E236" s="27"/>
-      <c r="F236" s="26" t="s">
+      <c r="F236" s="27"/>
+      <c r="G236" s="26" t="s">
         <v>537</v>
       </c>
-      <c r="G236" s="6"/>
       <c r="H236" s="6"/>
-    </row>
-    <row r="237" spans="1:9" ht="12.75" customHeight="1">
-      <c r="F237" s="4"/>
-      <c r="G237" s="6"/>
+      <c r="I236" s="6"/>
+    </row>
+    <row r="237" spans="1:10" ht="12.75" customHeight="1">
+      <c r="C237" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="G237" s="4"/>
       <c r="H237" s="6"/>
-    </row>
-    <row r="238" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I237" s="6"/>
+    </row>
+    <row r="238" spans="1:10" ht="12.75" customHeight="1">
       <c r="A238" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F238" s="4"/>
-      <c r="G238" s="6"/>
+      <c r="C238" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="G238" s="4"/>
       <c r="H238" s="6"/>
-    </row>
-    <row r="239" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I238" s="6"/>
+    </row>
+    <row r="239" spans="1:10" ht="12.75" customHeight="1">
       <c r="A239" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D239" s="6">
+      <c r="C239" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E239" s="6">
         <v>50</v>
       </c>
-      <c r="F239" s="4" t="s">
+      <c r="G239" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G239" s="6"/>
       <c r="H239" s="6"/>
-    </row>
-    <row r="240" spans="1:9" ht="12.75" customHeight="1">
+      <c r="I239" s="6"/>
+    </row>
+    <row r="240" spans="1:10" ht="12.75" customHeight="1">
       <c r="A240" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="D240" s="6">
+      <c r="C240" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E240" s="6">
         <v>45</v>
       </c>
-      <c r="F240" s="4" t="s">
+      <c r="G240" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G240" s="6"/>
       <c r="H240" s="6"/>
-    </row>
-    <row r="241" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I240" s="6"/>
+    </row>
+    <row r="241" spans="1:11" ht="12.75" customHeight="1">
       <c r="A241" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D241" s="6">
+      <c r="C241" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E241" s="6">
         <v>40</v>
       </c>
-      <c r="F241" s="4" t="s">
+      <c r="G241" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G241" s="6"/>
       <c r="H241" s="6"/>
-    </row>
-    <row r="242" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I241" s="6"/>
+    </row>
+    <row r="242" spans="1:11" ht="12.75" customHeight="1">
       <c r="A242" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D242" s="6">
+      <c r="C242" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E242" s="6">
         <v>30</v>
       </c>
-      <c r="F242" s="4" t="s">
+      <c r="G242" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G242" s="6"/>
       <c r="H242" s="6"/>
-    </row>
-    <row r="243" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I242" s="6"/>
+    </row>
+    <row r="243" spans="1:11" ht="12.75" customHeight="1">
       <c r="A243" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D243" s="6">
+      <c r="C243" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E243" s="6">
         <v>30</v>
       </c>
-      <c r="F243" s="4" t="s">
+      <c r="G243" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G243" s="6"/>
       <c r="H243" s="6"/>
-    </row>
-    <row r="244" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I243" s="6"/>
+    </row>
+    <row r="244" spans="1:11" ht="12.75" customHeight="1">
       <c r="A244" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="D244" s="6">
+      <c r="C244" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E244" s="6">
         <v>15</v>
       </c>
-      <c r="F244" s="4" t="s">
+      <c r="G244" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="G244" s="4"/>
-      <c r="H244" s="6"/>
-    </row>
-    <row r="245" spans="1:10" ht="12.75" customHeight="1">
+      <c r="H244" s="4"/>
+      <c r="I244" s="6"/>
+    </row>
+    <row r="245" spans="1:11" ht="12.75" customHeight="1">
       <c r="A245" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D245" s="6">
+      <c r="C245" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E245" s="6">
         <v>35</v>
       </c>
-      <c r="F245" s="4"/>
-      <c r="G245" s="6"/>
+      <c r="G245" s="4"/>
       <c r="H245" s="6"/>
-    </row>
-    <row r="246" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I245" s="6"/>
+    </row>
+    <row r="246" spans="1:11" ht="12.75" customHeight="1">
       <c r="A246" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D246" s="6">
+      <c r="C246" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E246" s="6">
         <v>45</v>
       </c>
-      <c r="F246" s="4"/>
-      <c r="G246" s="6"/>
+      <c r="G246" s="4"/>
       <c r="H246" s="6"/>
-    </row>
-    <row r="247" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I246" s="6"/>
+    </row>
+    <row r="247" spans="1:11" ht="12.75" customHeight="1">
       <c r="A247" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="D247" s="6">
+      <c r="C247" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E247" s="6">
         <v>25</v>
       </c>
-      <c r="F247" s="4" t="s">
+      <c r="G247" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G247" s="6"/>
       <c r="H247" s="6"/>
-    </row>
-    <row r="248" spans="1:10" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="I247" s="6"/>
+    </row>
+    <row r="248" spans="1:11" s="28" customFormat="1" ht="12.75" customHeight="1">
       <c r="A248" s="26" t="s">
         <v>411</v>
       </c>
@@ -7171,18 +7925,19 @@
         <v>207</v>
       </c>
       <c r="C248" s="26"/>
-      <c r="D248" s="27">
+      <c r="D248" s="26"/>
+      <c r="E248" s="27">
         <v>70</v>
       </c>
-      <c r="E248" s="27"/>
-      <c r="F248" s="26" t="s">
+      <c r="F248" s="27"/>
+      <c r="G248" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="G248" s="26"/>
-      <c r="H248" s="27"/>
+      <c r="H248" s="26"/>
       <c r="I248" s="27"/>
-    </row>
-    <row r="249" spans="1:10" s="36" customFormat="1" ht="12.75" customHeight="1">
+      <c r="J248" s="27"/>
+    </row>
+    <row r="249" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1">
       <c r="A249" s="26" t="s">
         <v>504</v>
       </c>
@@ -7190,45 +7945,46 @@
         <v>289</v>
       </c>
       <c r="C249" s="26"/>
-      <c r="D249" s="27">
+      <c r="D249" s="26"/>
+      <c r="E249" s="27">
         <v>84</v>
       </c>
-      <c r="E249" s="27">
+      <c r="F249" s="27">
         <v>16</v>
       </c>
-      <c r="F249" s="26" t="s">
+      <c r="G249" s="26" t="s">
         <v>489</v>
       </c>
-      <c r="G249" s="26" t="s">
+      <c r="H249" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="H249" s="27"/>
       <c r="I249" s="27"/>
-      <c r="J249" s="28"/>
-    </row>
-    <row r="250" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J249" s="27"/>
+      <c r="K249" s="28"/>
+    </row>
+    <row r="250" spans="1:11" ht="12.75" customHeight="1">
       <c r="A250" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D250" s="6">
+      <c r="E250" s="6">
         <v>30</v>
       </c>
-      <c r="F250" s="4" t="s">
+      <c r="G250" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G250" s="6"/>
       <c r="H250" s="6"/>
-    </row>
-    <row r="251" spans="1:10">
-      <c r="F251" s="2"/>
+      <c r="I250" s="6"/>
+    </row>
+    <row r="251" spans="1:11">
+      <c r="G251" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A59:J74">
-    <sortCondition descending="1" ref="D59:D74"/>
+  <sortState ref="A59:K74">
+    <sortCondition descending="1" ref="E59:E74"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A102" r:id="rId1"/>
@@ -7292,9 +8048,9 @@
     <hyperlink ref="A46" r:id="rId59"/>
     <hyperlink ref="A24" r:id="rId60"/>
     <hyperlink ref="A25" r:id="rId61"/>
-    <hyperlink ref="A8" r:id="rId62"/>
+    <hyperlink ref="A9" r:id="rId62"/>
     <hyperlink ref="A112" r:id="rId63"/>
-    <hyperlink ref="A5" r:id="rId64"/>
+    <hyperlink ref="A6" r:id="rId64"/>
     <hyperlink ref="A113" r:id="rId65"/>
     <hyperlink ref="A115" r:id="rId66"/>
     <hyperlink ref="A116" r:id="rId67"/>
@@ -7302,13 +8058,13 @@
     <hyperlink ref="A119" r:id="rId69"/>
     <hyperlink ref="A120" r:id="rId70"/>
     <hyperlink ref="A121" r:id="rId71"/>
-    <hyperlink ref="A4" r:id="rId72"/>
-    <hyperlink ref="A6" r:id="rId73"/>
-    <hyperlink ref="A2" r:id="rId74"/>
-    <hyperlink ref="A3" r:id="rId75" display="SPQR"/>
-    <hyperlink ref="A9" r:id="rId76"/>
-    <hyperlink ref="A7" r:id="rId77"/>
-    <hyperlink ref="A10" r:id="rId78" display="Mission Beach Café"/>
+    <hyperlink ref="A5" r:id="rId72"/>
+    <hyperlink ref="A7" r:id="rId73"/>
+    <hyperlink ref="A3" r:id="rId74"/>
+    <hyperlink ref="A4" r:id="rId75" display="SPQR"/>
+    <hyperlink ref="A10" r:id="rId76"/>
+    <hyperlink ref="A8" r:id="rId77"/>
+    <hyperlink ref="A2" r:id="rId78" display="Mission Beach Café"/>
     <hyperlink ref="A11" r:id="rId79"/>
     <hyperlink ref="A12" r:id="rId80"/>
     <hyperlink ref="A15" r:id="rId81"/>
@@ -7335,16 +8091,16 @@
     <hyperlink ref="A50" r:id="rId102"/>
     <hyperlink ref="A47" r:id="rId103"/>
     <hyperlink ref="A171" r:id="rId104"/>
-    <hyperlink ref="C81" r:id="rId105"/>
-    <hyperlink ref="C169" r:id="rId106"/>
-    <hyperlink ref="C157" r:id="rId107"/>
-    <hyperlink ref="C163" r:id="rId108"/>
-    <hyperlink ref="C150" r:id="rId109"/>
-    <hyperlink ref="C106" r:id="rId110"/>
-    <hyperlink ref="C91" r:id="rId111"/>
-    <hyperlink ref="C87" r:id="rId112"/>
-    <hyperlink ref="C8" r:id="rId113"/>
-    <hyperlink ref="C23" r:id="rId114"/>
+    <hyperlink ref="D81" r:id="rId105"/>
+    <hyperlink ref="D169" r:id="rId106"/>
+    <hyperlink ref="D157" r:id="rId107"/>
+    <hyperlink ref="D163" r:id="rId108"/>
+    <hyperlink ref="D150" r:id="rId109"/>
+    <hyperlink ref="D106" r:id="rId110"/>
+    <hyperlink ref="D91" r:id="rId111"/>
+    <hyperlink ref="D87" r:id="rId112"/>
+    <hyperlink ref="D9" r:id="rId113"/>
+    <hyperlink ref="D23" r:id="rId114"/>
     <hyperlink ref="A14" r:id="rId115"/>
     <hyperlink ref="A13" r:id="rId116"/>
     <hyperlink ref="A16" r:id="rId117"/>
@@ -7353,23 +8109,23 @@
     <hyperlink ref="A19" r:id="rId120"/>
     <hyperlink ref="A21" r:id="rId121"/>
     <hyperlink ref="A22" r:id="rId122"/>
-    <hyperlink ref="C22" r:id="rId123"/>
-    <hyperlink ref="C2" r:id="rId124"/>
-    <hyperlink ref="C3:C12" r:id="rId125" display="Open Table"/>
-    <hyperlink ref="C15" r:id="rId126"/>
-    <hyperlink ref="C20" r:id="rId127"/>
-    <hyperlink ref="C82:C86" r:id="rId128" display="Open Table"/>
-    <hyperlink ref="C88:C90" r:id="rId129" display="Open Table"/>
-    <hyperlink ref="C107:C113" r:id="rId130" display="Open Table"/>
-    <hyperlink ref="C115:C142" r:id="rId131" display="Open Table"/>
-    <hyperlink ref="C145:C147" r:id="rId132" display="Open Table"/>
-    <hyperlink ref="C151" r:id="rId133"/>
-    <hyperlink ref="C155" r:id="rId134"/>
-    <hyperlink ref="C159:C162" r:id="rId135" display="Open Table"/>
-    <hyperlink ref="C171:C172" r:id="rId136" display="Open Table"/>
+    <hyperlink ref="D22" r:id="rId123"/>
+    <hyperlink ref="D3" r:id="rId124"/>
+    <hyperlink ref="D4:D12" r:id="rId125" display="Open Table"/>
+    <hyperlink ref="D15" r:id="rId126"/>
+    <hyperlink ref="D20" r:id="rId127"/>
+    <hyperlink ref="D82:D86" r:id="rId128" display="Open Table"/>
+    <hyperlink ref="D88:D90" r:id="rId129" display="Open Table"/>
+    <hyperlink ref="D107:D113" r:id="rId130" display="Open Table"/>
+    <hyperlink ref="D115:D142" r:id="rId131" display="Open Table"/>
+    <hyperlink ref="D145:D147" r:id="rId132" display="Open Table"/>
+    <hyperlink ref="D151" r:id="rId133"/>
+    <hyperlink ref="D155" r:id="rId134"/>
+    <hyperlink ref="D159:D162" r:id="rId135" display="Open Table"/>
+    <hyperlink ref="D171:D172" r:id="rId136" display="Open Table"/>
     <hyperlink ref="A97" r:id="rId137"/>
-    <hyperlink ref="C94:C105" r:id="rId138" display="Open Table"/>
-    <hyperlink ref="C167" r:id="rId139"/>
+    <hyperlink ref="D94:D105" r:id="rId138" display="Open Table"/>
+    <hyperlink ref="D167" r:id="rId139"/>
     <hyperlink ref="A60" r:id="rId140"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gourmet/restaurant_list/sophia_test_data.xlsx
+++ b/gourmet/restaurant_list/sophia_test_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="611">
   <si>
     <t>Sat   8:00 AM- 3:00 PM</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>Sun 11:00 AM- 2:30 PM</t>
-  </si>
-  <si>
-    <t>1191 Fillmore (btw Bush and Pine)</t>
   </si>
   <si>
     <t>Sat 11:30 AM- 2:30 PM</t>
@@ -2208,6 +2205,12 @@
   </si>
   <si>
     <t>San Francisco</t>
+  </si>
+  <si>
+    <t>1911 Fillmore (btw Bush and Pine)</t>
+  </si>
+  <si>
+    <t>AQ Restaurant &amp; Bar</t>
   </si>
 </sst>
 </file>
@@ -2819,7 +2822,7 @@
   <dimension ref="A1:K251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2839,47 +2842,47 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="43" t="s">
         <v>81</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>606</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>82</v>
       </c>
       <c r="I1" s="43"/>
       <c r="J1" s="43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E2" s="6">
         <v>90</v>
@@ -2888,7 +2891,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -2897,22 +2900,22 @@
         <v>13</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E3" s="6">
         <v>90</v>
@@ -2921,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>5</v>
@@ -2934,16 +2937,16 @@
     </row>
     <row r="4" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>22</v>
+        <v>609</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E4" s="11">
         <v>90</v>
@@ -2952,28 +2955,28 @@
         <v>2</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E5" s="11">
         <v>95</v>
@@ -2982,29 +2985,29 @@
         <v>3</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E6" s="11">
         <v>95</v>
@@ -3013,7 +3016,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>20</v>
@@ -3026,16 +3029,16 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E7" s="11">
         <v>95</v>
@@ -3044,29 +3047,29 @@
         <v>6</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E8" s="11">
         <v>90</v>
@@ -3075,7 +3078,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>17</v>
@@ -3088,16 +3091,16 @@
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="40" t="s">
+        <v>610</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>439</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E9" s="39">
         <v>95</v>
@@ -3106,28 +3109,28 @@
         <v>4</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J9" s="34"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>314</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E10" s="11">
         <v>85</v>
@@ -3136,29 +3139,29 @@
         <v>8</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A11" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E11" s="11">
         <v>85</v>
@@ -3167,10 +3170,10 @@
         <v>10</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>1</v>
@@ -3179,16 +3182,16 @@
     </row>
     <row r="12" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E12" s="11">
         <v>85</v>
@@ -3197,7 +3200,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>15</v>
@@ -3209,16 +3212,16 @@
     </row>
     <row r="13" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A13" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E13" s="11">
         <v>92</v>
@@ -3227,28 +3230,28 @@
         <v>12</v>
       </c>
       <c r="G13" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="I13" s="16" t="s">
         <v>242</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>243</v>
       </c>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A14" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>351</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E14" s="11">
         <v>85</v>
@@ -3257,30 +3260,30 @@
         <v>13</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H14" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>387</v>
-      </c>
       <c r="J14" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E15" s="6">
         <v>85</v>
@@ -3289,10 +3292,10 @@
         <v>14</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>1</v>
@@ -3302,48 +3305,48 @@
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
       <c r="A16" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E16" s="6">
         <v>85</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E17" s="6">
         <v>80</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>7</v>
@@ -3352,27 +3355,27 @@
         <v>8</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1">
       <c r="A18" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E18" s="6">
         <v>80</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>3</v>
@@ -3381,84 +3384,84 @@
         <v>4</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A19" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E19" s="11">
         <v>80</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A20" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E20" s="11">
         <v>80</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A21" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E21" s="6">
         <v>75</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>0</v>
@@ -3467,29 +3470,29 @@
         <v>1</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K21"/>
     </row>
     <row r="22" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A22" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E22" s="6">
         <v>70</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>9</v>
@@ -3498,100 +3501,100 @@
         <v>10</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K22"/>
     </row>
     <row r="23" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I23" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>499</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>500</v>
       </c>
       <c r="K23"/>
     </row>
     <row r="24" spans="1:11" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A24" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>384</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H24" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1">
       <c r="A25" s="35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="J25" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="10"/>
@@ -3604,7 +3607,7 @@
       <c r="A27" s="15"/>
       <c r="B27" s="12"/>
       <c r="C27" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="10"/>
@@ -3615,11 +3618,11 @@
     </row>
     <row r="28" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A28" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="11"/>
@@ -3631,11 +3634,11 @@
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1">
       <c r="A29" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="10"/>
@@ -3646,11 +3649,11 @@
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="10"/>
@@ -3661,11 +3664,11 @@
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1">
       <c r="A31" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="10"/>
@@ -3676,11 +3679,11 @@
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1">
       <c r="A32" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="10"/>
@@ -3691,11 +3694,11 @@
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1">
       <c r="A33" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="10"/>
@@ -3706,11 +3709,11 @@
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1">
       <c r="A34" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="10"/>
@@ -3721,11 +3724,11 @@
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1">
       <c r="A35" s="15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="10"/>
@@ -3736,11 +3739,11 @@
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1">
       <c r="A36" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="10"/>
@@ -3751,11 +3754,11 @@
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1">
       <c r="A37" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="10"/>
@@ -3766,11 +3769,11 @@
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1">
       <c r="A38" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="10"/>
@@ -3781,11 +3784,11 @@
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1">
       <c r="A39" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="10"/>
@@ -3796,11 +3799,11 @@
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1">
       <c r="A40" s="15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="10"/>
@@ -3811,11 +3814,11 @@
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="10"/>
@@ -3826,11 +3829,11 @@
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="10"/>
@@ -3843,7 +3846,7 @@
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="10"/>
@@ -3854,11 +3857,11 @@
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="7"/>
@@ -3869,13 +3872,13 @@
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1">
       <c r="A45" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E45" s="11">
         <v>95</v>
@@ -3884,20 +3887,20 @@
         <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1">
       <c r="A46" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="11">
@@ -3907,20 +3910,20 @@
         <v>2</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1">
       <c r="A47" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E47" s="6">
         <v>90</v>
@@ -3929,20 +3932,20 @@
         <v>3</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A48" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>507</v>
-      </c>
       <c r="C48" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="11">
@@ -3952,7 +3955,7 @@
         <v>4</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
@@ -3960,13 +3963,13 @@
     </row>
     <row r="49" spans="1:11" ht="12.75" customHeight="1">
       <c r="A49" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E49" s="6">
         <v>85</v>
@@ -3977,32 +3980,32 @@
     </row>
     <row r="50" spans="1:11" ht="12.75" customHeight="1">
       <c r="A50" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E50" s="6">
         <v>80</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:11" ht="12.75" customHeight="1">
       <c r="A51" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E51" s="6">
         <v>80</v>
@@ -4013,13 +4016,13 @@
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1">
       <c r="A52" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D52" s="15"/>
       <c r="G52" s="4"/>
@@ -4028,73 +4031,73 @@
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1">
       <c r="A53" s="33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="6">
         <v>60</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1">
       <c r="A54" s="40" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="6">
         <v>75</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1">
       <c r="A55" s="40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="6">
         <v>80</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="11">
@@ -4102,20 +4105,20 @@
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1">
       <c r="A57" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="B57" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>598</v>
-      </c>
       <c r="C57" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="11">
@@ -4123,20 +4126,20 @@
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1">
       <c r="A58" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>594</v>
-      </c>
       <c r="C58" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="10"/>
@@ -4147,13 +4150,13 @@
     </row>
     <row r="59" spans="1:11" ht="12.75" customHeight="1">
       <c r="A59" s="35" t="s">
+        <v>594</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>596</v>
-      </c>
       <c r="C59" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="10"/>
@@ -4164,13 +4167,13 @@
     </row>
     <row r="60" spans="1:11" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A60" s="35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="10"/>
@@ -4184,7 +4187,7 @@
       <c r="A61" s="35"/>
       <c r="B61" s="12"/>
       <c r="C61" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="10"/>
@@ -4196,11 +4199,11 @@
     </row>
     <row r="62" spans="1:11" s="19" customFormat="1" ht="12.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="10"/>
@@ -4212,13 +4215,13 @@
     </row>
     <row r="63" spans="1:11" ht="12.75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E63" s="11">
         <v>90</v>
@@ -4227,20 +4230,20 @@
         <v>1</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1">
       <c r="A64" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="11">
@@ -4250,7 +4253,7 @@
         <v>4</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
@@ -4259,13 +4262,13 @@
     </row>
     <row r="65" spans="1:11" ht="12.75" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E65" s="11">
         <v>85</v>
@@ -4274,20 +4277,20 @@
         <v>3</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:11" ht="12.75" customHeight="1">
       <c r="A66" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="11">
@@ -4297,7 +4300,7 @@
         <v>2</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -4306,23 +4309,23 @@
     </row>
     <row r="67" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A67" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>317</v>
-      </c>
       <c r="C67" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="11">
         <v>83</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
@@ -4330,13 +4333,13 @@
     </row>
     <row r="68" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A68" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="B68" s="15" t="s">
-        <v>374</v>
-      </c>
       <c r="C68" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="11">
@@ -4344,7 +4347,7 @@
       </c>
       <c r="F68" s="11"/>
       <c r="G68" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
@@ -4352,13 +4355,13 @@
     </row>
     <row r="69" spans="1:11" ht="12.75" customHeight="1">
       <c r="A69" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="11">
@@ -4368,7 +4371,7 @@
         <v>5</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
@@ -4377,13 +4380,13 @@
     </row>
     <row r="70" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="11">
@@ -4393,7 +4396,7 @@
         <v>7</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -4402,13 +4405,13 @@
     </row>
     <row r="71" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A71" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>370</v>
-      </c>
       <c r="C71" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="11">
@@ -4418,7 +4421,7 @@
         <v>6</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
@@ -4426,13 +4429,13 @@
     </row>
     <row r="72" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="11">
@@ -4442,7 +4445,7 @@
         <v>8</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
@@ -4451,13 +4454,13 @@
     </row>
     <row r="73" spans="1:11" ht="12.75" customHeight="1">
       <c r="A73" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B73" s="15" t="s">
-        <v>232</v>
-      </c>
       <c r="C73" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="11">
@@ -4465,7 +4468,7 @@
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
@@ -4474,13 +4477,13 @@
     </row>
     <row r="74" spans="1:11" ht="12.75" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E74" s="11">
         <v>65</v>
@@ -4489,20 +4492,20 @@
         <v>9</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A75" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="10"/>
@@ -4515,13 +4518,13 @@
     </row>
     <row r="76" spans="1:11" ht="12.75" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="10"/>
@@ -4532,13 +4535,13 @@
     </row>
     <row r="77" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A77" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="10"/>
@@ -4551,13 +4554,13 @@
     </row>
     <row r="78" spans="1:11" ht="12.75" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="10"/>
@@ -4568,7 +4571,7 @@
     </row>
     <row r="79" spans="1:11" ht="12.75" customHeight="1">
       <c r="C79" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="6"/>
@@ -4576,41 +4579,41 @@
     </row>
     <row r="80" spans="1:11" ht="12.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="F80" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="F80" s="9" t="s">
-        <v>604</v>
-      </c>
       <c r="G80" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:11" ht="12.75" customHeight="1">
       <c r="A81" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E81" s="11">
         <v>95</v>
@@ -4619,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H81" s="15"/>
       <c r="I81" s="11"/>
@@ -4628,16 +4631,16 @@
     </row>
     <row r="82" spans="1:11" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A82" s="33" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E82" s="11">
         <v>90</v>
@@ -4646,7 +4649,7 @@
         <v>2</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H82" s="15"/>
       <c r="I82" s="11"/>
@@ -4655,16 +4658,16 @@
     </row>
     <row r="83" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A83" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E83" s="6">
         <v>85</v>
@@ -4673,7 +4676,7 @@
         <v>3</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="6"/>
@@ -4682,16 +4685,16 @@
     </row>
     <row r="84" spans="1:11" ht="12.75" customHeight="1">
       <c r="A84" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E84" s="6">
         <v>90</v>
@@ -4700,51 +4703,51 @@
         <v>4</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A85" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="B85" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="B85" s="15" t="s">
-        <v>259</v>
-      </c>
       <c r="C85" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E85" s="11">
         <v>90</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="H85" s="13" t="s">
         <v>553</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>554</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="29"/>
     </row>
     <row r="86" spans="1:11" ht="12.75" customHeight="1">
       <c r="A86" s="33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E86" s="11">
         <v>92</v>
@@ -4753,10 +4756,10 @@
         <v>5</v>
       </c>
       <c r="G86" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="H86" s="15" t="s">
         <v>287</v>
-      </c>
-      <c r="H86" s="15" t="s">
-        <v>288</v>
       </c>
       <c r="I86" s="15"/>
       <c r="J86" s="11"/>
@@ -4764,16 +4767,16 @@
     </row>
     <row r="87" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A87" s="33" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E87" s="11">
         <v>85</v>
@@ -4782,26 +4785,26 @@
         <v>6</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A88" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E88" s="11">
         <v>85</v>
@@ -4810,26 +4813,26 @@
         <v>8</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A89" s="33" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E89" s="6">
         <v>90</v>
@@ -4838,7 +4841,7 @@
         <v>9</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="6"/>
@@ -4847,16 +4850,16 @@
     </row>
     <row r="90" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A90" s="33" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E90" s="6">
         <v>95</v>
@@ -4865,10 +4868,10 @@
         <v>10</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
@@ -4876,16 +4879,16 @@
     </row>
     <row r="91" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A91" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>439</v>
-      </c>
       <c r="C91" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E91" s="6">
         <v>90</v>
@@ -4894,52 +4897,52 @@
         <v>7</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="29"/>
     </row>
     <row r="92" spans="1:11" s="32" customFormat="1" ht="12.75" customHeight="1">
       <c r="A92" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="B92" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="B92" s="15" t="s">
-        <v>445</v>
-      </c>
       <c r="C92" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E92" s="11">
         <v>87</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="H92" s="15" t="s">
         <v>560</v>
-      </c>
-      <c r="H92" s="15" t="s">
-        <v>561</v>
       </c>
       <c r="I92" s="31"/>
       <c r="J92" s="31"/>
     </row>
     <row r="93" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A93" s="33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E93" s="11">
         <v>85</v>
@@ -4948,26 +4951,26 @@
         <v>11</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A94" s="33" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E94" s="11">
         <v>85</v>
@@ -4976,26 +4979,26 @@
         <v>12</v>
       </c>
       <c r="G94" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="H94" s="15" t="s">
         <v>328</v>
-      </c>
-      <c r="H94" s="15" t="s">
-        <v>329</v>
       </c>
       <c r="I94" s="11"/>
       <c r="J94" s="11"/>
     </row>
     <row r="95" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A95" s="33" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E95" s="6">
         <v>85</v>
@@ -5004,10 +5007,10 @@
         <v>13</v>
       </c>
       <c r="G95" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="H95" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="H95" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="I95" s="15"/>
       <c r="J95" s="11"/>
@@ -5015,16 +5018,16 @@
     </row>
     <row r="96" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A96" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E96" s="11">
         <v>85</v>
@@ -5033,52 +5036,52 @@
         <v>14</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="11"/>
     </row>
     <row r="97" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A97" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="B97" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="B97" s="15" t="s">
-        <v>556</v>
-      </c>
       <c r="C97" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E97" s="11">
         <v>85</v>
       </c>
       <c r="F97" s="11"/>
       <c r="G97" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="H97" s="15" t="s">
         <v>557</v>
-      </c>
-      <c r="H97" s="15" t="s">
-        <v>558</v>
       </c>
       <c r="I97" s="11"/>
       <c r="J97" s="11"/>
     </row>
     <row r="98" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A98" s="33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E98" s="11">
         <v>85</v>
@@ -5087,7 +5090,7 @@
         <v>15</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
@@ -5095,16 +5098,16 @@
     </row>
     <row r="99" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A99" s="33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E99" s="6">
         <v>85</v>
@@ -5113,10 +5116,10 @@
         <v>16</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="6"/>
@@ -5124,16 +5127,16 @@
     </row>
     <row r="100" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A100" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="B100" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="B100" s="15" t="s">
-        <v>314</v>
-      </c>
       <c r="C100" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E100" s="6">
         <v>85</v>
@@ -5142,25 +5145,25 @@
         <v>17</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J100" s="11"/>
     </row>
     <row r="101" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A101" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E101" s="11">
         <v>85</v>
@@ -5169,10 +5172,10 @@
         <v>18</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H101" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I101" s="11"/>
       <c r="J101" s="11"/>
@@ -5180,16 +5183,16 @@
     </row>
     <row r="102" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A102" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E102" s="11">
         <v>83</v>
@@ -5198,10 +5201,10 @@
         <v>19</v>
       </c>
       <c r="G102" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="H102" s="15" t="s">
         <v>318</v>
-      </c>
-      <c r="H102" s="15" t="s">
-        <v>319</v>
       </c>
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
@@ -5209,16 +5212,16 @@
     </row>
     <row r="103" spans="1:11" ht="12.75" customHeight="1">
       <c r="A103" s="40" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E103" s="11">
         <v>80</v>
@@ -5227,7 +5230,7 @@
         <v>20</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H103" s="15"/>
       <c r="I103" s="11"/>
@@ -5236,16 +5239,16 @@
     </row>
     <row r="104" spans="1:11" ht="12.75" customHeight="1">
       <c r="A104" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E104" s="11">
         <v>82</v>
@@ -5254,10 +5257,10 @@
         <v>21</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H104" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
@@ -5265,16 +5268,16 @@
     </row>
     <row r="105" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A105" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="C105" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E105" s="6">
         <v>85</v>
@@ -5283,10 +5286,10 @@
         <v>22</v>
       </c>
       <c r="G105" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H105" s="11" t="s">
         <v>367</v>
-      </c>
-      <c r="H105" s="11" t="s">
-        <v>368</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="6"/>
@@ -5294,16 +5297,16 @@
     </row>
     <row r="106" spans="1:11" ht="12.75" customHeight="1">
       <c r="A106" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D106" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E106" s="6">
         <v>90</v>
@@ -5312,23 +5315,23 @@
         <v>23</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:11" ht="12.75" customHeight="1">
       <c r="A107" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E107" s="6">
         <v>80</v>
@@ -5337,23 +5340,23 @@
         <v>24</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A108" s="33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E108" s="11">
         <v>85</v>
@@ -5362,26 +5365,26 @@
         <v>25</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H108" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
     </row>
     <row r="109" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A109" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="C109" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D109" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E109" s="6">
         <v>78</v>
@@ -5390,10 +5393,10 @@
         <v>26</v>
       </c>
       <c r="G109" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="H109" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>378</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
@@ -5401,16 +5404,16 @@
     </row>
     <row r="110" spans="1:11" ht="12.75" customHeight="1">
       <c r="A110" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E110" s="6">
         <v>80</v>
@@ -5419,23 +5422,23 @@
         <v>27</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H110" s="4"/>
       <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:11" ht="12.75" customHeight="1">
       <c r="A111" s="33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D111" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E111" s="11">
         <v>80</v>
@@ -5444,10 +5447,10 @@
         <v>28</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H111" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
@@ -5455,16 +5458,16 @@
     </row>
     <row r="112" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A112" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D112" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E112" s="11">
         <v>77</v>
@@ -5473,26 +5476,26 @@
         <v>29</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I112" s="11"/>
       <c r="J112" s="11"/>
     </row>
     <row r="113" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A113" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D113" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E113" s="11">
         <v>75</v>
@@ -5501,59 +5504,59 @@
         <v>30</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I113" s="11"/>
       <c r="J113" s="11"/>
     </row>
     <row r="114" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A114" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D114" s="33" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E114" s="11">
         <v>85</v>
       </c>
       <c r="F114" s="11"/>
       <c r="G114" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I114" s="11"/>
       <c r="J114" s="11"/>
     </row>
     <row r="115" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A115" s="33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D115" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E115" s="11">
         <v>85</v>
       </c>
       <c r="F115" s="11"/>
       <c r="G115" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H115" s="15"/>
       <c r="I115" s="11"/>
@@ -5561,23 +5564,23 @@
     </row>
     <row r="116" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A116" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D116" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E116" s="6">
         <v>85</v>
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
@@ -5586,26 +5589,26 @@
     </row>
     <row r="117" spans="1:11" ht="12.75" customHeight="1">
       <c r="A117" s="33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D117" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E117" s="6">
         <v>85</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H117" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I117" s="15"/>
       <c r="J117" s="11"/>
@@ -5613,72 +5616,72 @@
     </row>
     <row r="118" spans="1:11" ht="12.75" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D118" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E118" s="6">
         <v>75</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H118" s="4"/>
       <c r="I118" s="6"/>
     </row>
     <row r="119" spans="1:11" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A119" s="33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D119" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E119" s="6">
         <v>75</v>
       </c>
       <c r="G119" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H119" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="J119" s="6"/>
     </row>
     <row r="120" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A120" s="37" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D120" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E120" s="6">
         <v>75</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
@@ -5686,161 +5689,161 @@
     </row>
     <row r="121" spans="1:11" ht="12.75" customHeight="1">
       <c r="A121" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D121" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E121" s="6">
         <v>75</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H121" s="4"/>
       <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:11" ht="12.75" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D122" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E122" s="6">
         <v>75</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H122" s="4"/>
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A123" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E123" s="11">
         <v>75</v>
       </c>
       <c r="F123" s="11"/>
       <c r="G123" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="H123" s="15" t="s">
         <v>340</v>
-      </c>
-      <c r="H123" s="15" t="s">
-        <v>341</v>
       </c>
       <c r="I123" s="11"/>
       <c r="J123" s="11"/>
     </row>
     <row r="124" spans="1:11" ht="12.75" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D124" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E124" s="6">
         <v>75</v>
       </c>
       <c r="G124" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H124" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:11" ht="12.75" customHeight="1">
       <c r="A125" s="33" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D125" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E125" s="6">
         <v>75</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H125" s="4"/>
       <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:11" ht="12.75" customHeight="1">
       <c r="A126" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D126" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E126" s="6">
         <v>70</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H126" s="4"/>
       <c r="I126" s="6"/>
     </row>
     <row r="127" spans="1:11" ht="12.75" customHeight="1">
       <c r="A127" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E127" s="11">
         <v>70</v>
       </c>
       <c r="F127" s="11"/>
       <c r="G127" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H127" s="15"/>
       <c r="I127" s="11"/>
@@ -5849,45 +5852,45 @@
     </row>
     <row r="128" spans="1:11" ht="12.75" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D128" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E128" s="6">
         <v>70</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H128" s="4"/>
       <c r="I128" s="6"/>
     </row>
     <row r="129" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A129" s="33" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D129" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E129" s="6">
         <v>70</v>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H129" s="4"/>
       <c r="I129" s="6"/>
@@ -5896,45 +5899,45 @@
     </row>
     <row r="130" spans="1:11" ht="12.75" customHeight="1">
       <c r="A130" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D130" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E130" s="6">
         <v>70</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H130" s="4"/>
       <c r="I130" s="6"/>
     </row>
     <row r="131" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A131" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D131" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E131" s="6">
         <v>70</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H131" s="4"/>
       <c r="I131" s="6"/>
@@ -5943,26 +5946,26 @@
     </row>
     <row r="132" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A132" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>421</v>
-      </c>
       <c r="C132" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D132" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E132" s="6">
         <v>70</v>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H132" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
@@ -5970,86 +5973,86 @@
     </row>
     <row r="133" spans="1:11" ht="12.75" customHeight="1">
       <c r="A133" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D133" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E133" s="6">
         <v>65</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H133" s="4"/>
       <c r="I133" s="6"/>
     </row>
     <row r="134" spans="1:11" ht="12.75" customHeight="1">
       <c r="A134" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D134" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E134" s="6">
         <v>60</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H134" s="4"/>
       <c r="I134" s="6"/>
     </row>
     <row r="135" spans="1:11" ht="12.75" customHeight="1">
       <c r="A135" s="35" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
       <c r="G135" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:11" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A136" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
       <c r="G136" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H136" s="22"/>
       <c r="I136" s="22"/>
@@ -6057,42 +6060,42 @@
     </row>
     <row r="137" spans="1:11" ht="12.75" customHeight="1">
       <c r="A137" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="B137" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="B137" s="12" t="s">
-        <v>307</v>
-      </c>
       <c r="C137" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
       <c r="G137" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
     </row>
     <row r="138" spans="1:11" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A138" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
       <c r="G138" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H138" s="24"/>
       <c r="I138" s="24"/>
@@ -6100,63 +6103,63 @@
     </row>
     <row r="139" spans="1:11" ht="12.75" customHeight="1">
       <c r="A139" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
       <c r="G139" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
     </row>
     <row r="140" spans="1:11" ht="12.75" customHeight="1">
       <c r="A140" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
     </row>
     <row r="141" spans="1:11" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A141" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
       <c r="G141" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H141" s="22"/>
       <c r="I141" s="22"/>
@@ -6164,16 +6167,16 @@
     </row>
     <row r="142" spans="1:11" ht="12.75" customHeight="1">
       <c r="A142" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
@@ -6183,16 +6186,16 @@
     </row>
     <row r="143" spans="1:11" ht="12.75" customHeight="1">
       <c r="A143" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
@@ -6202,13 +6205,13 @@
     </row>
     <row r="144" spans="1:11" ht="12.75" customHeight="1">
       <c r="A144" s="35" t="s">
+        <v>569</v>
+      </c>
+      <c r="B144" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="B144" s="12" t="s">
-        <v>571</v>
-      </c>
       <c r="C144" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D144" s="35"/>
       <c r="E144" s="10"/>
@@ -6219,16 +6222,16 @@
     </row>
     <row r="145" spans="1:9" ht="12.75" customHeight="1">
       <c r="A145" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="B145" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="B145" s="12" t="s">
-        <v>392</v>
-      </c>
       <c r="C145" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
@@ -6238,16 +6241,16 @@
     </row>
     <row r="146" spans="1:9" ht="12.75" customHeight="1">
       <c r="A146" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="B146" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="B146" s="12" t="s">
-        <v>362</v>
-      </c>
       <c r="C146" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
@@ -6257,16 +6260,16 @@
     </row>
     <row r="147" spans="1:9" ht="12.75" customHeight="1">
       <c r="A147" s="35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
@@ -6276,16 +6279,16 @@
     </row>
     <row r="148" spans="1:9" ht="12.75" customHeight="1">
       <c r="A148" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
@@ -6295,16 +6298,16 @@
     </row>
     <row r="149" spans="1:9" ht="12.75" customHeight="1">
       <c r="A149" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="B149" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="B149" s="12" t="s">
-        <v>394</v>
-      </c>
       <c r="C149" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
@@ -6314,16 +6317,16 @@
     </row>
     <row r="150" spans="1:9" ht="12.75" customHeight="1">
       <c r="A150" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="B150" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="B150" s="12" t="s">
-        <v>396</v>
-      </c>
       <c r="C150" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
@@ -6333,16 +6336,16 @@
     </row>
     <row r="151" spans="1:9" ht="12.75" customHeight="1">
       <c r="A151" s="35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
@@ -6352,13 +6355,13 @@
     </row>
     <row r="152" spans="1:9" ht="12.75" customHeight="1">
       <c r="A152" s="35" t="s">
+        <v>571</v>
+      </c>
+      <c r="B152" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="B152" s="12" t="s">
-        <v>573</v>
-      </c>
       <c r="C152" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D152" s="35"/>
       <c r="E152" s="10"/>
@@ -6369,13 +6372,13 @@
     </row>
     <row r="153" spans="1:9" ht="12.75" customHeight="1">
       <c r="A153" s="35" t="s">
+        <v>573</v>
+      </c>
+      <c r="B153" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="B153" s="12" t="s">
-        <v>575</v>
-      </c>
       <c r="C153" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D153" s="35"/>
       <c r="E153" s="10"/>
@@ -6386,13 +6389,13 @@
     </row>
     <row r="154" spans="1:9" ht="12.75" customHeight="1">
       <c r="A154" s="35" t="s">
+        <v>575</v>
+      </c>
+      <c r="B154" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="B154" s="12" t="s">
-        <v>577</v>
-      </c>
       <c r="C154" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D154" s="35"/>
       <c r="E154" s="10"/>
@@ -6403,16 +6406,16 @@
     </row>
     <row r="155" spans="1:9" ht="12.75" customHeight="1">
       <c r="A155" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="B155" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="B155" s="12" t="s">
-        <v>399</v>
-      </c>
       <c r="C155" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
@@ -6422,13 +6425,13 @@
     </row>
     <row r="156" spans="1:9" ht="12.75" customHeight="1">
       <c r="A156" s="35" t="s">
+        <v>577</v>
+      </c>
+      <c r="B156" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="B156" s="12" t="s">
-        <v>579</v>
-      </c>
       <c r="C156" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D156" s="35"/>
       <c r="E156" s="10"/>
@@ -6439,16 +6442,16 @@
     </row>
     <row r="157" spans="1:9" ht="12.75" customHeight="1">
       <c r="A157" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="B157" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="B157" s="12" t="s">
-        <v>401</v>
-      </c>
       <c r="C157" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
@@ -6458,13 +6461,13 @@
     </row>
     <row r="158" spans="1:9" ht="12.75" customHeight="1">
       <c r="A158" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="B158" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="B158" s="12" t="s">
-        <v>581</v>
-      </c>
       <c r="C158" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D158" s="35"/>
       <c r="E158" s="10"/>
@@ -6475,16 +6478,16 @@
     </row>
     <row r="159" spans="1:9" ht="12.75" customHeight="1">
       <c r="A159" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="B159" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="B159" s="12" t="s">
-        <v>403</v>
-      </c>
       <c r="C159" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
@@ -6494,16 +6497,16 @@
     </row>
     <row r="160" spans="1:9" ht="12.75" customHeight="1">
       <c r="A160" s="35" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
@@ -6513,16 +6516,16 @@
     </row>
     <row r="161" spans="1:10" ht="12.75" customHeight="1">
       <c r="A161" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="B161" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="B161" s="12" t="s">
-        <v>405</v>
-      </c>
       <c r="C161" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
@@ -6532,16 +6535,16 @@
     </row>
     <row r="162" spans="1:10" ht="12.75" customHeight="1">
       <c r="A162" s="35" t="s">
+        <v>509</v>
+      </c>
+      <c r="B162" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="B162" s="12" t="s">
-        <v>511</v>
-      </c>
       <c r="C162" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
@@ -6551,16 +6554,16 @@
     </row>
     <row r="163" spans="1:10" ht="12.75" customHeight="1">
       <c r="A163" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="B163" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="B163" s="12" t="s">
-        <v>372</v>
-      </c>
       <c r="C163" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
@@ -6570,16 +6573,16 @@
     </row>
     <row r="164" spans="1:10" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A164" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
@@ -6590,16 +6593,16 @@
     </row>
     <row r="165" spans="1:10" s="32" customFormat="1" ht="12.75" customHeight="1">
       <c r="A165" s="35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E165" s="30"/>
       <c r="F165" s="30"/>
@@ -6610,16 +6613,16 @@
     </row>
     <row r="166" spans="1:10" ht="12.75" customHeight="1">
       <c r="A166" s="35" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
@@ -6629,16 +6632,16 @@
     </row>
     <row r="167" spans="1:10" ht="12.75" customHeight="1">
       <c r="A167" s="35" t="s">
+        <v>567</v>
+      </c>
+      <c r="B167" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="B167" s="12" t="s">
-        <v>569</v>
-      </c>
       <c r="C167" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
@@ -6648,16 +6651,16 @@
     </row>
     <row r="168" spans="1:10" ht="12.75" customHeight="1">
       <c r="A168" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
@@ -6667,16 +6670,16 @@
     </row>
     <row r="169" spans="1:10" ht="12.75" customHeight="1">
       <c r="A169" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B169" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="B169" s="12" t="s">
-        <v>442</v>
-      </c>
       <c r="C169" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
@@ -6686,13 +6689,13 @@
     </row>
     <row r="170" spans="1:10" ht="12.75" customHeight="1">
       <c r="A170" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B170" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="B170" s="12" t="s">
-        <v>583</v>
-      </c>
       <c r="C170" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D170" s="35"/>
       <c r="E170" s="10"/>
@@ -6703,16 +6706,16 @@
     </row>
     <row r="171" spans="1:10" ht="12.75" customHeight="1">
       <c r="A171" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="B171" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="B171" s="12" t="s">
-        <v>519</v>
-      </c>
       <c r="C171" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
@@ -6722,16 +6725,16 @@
     </row>
     <row r="172" spans="1:10" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A172" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
@@ -6742,13 +6745,13 @@
     </row>
     <row r="173" spans="1:10" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A173" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="B173" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="B173" s="12" t="s">
-        <v>585</v>
-      </c>
       <c r="C173" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D173" s="35"/>
       <c r="E173" s="10"/>
@@ -6761,7 +6764,7 @@
     <row r="174" spans="1:10" ht="12.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="C174" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D174" s="12"/>
       <c r="G174" s="4"/>
@@ -6770,10 +6773,10 @@
     </row>
     <row r="175" spans="1:10" ht="12.75" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D175" s="12"/>
       <c r="G175" s="4"/>
@@ -6782,11 +6785,11 @@
     </row>
     <row r="176" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1">
       <c r="A176" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B176" s="13"/>
       <c r="C176" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D176" s="13"/>
       <c r="E176" s="20">
@@ -6796,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H176" s="20"/>
       <c r="I176" s="20"/>
@@ -6804,11 +6807,11 @@
     </row>
     <row r="177" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1">
       <c r="A177" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B177" s="13"/>
       <c r="C177" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D177" s="13"/>
       <c r="E177" s="20">
@@ -6822,10 +6825,10 @@
     </row>
     <row r="178" spans="1:10" ht="12.75" customHeight="1">
       <c r="A178" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E178" s="6">
         <v>85</v>
@@ -6834,17 +6837,17 @@
         <v>2</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H178" s="6"/>
       <c r="I178" s="6"/>
     </row>
     <row r="179" spans="1:10" ht="12.75" customHeight="1">
       <c r="A179" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E179" s="6">
         <v>85</v>
@@ -6853,65 +6856,65 @@
         <v>4</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H179" s="6"/>
       <c r="I179" s="6"/>
     </row>
     <row r="180" spans="1:10" ht="12.75" customHeight="1">
       <c r="A180" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E180" s="6">
         <v>85</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
     </row>
     <row r="181" spans="1:10" ht="12.75" customHeight="1">
       <c r="A181" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E181" s="6">
         <v>85</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
     </row>
     <row r="182" spans="1:10" ht="12.75" customHeight="1">
       <c r="A182" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E182" s="6">
         <v>85</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H182" s="6"/>
       <c r="I182" s="6"/>
     </row>
     <row r="183" spans="1:10" ht="12.75" customHeight="1">
       <c r="A183" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E183" s="6">
         <v>80</v>
@@ -6920,17 +6923,17 @@
         <v>5</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
     </row>
     <row r="184" spans="1:10" ht="12.75" customHeight="1">
       <c r="A184" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E184" s="6">
         <v>80</v>
@@ -6941,10 +6944,10 @@
     </row>
     <row r="185" spans="1:10" ht="12.75" customHeight="1">
       <c r="A185" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E185" s="6">
         <v>80</v>
@@ -6955,58 +6958,58 @@
     </row>
     <row r="186" spans="1:10" ht="12.75" customHeight="1">
       <c r="A186" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E186" s="6">
         <v>80</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
     </row>
     <row r="187" spans="1:10" ht="12.75" customHeight="1">
       <c r="A187" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E187" s="6">
         <v>80</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
     </row>
     <row r="188" spans="1:10" ht="12.75" customHeight="1">
       <c r="A188" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E188" s="6">
         <v>80</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
     </row>
     <row r="189" spans="1:10" ht="12.75" customHeight="1">
       <c r="A189" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E189" s="6">
         <v>75</v>
@@ -7017,10 +7020,10 @@
     </row>
     <row r="190" spans="1:10" ht="12.75" customHeight="1">
       <c r="A190" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E190" s="6">
         <v>75</v>
@@ -7029,33 +7032,33 @@
         <v>7</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
     </row>
     <row r="191" spans="1:10" ht="12.75" customHeight="1">
       <c r="A191" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E191" s="6">
         <v>75</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
     </row>
     <row r="192" spans="1:10" ht="12.75" customHeight="1">
       <c r="A192" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E192" s="6">
         <v>75</v>
@@ -7066,26 +7069,26 @@
     </row>
     <row r="193" spans="1:9" ht="12.75" customHeight="1">
       <c r="A193" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E193" s="6">
         <v>75</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
     </row>
     <row r="194" spans="1:9" ht="12.75" customHeight="1">
       <c r="A194" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E194" s="6">
         <v>75</v>
@@ -7096,10 +7099,10 @@
     </row>
     <row r="195" spans="1:9" ht="12.75" customHeight="1">
       <c r="A195" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E195" s="6">
         <v>75</v>
@@ -7113,10 +7116,10 @@
     </row>
     <row r="196" spans="1:9" ht="12.75" customHeight="1">
       <c r="A196" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E196" s="6">
         <v>75</v>
@@ -7125,17 +7128,17 @@
         <v>9</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
     </row>
     <row r="197" spans="1:9" ht="12.75" customHeight="1">
       <c r="A197" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E197" s="6">
         <v>75</v>
@@ -7149,26 +7152,26 @@
     </row>
     <row r="198" spans="1:9" ht="12.75" customHeight="1">
       <c r="A198" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E198" s="6">
         <v>70</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
     </row>
     <row r="199" spans="1:9" ht="12.75" customHeight="1">
       <c r="A199" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E199" s="6">
         <v>70</v>
@@ -7179,10 +7182,10 @@
     </row>
     <row r="200" spans="1:9" ht="12.75" customHeight="1">
       <c r="A200" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E200" s="6">
         <v>70</v>
@@ -7193,26 +7196,26 @@
     </row>
     <row r="201" spans="1:9" ht="12.75" customHeight="1">
       <c r="A201" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E201" s="6">
         <v>70</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H201" s="6"/>
       <c r="I201" s="6"/>
     </row>
     <row r="202" spans="1:9" ht="12.75" customHeight="1">
       <c r="A202" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E202" s="6">
         <v>70</v>
@@ -7223,10 +7226,10 @@
     </row>
     <row r="203" spans="1:9" ht="12.75" customHeight="1">
       <c r="A203" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E203" s="6">
         <v>70</v>
@@ -7237,42 +7240,42 @@
     </row>
     <row r="204" spans="1:9" ht="12.75" customHeight="1">
       <c r="A204" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E204" s="6">
         <v>70</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H204" s="6"/>
       <c r="I204" s="6"/>
     </row>
     <row r="205" spans="1:9" ht="12.75" customHeight="1">
       <c r="A205" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E205" s="6">
         <v>70</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H205" s="6"/>
       <c r="I205" s="6"/>
     </row>
     <row r="206" spans="1:9" ht="12.75" customHeight="1">
       <c r="A206" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E206" s="6">
         <v>70</v>
@@ -7283,10 +7286,10 @@
     </row>
     <row r="207" spans="1:9" ht="12.75" customHeight="1">
       <c r="A207" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E207" s="6">
         <v>70</v>
@@ -7297,58 +7300,58 @@
     </row>
     <row r="208" spans="1:9" ht="12.75" customHeight="1">
       <c r="A208" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E208" s="6">
         <v>70</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
     </row>
     <row r="209" spans="1:9" ht="12.75" customHeight="1">
       <c r="A209" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E209" s="6">
         <v>70</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H209" s="6"/>
       <c r="I209" s="6"/>
     </row>
     <row r="210" spans="1:9" ht="12.75" customHeight="1">
       <c r="A210" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E210" s="6">
         <v>65</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H210" s="6"/>
       <c r="I210" s="6"/>
     </row>
     <row r="211" spans="1:9" ht="12.75" customHeight="1">
       <c r="A211" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E211" s="6">
         <v>65</v>
@@ -7359,10 +7362,10 @@
     </row>
     <row r="212" spans="1:9" ht="12.75" customHeight="1">
       <c r="A212" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E212" s="6">
         <v>65</v>
@@ -7373,10 +7376,10 @@
     </row>
     <row r="213" spans="1:9" ht="12.75" customHeight="1">
       <c r="A213" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E213" s="6">
         <v>60</v>
@@ -7387,10 +7390,10 @@
     </row>
     <row r="214" spans="1:9" ht="12.75" customHeight="1">
       <c r="A214" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E214" s="6">
         <v>60</v>
@@ -7401,10 +7404,10 @@
     </row>
     <row r="215" spans="1:9" ht="12.75" customHeight="1">
       <c r="A215" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E215" s="6">
         <v>60</v>
@@ -7415,29 +7418,29 @@
     </row>
     <row r="216" spans="1:9" ht="12.75" customHeight="1">
       <c r="A216" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E216" s="6">
         <v>50</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H216" s="6"/>
       <c r="I216" s="6"/>
     </row>
     <row r="217" spans="1:9" ht="12.75" customHeight="1">
       <c r="A217" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="B217" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="B217" s="12" t="s">
-        <v>514</v>
-      </c>
       <c r="C217" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D217" s="12"/>
       <c r="G217" s="4"/>
@@ -7446,13 +7449,13 @@
     </row>
     <row r="218" spans="1:9" ht="12.75" customHeight="1">
       <c r="A218" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D218" s="12"/>
       <c r="E218" s="10"/>
@@ -7463,13 +7466,13 @@
     </row>
     <row r="219" spans="1:9" ht="12.75" customHeight="1">
       <c r="A219" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D219" s="12"/>
       <c r="E219" s="10"/>
@@ -7480,13 +7483,13 @@
     </row>
     <row r="220" spans="1:9" ht="12.75" customHeight="1">
       <c r="A220" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B220" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="B220" s="12" t="s">
-        <v>294</v>
-      </c>
       <c r="C220" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D220" s="12"/>
       <c r="E220" s="10"/>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="221" spans="1:9" ht="12.75" customHeight="1">
       <c r="C221" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="6"/>
@@ -7507,10 +7510,10 @@
     </row>
     <row r="222" spans="1:9" ht="12.75" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G222" s="4"/>
       <c r="H222" s="6"/>
@@ -7518,155 +7521,155 @@
     </row>
     <row r="223" spans="1:9" ht="12.75" customHeight="1">
       <c r="A223" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E223" s="6">
         <v>25</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H223" s="6"/>
       <c r="I223" s="6"/>
     </row>
     <row r="224" spans="1:9" ht="12.75" customHeight="1">
       <c r="A224" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E224" s="6">
         <v>20</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H224" s="6"/>
       <c r="I224" s="6"/>
     </row>
     <row r="225" spans="1:10" ht="12.75" customHeight="1">
       <c r="A225" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E225" s="6">
         <v>50</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H225" s="6"/>
       <c r="I225" s="6"/>
     </row>
     <row r="226" spans="1:10" ht="12.75" customHeight="1">
       <c r="A226" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E226" s="6">
         <v>50</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H226" s="6"/>
       <c r="I226" s="6"/>
     </row>
     <row r="227" spans="1:10" ht="12.75" customHeight="1">
       <c r="A227" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E227" s="6">
         <v>55</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H227" s="6"/>
       <c r="I227" s="6"/>
     </row>
     <row r="228" spans="1:10" ht="12.75" customHeight="1">
       <c r="A228" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E228" s="6">
         <v>35</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H228" s="6"/>
       <c r="I228" s="6"/>
     </row>
     <row r="229" spans="1:10" ht="12.75" customHeight="1">
       <c r="A229" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E229" s="6">
         <v>40</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H229" s="6"/>
       <c r="I229" s="6"/>
     </row>
     <row r="230" spans="1:10" ht="12.75" customHeight="1">
       <c r="A230" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E230" s="6">
         <v>25</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H230" s="6"/>
       <c r="I230" s="6"/>
     </row>
     <row r="231" spans="1:10" ht="12.75" customHeight="1">
       <c r="A231" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E231" s="6">
         <v>25</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H231" s="6"/>
       <c r="I231" s="6"/>
     </row>
     <row r="232" spans="1:10" ht="12.75" customHeight="1">
       <c r="A232" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B232" s="26"/>
       <c r="C232" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D232" s="26"/>
       <c r="E232" s="27">
@@ -7674,18 +7677,18 @@
       </c>
       <c r="F232" s="27"/>
       <c r="G232" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H232" s="6"/>
       <c r="I232" s="6"/>
     </row>
     <row r="233" spans="1:10" s="28" customFormat="1" ht="12.75" customHeight="1">
       <c r="A233" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B233" s="26"/>
       <c r="C233" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D233" s="26"/>
       <c r="E233" s="27">
@@ -7693,7 +7696,7 @@
       </c>
       <c r="F233" s="27"/>
       <c r="G233" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H233" s="27"/>
       <c r="I233" s="27"/>
@@ -7701,11 +7704,11 @@
     </row>
     <row r="234" spans="1:10" ht="12.75" customHeight="1">
       <c r="A234" s="26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B234" s="26"/>
       <c r="C234" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D234" s="26"/>
       <c r="E234" s="27">
@@ -7713,18 +7716,18 @@
       </c>
       <c r="F234" s="27"/>
       <c r="G234" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H234" s="6"/>
       <c r="I234" s="6"/>
     </row>
     <row r="235" spans="1:10" ht="12.75" customHeight="1">
       <c r="A235" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B235" s="26"/>
       <c r="C235" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D235" s="26"/>
       <c r="E235" s="27">
@@ -7734,18 +7737,18 @@
         <v>8</v>
       </c>
       <c r="G235" s="26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H235" s="6"/>
       <c r="I235" s="6"/>
     </row>
     <row r="236" spans="1:10" ht="12.75" customHeight="1">
       <c r="A236" s="26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B236" s="26"/>
       <c r="C236" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D236" s="26"/>
       <c r="E236" s="27">
@@ -7753,14 +7756,14 @@
       </c>
       <c r="F236" s="27"/>
       <c r="G236" s="26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H236" s="6"/>
       <c r="I236" s="6"/>
     </row>
     <row r="237" spans="1:10" ht="12.75" customHeight="1">
       <c r="C237" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G237" s="4"/>
       <c r="H237" s="6"/>
@@ -7768,10 +7771,10 @@
     </row>
     <row r="238" spans="1:10" ht="12.75" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="6"/>
@@ -7779,106 +7782,106 @@
     </row>
     <row r="239" spans="1:10" ht="12.75" customHeight="1">
       <c r="A239" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E239" s="6">
         <v>50</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H239" s="6"/>
       <c r="I239" s="6"/>
     </row>
     <row r="240" spans="1:10" ht="12.75" customHeight="1">
       <c r="A240" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E240" s="6">
         <v>45</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H240" s="6"/>
       <c r="I240" s="6"/>
     </row>
     <row r="241" spans="1:11" ht="12.75" customHeight="1">
       <c r="A241" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E241" s="6">
         <v>40</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H241" s="6"/>
       <c r="I241" s="6"/>
     </row>
     <row r="242" spans="1:11" ht="12.75" customHeight="1">
       <c r="A242" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E242" s="6">
         <v>30</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H242" s="6"/>
       <c r="I242" s="6"/>
     </row>
     <row r="243" spans="1:11" ht="12.75" customHeight="1">
       <c r="A243" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E243" s="6">
         <v>30</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H243" s="6"/>
       <c r="I243" s="6"/>
     </row>
     <row r="244" spans="1:11" ht="12.75" customHeight="1">
       <c r="A244" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E244" s="6">
         <v>15</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H244" s="4"/>
       <c r="I244" s="6"/>
     </row>
     <row r="245" spans="1:11" ht="12.75" customHeight="1">
       <c r="A245" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E245" s="6">
         <v>35</v>
@@ -7889,10 +7892,10 @@
     </row>
     <row r="246" spans="1:11" ht="12.75" customHeight="1">
       <c r="A246" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E246" s="6">
         <v>45</v>
@@ -7903,26 +7906,26 @@
     </row>
     <row r="247" spans="1:11" ht="12.75" customHeight="1">
       <c r="A247" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E247" s="6">
         <v>25</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H247" s="6"/>
       <c r="I247" s="6"/>
     </row>
     <row r="248" spans="1:11" s="28" customFormat="1" ht="12.75" customHeight="1">
       <c r="A248" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B248" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C248" s="26"/>
       <c r="D248" s="26"/>
@@ -7931,7 +7934,7 @@
       </c>
       <c r="F248" s="27"/>
       <c r="G248" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H248" s="26"/>
       <c r="I248" s="27"/>
@@ -7939,10 +7942,10 @@
     </row>
     <row r="249" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1">
       <c r="A249" s="26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B249" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C249" s="26"/>
       <c r="D249" s="26"/>
@@ -7953,10 +7956,10 @@
         <v>16</v>
       </c>
       <c r="G249" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H249" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I249" s="27"/>
       <c r="J249" s="27"/>
@@ -7964,13 +7967,13 @@
     </row>
     <row r="250" spans="1:11" ht="12.75" customHeight="1">
       <c r="A250" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E250" s="6">
         <v>30</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H250" s="6"/>
       <c r="I250" s="6"/>
@@ -8048,7 +8051,7 @@
     <hyperlink ref="A46" r:id="rId59"/>
     <hyperlink ref="A24" r:id="rId60"/>
     <hyperlink ref="A25" r:id="rId61"/>
-    <hyperlink ref="A9" r:id="rId62"/>
+    <hyperlink ref="A9" r:id="rId62" display="AQ"/>
     <hyperlink ref="A112" r:id="rId63"/>
     <hyperlink ref="A6" r:id="rId64"/>
     <hyperlink ref="A113" r:id="rId65"/>

--- a/gourmet/restaurant_list/sophia_test_data.xlsx
+++ b/gourmet/restaurant_list/sophia_test_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="611">
   <si>
     <t>Sat   8:00 AM- 3:00 PM</t>
   </si>
@@ -1313,9 +1313,6 @@
     <t>Zazie*</t>
   </si>
   <si>
-    <t>Dottie’s True Blue Café*</t>
-  </si>
-  <si>
     <t xml:space="preserve">*Open for weekday breakfast </t>
   </si>
   <si>
@@ -2211,6 +2208,9 @@
   </si>
   <si>
     <t>AQ Restaurant &amp; Bar</t>
+  </si>
+  <si>
+    <t>Dottie's True Blue Café*</t>
   </si>
 </sst>
 </file>
@@ -2822,7 +2822,7 @@
   <dimension ref="A1:K251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2842,22 +2842,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>79</v>
@@ -2867,22 +2867,22 @@
       </c>
       <c r="I1" s="43"/>
       <c r="J1" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E2" s="6">
         <v>90</v>
@@ -2900,7 +2900,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K2"/>
     </row>
@@ -2909,13 +2909,13 @@
         <v>110</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E3" s="6">
         <v>90</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="4" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E4" s="11">
         <v>90</v>
@@ -2973,10 +2973,10 @@
         <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E5" s="11">
         <v>95</v>
@@ -2988,7 +2988,7 @@
         <v>314</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>27</v>
@@ -3004,10 +3004,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E6" s="11">
         <v>95</v>
@@ -3016,7 +3016,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>20</v>
@@ -3035,10 +3035,10 @@
         <v>248</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E7" s="11">
         <v>95</v>
@@ -3060,16 +3060,16 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>259</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E8" s="11">
         <v>90</v>
@@ -3091,16 +3091,16 @@
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="40" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E9" s="39">
         <v>95</v>
@@ -3109,13 +3109,13 @@
         <v>4</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J9" s="34"/>
     </row>
@@ -3127,10 +3127,10 @@
         <v>313</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E10" s="11">
         <v>85</v>
@@ -3139,13 +3139,13 @@
         <v>8</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="17"/>
@@ -3158,10 +3158,10 @@
         <v>50</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E11" s="11">
         <v>85</v>
@@ -3170,10 +3170,10 @@
         <v>10</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>1</v>
@@ -3188,10 +3188,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E12" s="11">
         <v>85</v>
@@ -3200,7 +3200,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>15</v>
@@ -3218,10 +3218,10 @@
         <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E13" s="11">
         <v>92</v>
@@ -3233,7 +3233,7 @@
         <v>241</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>242</v>
@@ -3242,16 +3242,16 @@
     </row>
     <row r="14" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A14" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>350</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E14" s="11">
         <v>85</v>
@@ -3260,16 +3260,16 @@
         <v>13</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H14" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>386</v>
-      </c>
       <c r="J14" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
@@ -3280,10 +3280,10 @@
         <v>320</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E15" s="6">
         <v>85</v>
@@ -3295,7 +3295,7 @@
         <v>329</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>1</v>
@@ -3311,10 +3311,10 @@
         <v>213</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E16" s="6">
         <v>85</v>
@@ -3331,16 +3331,16 @@
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>331</v>
+        <v>610</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>217</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E17" s="6">
         <v>80</v>
@@ -3355,21 +3355,21 @@
         <v>8</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1">
       <c r="A18" s="33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E18" s="6">
         <v>80</v>
@@ -3384,7 +3384,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
@@ -3395,10 +3395,10 @@
         <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E19" s="11">
         <v>80</v>
@@ -3423,10 +3423,10 @@
         <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E20" s="11">
         <v>80</v>
@@ -3443,18 +3443,18 @@
       </c>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="21" spans="1:11" s="17" customFormat="1" ht="11" customHeight="1">
       <c r="A21" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>216</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E21" s="6">
         <v>75</v>
@@ -3470,22 +3470,22 @@
         <v>1</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K21"/>
     </row>
     <row r="22" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A22" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E22" s="6">
         <v>70</v>
@@ -3501,62 +3501,62 @@
         <v>10</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K22"/>
     </row>
     <row r="23" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I23" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>498</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>499</v>
       </c>
       <c r="K23"/>
     </row>
     <row r="24" spans="1:11" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A24" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>383</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H24" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="J24" s="10"/>
     </row>
@@ -3565,18 +3565,18 @@
         <v>330</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>31</v>
@@ -3585,16 +3585,16 @@
         <v>32</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="10"/>
@@ -3607,7 +3607,7 @@
       <c r="A27" s="15"/>
       <c r="B27" s="12"/>
       <c r="C27" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="10"/>
@@ -3618,12 +3618,10 @@
     </row>
     <row r="28" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A28" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="4" t="s">
-        <v>608</v>
-      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="15"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -3634,11 +3632,11 @@
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1">
       <c r="A29" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="10"/>
@@ -3649,11 +3647,11 @@
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="10"/>
@@ -3664,11 +3662,11 @@
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1">
       <c r="A31" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="10"/>
@@ -3679,11 +3677,11 @@
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1">
       <c r="A32" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="10"/>
@@ -3694,11 +3692,11 @@
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1">
       <c r="A33" s="15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="10"/>
@@ -3709,11 +3707,11 @@
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1">
       <c r="A34" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="10"/>
@@ -3724,11 +3722,11 @@
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1">
       <c r="A35" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="10"/>
@@ -3739,11 +3737,11 @@
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1">
       <c r="A36" s="15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="10"/>
@@ -3754,11 +3752,11 @@
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1">
       <c r="A37" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="10"/>
@@ -3769,11 +3767,11 @@
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1">
       <c r="A38" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="10"/>
@@ -3784,11 +3782,11 @@
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1">
       <c r="A39" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="10"/>
@@ -3799,11 +3797,11 @@
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1">
       <c r="A40" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="10"/>
@@ -3814,11 +3812,11 @@
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="10"/>
@@ -3829,11 +3827,11 @@
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="10"/>
@@ -3846,7 +3844,7 @@
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="10"/>
@@ -3860,9 +3858,6 @@
         <v>33</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="4" t="s">
-        <v>608</v>
-      </c>
       <c r="D44" s="5"/>
       <c r="E44" s="7"/>
       <c r="F44" s="14"/>
@@ -3872,13 +3867,13 @@
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1">
       <c r="A45" s="33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E45" s="11">
         <v>95</v>
@@ -3887,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -3897,10 +3892,10 @@
         <v>244</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="11">
@@ -3910,20 +3905,20 @@
         <v>2</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1">
       <c r="A47" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E47" s="6">
         <v>90</v>
@@ -3932,20 +3927,20 @@
         <v>3</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A48" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>506</v>
-      </c>
       <c r="C48" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="11">
@@ -3955,7 +3950,7 @@
         <v>4</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
@@ -3969,7 +3964,7 @@
         <v>39</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E49" s="6">
         <v>85</v>
@@ -3986,7 +3981,7 @@
         <v>222</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E50" s="6">
         <v>80</v>
@@ -4005,7 +4000,7 @@
         <v>221</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E51" s="6">
         <v>80</v>
@@ -4022,7 +4017,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D52" s="15"/>
       <c r="G52" s="4"/>
@@ -4031,73 +4026,73 @@
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1">
       <c r="A53" s="33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="6">
         <v>60</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1">
       <c r="A54" s="40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="6">
         <v>75</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1">
       <c r="A55" s="40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="6">
         <v>80</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="11">
@@ -4105,20 +4100,20 @@
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1">
       <c r="A57" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="B57" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>597</v>
-      </c>
       <c r="C57" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="11">
@@ -4126,20 +4121,20 @@
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1">
       <c r="A58" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>593</v>
-      </c>
       <c r="C58" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="10"/>
@@ -4150,13 +4145,13 @@
     </row>
     <row r="59" spans="1:11" ht="12.75" customHeight="1">
       <c r="A59" s="35" t="s">
+        <v>593</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>595</v>
-      </c>
       <c r="C59" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="10"/>
@@ -4167,13 +4162,13 @@
     </row>
     <row r="60" spans="1:11" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A60" s="35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="10"/>
@@ -4187,7 +4182,7 @@
       <c r="A61" s="35"/>
       <c r="B61" s="12"/>
       <c r="C61" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="10"/>
@@ -4202,9 +4197,7 @@
         <v>36</v>
       </c>
       <c r="B62" s="3"/>
-      <c r="C62" s="4" t="s">
-        <v>608</v>
-      </c>
+      <c r="C62" s="4"/>
       <c r="D62" s="3"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -4221,7 +4214,7 @@
         <v>78</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E63" s="11">
         <v>90</v>
@@ -4240,10 +4233,10 @@
         <v>255</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="11">
@@ -4253,7 +4246,7 @@
         <v>4</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
@@ -4268,7 +4261,7 @@
         <v>39</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E65" s="11">
         <v>85</v>
@@ -4290,7 +4283,7 @@
         <v>238</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="11">
@@ -4300,7 +4293,7 @@
         <v>2</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -4315,17 +4308,17 @@
         <v>316</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="11">
         <v>83</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
@@ -4333,13 +4326,13 @@
     </row>
     <row r="68" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A68" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="B68" s="15" t="s">
-        <v>373</v>
-      </c>
       <c r="C68" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="11">
@@ -4347,7 +4340,7 @@
       </c>
       <c r="F68" s="11"/>
       <c r="G68" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
@@ -4358,10 +4351,10 @@
         <v>94</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="11">
@@ -4371,7 +4364,7 @@
         <v>5</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
@@ -4386,7 +4379,7 @@
         <v>37</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="11">
@@ -4405,13 +4398,13 @@
     </row>
     <row r="71" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A71" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B71" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>369</v>
-      </c>
       <c r="C71" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="11">
@@ -4421,7 +4414,7 @@
         <v>6</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
@@ -4435,7 +4428,7 @@
         <v>40</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="11">
@@ -4445,7 +4438,7 @@
         <v>8</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
@@ -4460,7 +4453,7 @@
         <v>231</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="11">
@@ -4468,7 +4461,7 @@
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
@@ -4483,7 +4476,7 @@
         <v>38</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E74" s="11">
         <v>65</v>
@@ -4505,7 +4498,7 @@
         <v>44</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="10"/>
@@ -4524,7 +4517,7 @@
         <v>42</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="10"/>
@@ -4541,7 +4534,7 @@
         <v>41</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="10"/>
@@ -4560,7 +4553,7 @@
         <v>43</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="10"/>
@@ -4571,7 +4564,7 @@
     </row>
     <row r="79" spans="1:11" ht="12.75" customHeight="1">
       <c r="C79" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="6"/>
@@ -4579,20 +4572,17 @@
     </row>
     <row r="80" spans="1:11" ht="12.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>608</v>
-      </c>
       <c r="D80" s="5"/>
       <c r="E80" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="F80" s="9" t="s">
         <v>602</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>603</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>269</v>
@@ -4610,7 +4600,7 @@
         <v>53</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D81" s="40" t="s">
         <v>110</v>
@@ -4622,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H81" s="15"/>
       <c r="I81" s="11"/>
@@ -4631,16 +4621,16 @@
     </row>
     <row r="82" spans="1:11" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A82" s="33" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>239</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E82" s="11">
         <v>90</v>
@@ -4664,10 +4654,10 @@
         <v>209</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E83" s="6">
         <v>85</v>
@@ -4676,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="6"/>
@@ -4691,10 +4681,10 @@
         <v>214</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E84" s="6">
         <v>90</v>
@@ -4718,36 +4708,36 @@
         <v>258</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E85" s="11">
         <v>90</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="H85" s="13" t="s">
         <v>552</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>553</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="29"/>
     </row>
     <row r="86" spans="1:11" ht="12.75" customHeight="1">
       <c r="A86" s="33" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>290</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E86" s="11">
         <v>92</v>
@@ -4767,16 +4757,16 @@
     </row>
     <row r="87" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A87" s="33" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E87" s="11">
         <v>85</v>
@@ -4785,26 +4775,26 @@
         <v>6</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A88" s="33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B88" s="15" t="s">
         <v>249</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E88" s="11">
         <v>85</v>
@@ -4813,26 +4803,26 @@
         <v>8</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A89" s="33" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>215</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E89" s="6">
         <v>90</v>
@@ -4841,7 +4831,7 @@
         <v>9</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="6"/>
@@ -4850,16 +4840,16 @@
     </row>
     <row r="90" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A90" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E90" s="6">
         <v>95</v>
@@ -4868,10 +4858,10 @@
         <v>10</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
@@ -4879,16 +4869,16 @@
     </row>
     <row r="91" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A91" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>438</v>
-      </c>
       <c r="C91" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E91" s="6">
         <v>90</v>
@@ -4897,36 +4887,36 @@
         <v>7</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="29"/>
     </row>
     <row r="92" spans="1:11" s="32" customFormat="1" ht="12.75" customHeight="1">
       <c r="A92" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="B92" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="B92" s="15" t="s">
-        <v>444</v>
-      </c>
       <c r="C92" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E92" s="11">
         <v>87</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="H92" s="15" t="s">
         <v>559</v>
-      </c>
-      <c r="H92" s="15" t="s">
-        <v>560</v>
       </c>
       <c r="I92" s="31"/>
       <c r="J92" s="31"/>
@@ -4936,13 +4926,13 @@
         <v>325</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E93" s="11">
         <v>85</v>
@@ -4951,26 +4941,26 @@
         <v>11</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A94" s="33" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B94" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E94" s="11">
         <v>85</v>
@@ -4989,16 +4979,16 @@
     </row>
     <row r="95" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A95" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B95" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E95" s="6">
         <v>85</v>
@@ -5024,10 +5014,10 @@
         <v>69</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E96" s="11">
         <v>85</v>
@@ -5046,42 +5036,42 @@
     </row>
     <row r="97" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A97" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="B97" s="15" t="s">
         <v>554</v>
       </c>
-      <c r="B97" s="15" t="s">
-        <v>555</v>
-      </c>
       <c r="C97" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E97" s="11">
         <v>85</v>
       </c>
       <c r="F97" s="11"/>
       <c r="G97" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="H97" s="15" t="s">
         <v>556</v>
-      </c>
-      <c r="H97" s="15" t="s">
-        <v>557</v>
       </c>
       <c r="I97" s="11"/>
       <c r="J97" s="11"/>
     </row>
     <row r="98" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A98" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B98" s="15" t="s">
         <v>279</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E98" s="11">
         <v>85</v>
@@ -5098,16 +5088,16 @@
     </row>
     <row r="99" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A99" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E99" s="6">
         <v>85</v>
@@ -5116,7 +5106,7 @@
         <v>16</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>273</v>
@@ -5133,10 +5123,10 @@
         <v>313</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E100" s="6">
         <v>85</v>
@@ -5145,10 +5135,10 @@
         <v>17</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J100" s="11"/>
     </row>
@@ -5160,10 +5150,10 @@
         <v>248</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E101" s="11">
         <v>85</v>
@@ -5183,16 +5173,16 @@
     </row>
     <row r="102" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A102" s="33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>259</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E102" s="11">
         <v>83</v>
@@ -5212,16 +5202,16 @@
     </row>
     <row r="103" spans="1:11" ht="12.75" customHeight="1">
       <c r="A103" s="40" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>61</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E103" s="11">
         <v>80</v>
@@ -5245,10 +5235,10 @@
         <v>50</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E104" s="11">
         <v>82</v>
@@ -5274,10 +5264,10 @@
         <v>320</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E105" s="6">
         <v>85</v>
@@ -5286,10 +5276,10 @@
         <v>22</v>
       </c>
       <c r="G105" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H105" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="H105" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="6"/>
@@ -5303,7 +5293,7 @@
         <v>203</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D106" s="37" t="s">
         <v>101</v>
@@ -5315,7 +5305,7 @@
         <v>23</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="6"/>
@@ -5328,10 +5318,10 @@
         <v>14</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E107" s="6">
         <v>80</v>
@@ -5347,16 +5337,16 @@
     </row>
     <row r="108" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A108" s="33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E108" s="11">
         <v>85</v>
@@ -5375,16 +5365,16 @@
     </row>
     <row r="109" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A109" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>375</v>
-      </c>
       <c r="C109" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D109" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E109" s="6">
         <v>78</v>
@@ -5393,10 +5383,10 @@
         <v>26</v>
       </c>
       <c r="G109" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H109" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>377</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
@@ -5410,10 +5400,10 @@
         <v>202</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E110" s="6">
         <v>80</v>
@@ -5429,16 +5419,16 @@
     </row>
     <row r="111" spans="1:11" ht="12.75" customHeight="1">
       <c r="A111" s="33" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D111" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E111" s="11">
         <v>80</v>
@@ -5447,7 +5437,7 @@
         <v>28</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H111" s="15" t="s">
         <v>324</v>
@@ -5464,10 +5454,10 @@
         <v>66</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D112" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E112" s="11">
         <v>77</v>
@@ -5492,10 +5482,10 @@
         <v>70</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D113" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E113" s="11">
         <v>75</v>
@@ -5514,42 +5504,42 @@
     </row>
     <row r="114" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A114" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D114" s="33" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E114" s="11">
         <v>85</v>
       </c>
       <c r="F114" s="11"/>
       <c r="G114" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I114" s="11"/>
       <c r="J114" s="11"/>
     </row>
     <row r="115" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A115" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>301</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D115" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E115" s="11">
         <v>85</v>
@@ -5570,10 +5560,10 @@
         <v>59</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D116" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E116" s="6">
         <v>85</v>
@@ -5589,23 +5579,23 @@
     </row>
     <row r="117" spans="1:11" ht="12.75" customHeight="1">
       <c r="A117" s="33" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>322</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D117" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E117" s="6">
         <v>85</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H117" s="15" t="s">
         <v>323</v>
@@ -5622,10 +5612,10 @@
         <v>228</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D118" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E118" s="6">
         <v>75</v>
@@ -5638,16 +5628,16 @@
     </row>
     <row r="119" spans="1:11" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A119" s="33" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D119" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E119" s="6">
         <v>75</v>
@@ -5662,16 +5652,16 @@
     </row>
     <row r="120" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A120" s="37" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D120" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E120" s="6">
         <v>75</v>
@@ -5695,10 +5685,10 @@
         <v>11</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D121" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E121" s="6">
         <v>75</v>
@@ -5717,10 +5707,10 @@
         <v>208</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D122" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E122" s="6">
         <v>75</v>
@@ -5733,26 +5723,26 @@
     </row>
     <row r="123" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A123" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E123" s="11">
         <v>75</v>
       </c>
       <c r="F123" s="11"/>
       <c r="G123" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="H123" s="15" t="s">
         <v>339</v>
-      </c>
-      <c r="H123" s="15" t="s">
-        <v>340</v>
       </c>
       <c r="I123" s="11"/>
       <c r="J123" s="11"/>
@@ -5765,10 +5755,10 @@
         <v>288</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D124" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E124" s="6">
         <v>75</v>
@@ -5783,22 +5773,22 @@
     </row>
     <row r="125" spans="1:11" ht="12.75" customHeight="1">
       <c r="A125" s="33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D125" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E125" s="6">
         <v>75</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H125" s="4"/>
       <c r="I125" s="6"/>
@@ -5811,32 +5801,32 @@
         <v>204</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D126" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E126" s="6">
         <v>70</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H126" s="4"/>
       <c r="I126" s="6"/>
     </row>
     <row r="127" spans="1:11" ht="12.75" customHeight="1">
       <c r="A127" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B127" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E127" s="11">
         <v>70</v>
@@ -5858,10 +5848,10 @@
         <v>207</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D128" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E128" s="6">
         <v>70</v>
@@ -5874,16 +5864,16 @@
     </row>
     <row r="129" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A129" s="33" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D129" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E129" s="6">
         <v>70</v>
@@ -5899,16 +5889,16 @@
     </row>
     <row r="130" spans="1:11" ht="12.75" customHeight="1">
       <c r="A130" s="33" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>211</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D130" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E130" s="6">
         <v>70</v>
@@ -5927,10 +5917,10 @@
         <v>212</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D131" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E131" s="6">
         <v>70</v>
@@ -5946,26 +5936,26 @@
     </row>
     <row r="132" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A132" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="C132" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D132" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E132" s="6">
         <v>70</v>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="H132" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
@@ -5973,16 +5963,16 @@
     </row>
     <row r="133" spans="1:11" ht="12.75" customHeight="1">
       <c r="A133" s="33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D133" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E133" s="6">
         <v>65</v>
@@ -6001,10 +5991,10 @@
         <v>205</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D134" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E134" s="6">
         <v>60</v>
@@ -6017,16 +6007,16 @@
     </row>
     <row r="135" spans="1:11" ht="12.75" customHeight="1">
       <c r="A135" s="35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
@@ -6038,16 +6028,16 @@
     </row>
     <row r="136" spans="1:11" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A136" s="35" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B136" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
@@ -6066,10 +6056,10 @@
         <v>306</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
@@ -6081,16 +6071,16 @@
     </row>
     <row r="138" spans="1:11" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A138" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B138" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
@@ -6103,16 +6093,16 @@
     </row>
     <row r="139" spans="1:11" ht="12.75" customHeight="1">
       <c r="A139" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
@@ -6124,16 +6114,16 @@
     </row>
     <row r="140" spans="1:11" ht="12.75" customHeight="1">
       <c r="A140" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
@@ -6151,10 +6141,10 @@
         <v>304</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
@@ -6167,16 +6157,16 @@
     </row>
     <row r="142" spans="1:11" ht="12.75" customHeight="1">
       <c r="A142" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
@@ -6186,16 +6176,16 @@
     </row>
     <row r="143" spans="1:11" ht="12.75" customHeight="1">
       <c r="A143" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
@@ -6205,13 +6195,13 @@
     </row>
     <row r="144" spans="1:11" ht="12.75" customHeight="1">
       <c r="A144" s="35" t="s">
+        <v>568</v>
+      </c>
+      <c r="B144" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="B144" s="12" t="s">
-        <v>570</v>
-      </c>
       <c r="C144" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D144" s="35"/>
       <c r="E144" s="10"/>
@@ -6222,16 +6212,16 @@
     </row>
     <row r="145" spans="1:9" ht="12.75" customHeight="1">
       <c r="A145" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="B145" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="B145" s="12" t="s">
-        <v>391</v>
-      </c>
       <c r="C145" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
@@ -6241,16 +6231,16 @@
     </row>
     <row r="146" spans="1:9" ht="12.75" customHeight="1">
       <c r="A146" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="B146" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="B146" s="12" t="s">
-        <v>361</v>
-      </c>
       <c r="C146" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
@@ -6260,16 +6250,16 @@
     </row>
     <row r="147" spans="1:9" ht="12.75" customHeight="1">
       <c r="A147" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B147" s="12" t="s">
         <v>247</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
@@ -6285,10 +6275,10 @@
         <v>52</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
@@ -6298,16 +6288,16 @@
     </row>
     <row r="149" spans="1:9" ht="12.75" customHeight="1">
       <c r="A149" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="B149" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="B149" s="12" t="s">
-        <v>393</v>
-      </c>
       <c r="C149" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
@@ -6317,16 +6307,16 @@
     </row>
     <row r="150" spans="1:9" ht="12.75" customHeight="1">
       <c r="A150" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="B150" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="B150" s="12" t="s">
-        <v>395</v>
-      </c>
       <c r="C150" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
@@ -6336,16 +6326,16 @@
     </row>
     <row r="151" spans="1:9" ht="12.75" customHeight="1">
       <c r="A151" s="35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B151" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
@@ -6355,13 +6345,13 @@
     </row>
     <row r="152" spans="1:9" ht="12.75" customHeight="1">
       <c r="A152" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="B152" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="B152" s="12" t="s">
-        <v>572</v>
-      </c>
       <c r="C152" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D152" s="35"/>
       <c r="E152" s="10"/>
@@ -6372,13 +6362,13 @@
     </row>
     <row r="153" spans="1:9" ht="12.75" customHeight="1">
       <c r="A153" s="35" t="s">
+        <v>572</v>
+      </c>
+      <c r="B153" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="B153" s="12" t="s">
-        <v>574</v>
-      </c>
       <c r="C153" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D153" s="35"/>
       <c r="E153" s="10"/>
@@ -6389,13 +6379,13 @@
     </row>
     <row r="154" spans="1:9" ht="12.75" customHeight="1">
       <c r="A154" s="35" t="s">
+        <v>574</v>
+      </c>
+      <c r="B154" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="B154" s="12" t="s">
-        <v>576</v>
-      </c>
       <c r="C154" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D154" s="35"/>
       <c r="E154" s="10"/>
@@ -6406,16 +6396,16 @@
     </row>
     <row r="155" spans="1:9" ht="12.75" customHeight="1">
       <c r="A155" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="B155" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="B155" s="12" t="s">
-        <v>398</v>
-      </c>
       <c r="C155" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
@@ -6425,13 +6415,13 @@
     </row>
     <row r="156" spans="1:9" ht="12.75" customHeight="1">
       <c r="A156" s="35" t="s">
+        <v>576</v>
+      </c>
+      <c r="B156" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="B156" s="12" t="s">
-        <v>578</v>
-      </c>
       <c r="C156" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D156" s="35"/>
       <c r="E156" s="10"/>
@@ -6442,16 +6432,16 @@
     </row>
     <row r="157" spans="1:9" ht="12.75" customHeight="1">
       <c r="A157" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="B157" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="B157" s="12" t="s">
-        <v>400</v>
-      </c>
       <c r="C157" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
@@ -6461,13 +6451,13 @@
     </row>
     <row r="158" spans="1:9" ht="12.75" customHeight="1">
       <c r="A158" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="B158" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="B158" s="12" t="s">
-        <v>580</v>
-      </c>
       <c r="C158" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D158" s="35"/>
       <c r="E158" s="10"/>
@@ -6478,16 +6468,16 @@
     </row>
     <row r="159" spans="1:9" ht="12.75" customHeight="1">
       <c r="A159" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="B159" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="B159" s="12" t="s">
-        <v>402</v>
-      </c>
       <c r="C159" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
@@ -6497,16 +6487,16 @@
     </row>
     <row r="160" spans="1:9" ht="12.75" customHeight="1">
       <c r="A160" s="35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B160" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
@@ -6516,16 +6506,16 @@
     </row>
     <row r="161" spans="1:10" ht="12.75" customHeight="1">
       <c r="A161" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="B161" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="B161" s="12" t="s">
-        <v>404</v>
-      </c>
       <c r="C161" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
@@ -6535,16 +6525,16 @@
     </row>
     <row r="162" spans="1:10" ht="12.75" customHeight="1">
       <c r="A162" s="35" t="s">
+        <v>508</v>
+      </c>
+      <c r="B162" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="B162" s="12" t="s">
-        <v>510</v>
-      </c>
       <c r="C162" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
@@ -6554,16 +6544,16 @@
     </row>
     <row r="163" spans="1:10" ht="12.75" customHeight="1">
       <c r="A163" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="B163" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="B163" s="12" t="s">
-        <v>371</v>
-      </c>
       <c r="C163" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
@@ -6579,10 +6569,10 @@
         <v>65</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
@@ -6593,16 +6583,16 @@
     </row>
     <row r="165" spans="1:10" s="32" customFormat="1" ht="12.75" customHeight="1">
       <c r="A165" s="35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B165" s="12" t="s">
         <v>250</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E165" s="30"/>
       <c r="F165" s="30"/>
@@ -6613,16 +6603,16 @@
     </row>
     <row r="166" spans="1:10" ht="12.75" customHeight="1">
       <c r="A166" s="35" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B166" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
@@ -6632,16 +6622,16 @@
     </row>
     <row r="167" spans="1:10" ht="12.75" customHeight="1">
       <c r="A167" s="35" t="s">
+        <v>566</v>
+      </c>
+      <c r="B167" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="B167" s="12" t="s">
-        <v>568</v>
-      </c>
       <c r="C167" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
@@ -6651,16 +6641,16 @@
     </row>
     <row r="168" spans="1:10" ht="12.75" customHeight="1">
       <c r="A168" s="35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B168" s="12" t="s">
         <v>256</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
@@ -6670,16 +6660,16 @@
     </row>
     <row r="169" spans="1:10" ht="12.75" customHeight="1">
       <c r="A169" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B169" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="B169" s="12" t="s">
-        <v>441</v>
-      </c>
       <c r="C169" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
@@ -6689,13 +6679,13 @@
     </row>
     <row r="170" spans="1:10" ht="12.75" customHeight="1">
       <c r="A170" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="B170" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="B170" s="12" t="s">
-        <v>582</v>
-      </c>
       <c r="C170" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D170" s="35"/>
       <c r="E170" s="10"/>
@@ -6706,16 +6696,16 @@
     </row>
     <row r="171" spans="1:10" ht="12.75" customHeight="1">
       <c r="A171" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="B171" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="B171" s="12" t="s">
-        <v>518</v>
-      </c>
       <c r="C171" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
@@ -6725,16 +6715,16 @@
     </row>
     <row r="172" spans="1:10" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A172" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B172" s="12" t="s">
         <v>299</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
@@ -6745,13 +6735,13 @@
     </row>
     <row r="173" spans="1:10" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A173" s="35" t="s">
+        <v>582</v>
+      </c>
+      <c r="B173" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="B173" s="12" t="s">
-        <v>584</v>
-      </c>
       <c r="C173" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D173" s="35"/>
       <c r="E173" s="10"/>
@@ -6763,9 +6753,6 @@
     </row>
     <row r="174" spans="1:10" ht="12.75" customHeight="1">
       <c r="A174" s="1"/>
-      <c r="C174" s="4" t="s">
-        <v>608</v>
-      </c>
       <c r="D174" s="12"/>
       <c r="G174" s="4"/>
       <c r="H174" s="6"/>
@@ -6776,7 +6763,7 @@
         <v>71</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D175" s="12"/>
       <c r="G175" s="4"/>
@@ -6789,7 +6776,7 @@
       </c>
       <c r="B176" s="13"/>
       <c r="C176" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D176" s="13"/>
       <c r="E176" s="20">
@@ -6807,11 +6794,11 @@
     </row>
     <row r="177" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1">
       <c r="A177" s="19" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B177" s="13"/>
       <c r="C177" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D177" s="13"/>
       <c r="E177" s="20">
@@ -6828,7 +6815,7 @@
         <v>120</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E178" s="6">
         <v>85</v>
@@ -6847,7 +6834,7 @@
         <v>121</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E179" s="6">
         <v>85</v>
@@ -6863,16 +6850,16 @@
     </row>
     <row r="180" spans="1:10" ht="12.75" customHeight="1">
       <c r="A180" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E180" s="6">
         <v>85</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
@@ -6882,7 +6869,7 @@
         <v>325</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E181" s="6">
         <v>85</v>
@@ -6898,7 +6885,7 @@
         <v>107</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E182" s="6">
         <v>85</v>
@@ -6914,7 +6901,7 @@
         <v>125</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E183" s="6">
         <v>80</v>
@@ -6930,10 +6917,10 @@
     </row>
     <row r="184" spans="1:10" ht="12.75" customHeight="1">
       <c r="A184" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E184" s="6">
         <v>80</v>
@@ -6944,10 +6931,10 @@
     </row>
     <row r="185" spans="1:10" ht="12.75" customHeight="1">
       <c r="A185" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E185" s="6">
         <v>80</v>
@@ -6958,32 +6945,32 @@
     </row>
     <row r="186" spans="1:10" ht="12.75" customHeight="1">
       <c r="A186" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E186" s="6">
         <v>80</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
     </row>
     <row r="187" spans="1:10" ht="12.75" customHeight="1">
       <c r="A187" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E187" s="6">
         <v>80</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
@@ -6993,7 +6980,7 @@
         <v>264</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E188" s="6">
         <v>80</v>
@@ -7009,7 +6996,7 @@
         <v>117</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E189" s="6">
         <v>75</v>
@@ -7023,7 +7010,7 @@
         <v>119</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E190" s="6">
         <v>75</v>
@@ -7042,13 +7029,13 @@
         <v>129</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E191" s="6">
         <v>75</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
@@ -7058,7 +7045,7 @@
         <v>102</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E192" s="6">
         <v>75</v>
@@ -7072,7 +7059,7 @@
         <v>261</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E193" s="6">
         <v>75</v>
@@ -7088,7 +7075,7 @@
         <v>128</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E194" s="6">
         <v>75</v>
@@ -7102,7 +7089,7 @@
         <v>130</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E195" s="6">
         <v>75</v>
@@ -7119,7 +7106,7 @@
         <v>106</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E196" s="6">
         <v>75</v>
@@ -7138,7 +7125,7 @@
         <v>137</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E197" s="6">
         <v>75</v>
@@ -7152,16 +7139,16 @@
     </row>
     <row r="198" spans="1:9" ht="12.75" customHeight="1">
       <c r="A198" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E198" s="6">
         <v>70</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
@@ -7171,7 +7158,7 @@
         <v>118</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E199" s="6">
         <v>70</v>
@@ -7185,7 +7172,7 @@
         <v>122</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E200" s="6">
         <v>70</v>
@@ -7199,7 +7186,7 @@
         <v>123</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E201" s="6">
         <v>70</v>
@@ -7215,7 +7202,7 @@
         <v>263</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E202" s="6">
         <v>70</v>
@@ -7229,7 +7216,7 @@
         <v>126</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E203" s="6">
         <v>70</v>
@@ -7243,29 +7230,29 @@
         <v>127</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E204" s="6">
         <v>70</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H204" s="6"/>
       <c r="I204" s="6"/>
     </row>
     <row r="205" spans="1:9" ht="12.75" customHeight="1">
       <c r="A205" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E205" s="6">
         <v>70</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H205" s="6"/>
       <c r="I205" s="6"/>
@@ -7275,7 +7262,7 @@
         <v>129</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E206" s="6">
         <v>70</v>
@@ -7289,7 +7276,7 @@
         <v>131</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E207" s="6">
         <v>70</v>
@@ -7303,13 +7290,13 @@
         <v>133</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E208" s="6">
         <v>70</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
@@ -7319,7 +7306,7 @@
         <v>135</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E209" s="6">
         <v>70</v>
@@ -7335,7 +7322,7 @@
         <v>132</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E210" s="6">
         <v>65</v>
@@ -7351,7 +7338,7 @@
         <v>136</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E211" s="6">
         <v>65</v>
@@ -7365,7 +7352,7 @@
         <v>138</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E212" s="6">
         <v>65</v>
@@ -7379,7 +7366,7 @@
         <v>116</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E213" s="6">
         <v>60</v>
@@ -7393,7 +7380,7 @@
         <v>103</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E214" s="6">
         <v>60</v>
@@ -7407,7 +7394,7 @@
         <v>134</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E215" s="6">
         <v>60</v>
@@ -7421,7 +7408,7 @@
         <v>124</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E216" s="6">
         <v>50</v>
@@ -7434,13 +7421,13 @@
     </row>
     <row r="217" spans="1:9" ht="12.75" customHeight="1">
       <c r="A217" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="B217" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="B217" s="12" t="s">
-        <v>513</v>
-      </c>
       <c r="C217" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D217" s="12"/>
       <c r="G217" s="4"/>
@@ -7455,7 +7442,7 @@
         <v>72</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D218" s="12"/>
       <c r="E218" s="10"/>
@@ -7469,10 +7456,10 @@
         <v>243</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D219" s="12"/>
       <c r="E219" s="10"/>
@@ -7489,7 +7476,7 @@
         <v>293</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D220" s="12"/>
       <c r="E220" s="10"/>
@@ -7502,7 +7489,7 @@
     </row>
     <row r="221" spans="1:9" ht="12.75" customHeight="1">
       <c r="C221" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="6"/>
@@ -7512,9 +7499,6 @@
       <c r="A222" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C222" s="4" t="s">
-        <v>608</v>
-      </c>
       <c r="G222" s="4"/>
       <c r="H222" s="6"/>
       <c r="I222" s="6"/>
@@ -7524,7 +7508,7 @@
         <v>139</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E223" s="6">
         <v>25</v>
@@ -7540,7 +7524,7 @@
         <v>140</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E224" s="6">
         <v>20</v>
@@ -7556,7 +7540,7 @@
         <v>141</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E225" s="6">
         <v>50</v>
@@ -7572,7 +7556,7 @@
         <v>142</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E226" s="6">
         <v>50</v>
@@ -7588,7 +7572,7 @@
         <v>143</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E227" s="6">
         <v>55</v>
@@ -7604,7 +7588,7 @@
         <v>144</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E228" s="6">
         <v>35</v>
@@ -7620,7 +7604,7 @@
         <v>145</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E229" s="6">
         <v>40</v>
@@ -7636,7 +7620,7 @@
         <v>146</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E230" s="6">
         <v>25</v>
@@ -7652,7 +7636,7 @@
         <v>201</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E231" s="6">
         <v>25</v>
@@ -7665,11 +7649,11 @@
     </row>
     <row r="232" spans="1:10" ht="12.75" customHeight="1">
       <c r="A232" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B232" s="26"/>
       <c r="C232" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D232" s="26"/>
       <c r="E232" s="27">
@@ -7677,18 +7661,18 @@
       </c>
       <c r="F232" s="27"/>
       <c r="G232" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H232" s="6"/>
       <c r="I232" s="6"/>
     </row>
     <row r="233" spans="1:10" s="28" customFormat="1" ht="12.75" customHeight="1">
       <c r="A233" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B233" s="26"/>
       <c r="C233" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D233" s="26"/>
       <c r="E233" s="27">
@@ -7704,11 +7688,11 @@
     </row>
     <row r="234" spans="1:10" ht="12.75" customHeight="1">
       <c r="A234" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B234" s="26"/>
       <c r="C234" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D234" s="26"/>
       <c r="E234" s="27">
@@ -7716,18 +7700,18 @@
       </c>
       <c r="F234" s="27"/>
       <c r="G234" s="26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H234" s="6"/>
       <c r="I234" s="6"/>
     </row>
     <row r="235" spans="1:10" ht="12.75" customHeight="1">
       <c r="A235" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B235" s="26"/>
       <c r="C235" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D235" s="26"/>
       <c r="E235" s="27">
@@ -7737,18 +7721,18 @@
         <v>8</v>
       </c>
       <c r="G235" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H235" s="6"/>
       <c r="I235" s="6"/>
     </row>
     <row r="236" spans="1:10" ht="12.75" customHeight="1">
       <c r="A236" s="26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B236" s="26"/>
       <c r="C236" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D236" s="26"/>
       <c r="E236" s="27">
@@ -7756,14 +7740,14 @@
       </c>
       <c r="F236" s="27"/>
       <c r="G236" s="26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H236" s="6"/>
       <c r="I236" s="6"/>
     </row>
     <row r="237" spans="1:10" ht="12.75" customHeight="1">
       <c r="C237" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G237" s="4"/>
       <c r="H237" s="6"/>
@@ -7774,7 +7758,7 @@
         <v>74</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="6"/>
@@ -7785,7 +7769,7 @@
         <v>194</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E239" s="6">
         <v>50</v>
@@ -7801,7 +7785,7 @@
         <v>200</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E240" s="6">
         <v>45</v>
@@ -7817,7 +7801,7 @@
         <v>195</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E241" s="6">
         <v>40</v>
@@ -7833,7 +7817,7 @@
         <v>219</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E242" s="6">
         <v>30</v>
@@ -7849,7 +7833,7 @@
         <v>196</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E243" s="6">
         <v>30</v>
@@ -7862,16 +7846,16 @@
     </row>
     <row r="244" spans="1:11" ht="12.75" customHeight="1">
       <c r="A244" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E244" s="6">
         <v>15</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H244" s="4"/>
       <c r="I244" s="6"/>
@@ -7881,7 +7865,7 @@
         <v>147</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E245" s="6">
         <v>35</v>
@@ -7895,7 +7879,7 @@
         <v>148</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E246" s="6">
         <v>45</v>
@@ -7906,10 +7890,10 @@
     </row>
     <row r="247" spans="1:11" ht="12.75" customHeight="1">
       <c r="A247" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E247" s="6">
         <v>25</v>
@@ -7922,7 +7906,7 @@
     </row>
     <row r="248" spans="1:11" s="28" customFormat="1" ht="12.75" customHeight="1">
       <c r="A248" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B248" s="26" t="s">
         <v>206</v>
@@ -7934,7 +7918,7 @@
       </c>
       <c r="F248" s="27"/>
       <c r="G248" s="26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H248" s="26"/>
       <c r="I248" s="27"/>
@@ -7942,7 +7926,7 @@
     </row>
     <row r="249" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1">
       <c r="A249" s="26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B249" s="26" t="s">
         <v>288</v>
@@ -7956,7 +7940,7 @@
         <v>16</v>
       </c>
       <c r="G249" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H249" s="26" t="s">
         <v>289</v>
